--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -170,30 +170,12 @@
     <t>118.24</t>
   </si>
   <si>
-    <t>1,482.78  </t>
-  </si>
-  <si>
     <t>136.21</t>
   </si>
   <si>
     <t>RETIRO ATM BP N/GIRON 2</t>
   </si>
   <si>
-    <t>1,618.99</t>
-  </si>
-  <si>
-    <t>1,638.99</t>
-  </si>
-  <si>
-    <t>1,639.26</t>
-  </si>
-  <si>
-    <t>1,483.08  </t>
-  </si>
-  <si>
-    <t>1,639.29</t>
-  </si>
-  <si>
     <t>0.50  </t>
   </si>
   <si>
@@ -336,15 +318,30 @@
   </si>
   <si>
     <t>0004565335</t>
+  </si>
+  <si>
+    <t>1482.78  </t>
+  </si>
+  <si>
+    <t>1483.08  </t>
+  </si>
+  <si>
+    <t>1639.29</t>
+  </si>
+  <si>
+    <t>1639.26</t>
+  </si>
+  <si>
+    <t>1638.99</t>
+  </si>
+  <si>
+    <t>1618.99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;\ #,##0.00"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,14 +371,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -673,8 +667,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.42578125" style="2"/>
-    <col min="6" max="6" width="11.42578125" style="3"/>
-    <col min="7" max="7" width="11.42578125" style="4"/>
+    <col min="6" max="7" width="11.42578125" style="3"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -689,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -697,7 +690,7 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="str">
@@ -716,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -724,7 +717,7 @@
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -739,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -747,7 +740,7 @@
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -762,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -770,7 +763,7 @@
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -785,7 +778,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -793,7 +786,7 @@
       <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -808,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -816,7 +809,7 @@
       <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -831,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -839,7 +832,7 @@
       <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -854,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -862,7 +855,7 @@
       <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -877,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -885,7 +878,7 @@
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -900,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -908,7 +901,7 @@
       <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -923,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -931,7 +924,7 @@
       <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -946,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -954,7 +947,7 @@
       <c r="F12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -969,7 +962,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
@@ -977,7 +970,7 @@
       <c r="F13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -992,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1000,7 +993,7 @@
       <c r="F14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1015,16 +1008,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1032,13 +1025,13 @@
         <v>41652</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
@@ -1046,8 +1039,8 @@
       <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>51</v>
+      <c r="G16" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1061,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
@@ -1069,8 +1062,8 @@
       <c r="F17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>52</v>
+      <c r="G17" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1084,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -1092,8 +1085,8 @@
       <c r="F18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>53</v>
+      <c r="G18" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1107,16 +1100,16 @@
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>55</v>
+        <v>99</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1130,16 +1123,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1147,22 +1140,22 @@
         <v>41649</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1176,16 +1169,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1193,22 +1186,22 @@
         <v>41649</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1216,22 +1209,22 @@
         <v>41649</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1239,22 +1232,22 @@
         <v>41649</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1268,16 +1261,16 @@
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1285,22 +1278,22 @@
         <v>41648</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1314,7 +1307,7 @@
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
@@ -1322,8 +1315,8 @@
       <c r="F28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>78</v>
+      <c r="G28" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -336,6 +336,24 @@
   </si>
   <si>
     <t>1618.99</t>
+  </si>
+  <si>
+    <t>0007868769</t>
+  </si>
+  <si>
+    <t>730.92</t>
+  </si>
+  <si>
+    <t>731.19</t>
+  </si>
+  <si>
+    <t>0007868747</t>
+  </si>
+  <si>
+    <t>724.27  </t>
+  </si>
+  <si>
+    <t>731.22</t>
   </si>
 </sst>
 </file>
@@ -658,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H3" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,374 +691,382 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="H1" t="str">
         <f>CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-01-31'), 'mo_concepto' =&gt; '13051694-MOVISTAR -CB-7872717', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007290871', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 11.20  , 'mo_saldo' =&gt; 6.95, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-04'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007868769', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 730.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>106</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A2,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B2,"', 'mo_tipo' =&gt; '",C2,"', 'mo_documento' =&gt; '",D2,"', 'mo_oficina' =&gt; '",E2,"', 'mo_monto' =&gt; ",F2,", 'mo_saldo' =&gt; ",G2,", 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-04'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007868769', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 731.19, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41663</v>
+        <v>41674</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
+      </c>
+      <c r="H3" t="str">
+        <f>CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A3,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B3,"', 'mo_tipo' =&gt; '",C3,"', 'mo_documento' =&gt; '",D3,"', 'mo_oficina' =&gt; '",E3,"', 'mo_monto' =&gt; ",F3,", 'mo_saldo' =&gt; ",G3,", 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-04'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007868747', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 724.27  , 'mo_saldo' =&gt; 731.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41662</v>
+        <v>41670</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41661</v>
+        <v>41670</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41656</v>
+        <v>41663</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41655</v>
+        <v>41662</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1048,22 +1074,22 @@
         <v>41652</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,22 +1097,22 @@
         <v>41652</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1094,22 +1120,22 @@
         <v>41652</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1117,91 +1143,91 @@
         <v>41652</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1209,22 +1235,22 @@
         <v>41649</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1232,22 +1258,22 @@
         <v>41649</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1255,67 +1281,136 @@
         <v>41649</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>41648</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E31" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Real" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="144">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -354,6 +354,108 @@
   </si>
   <si>
     <t>731.22</t>
+  </si>
+  <si>
+    <t>13091159-COSTO IVA CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0000533447</t>
+  </si>
+  <si>
+    <t>190.19</t>
+  </si>
+  <si>
+    <t>13091159-COSTO OPER CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0000533442</t>
+  </si>
+  <si>
+    <t>190.23</t>
+  </si>
+  <si>
+    <t>13091159-EMAP Q-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0000533420</t>
+  </si>
+  <si>
+    <t>6.83  </t>
+  </si>
+  <si>
+    <t>190.54</t>
+  </si>
+  <si>
+    <t>0007245704</t>
+  </si>
+  <si>
+    <t>56.35  </t>
+  </si>
+  <si>
+    <t>197.37</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP N/GIRON 1</t>
+  </si>
+  <si>
+    <t>0004392697</t>
+  </si>
+  <si>
+    <t>253.72</t>
+  </si>
+  <si>
+    <t>0004222672</t>
+  </si>
+  <si>
+    <t>270.00  </t>
+  </si>
+  <si>
+    <t>273.72</t>
+  </si>
+  <si>
+    <t>0004190618</t>
+  </si>
+  <si>
+    <t>281.05  </t>
+  </si>
+  <si>
+    <t>543.72</t>
+  </si>
+  <si>
+    <t>13084246-MEGADATOS S.A -CB-1500583339</t>
+  </si>
+  <si>
+    <t>0002665395</t>
+  </si>
+  <si>
+    <t>824.77</t>
+  </si>
+  <si>
+    <t>0004995154</t>
+  </si>
+  <si>
+    <t>190.00  </t>
+  </si>
+  <si>
+    <t>900.92</t>
+  </si>
+  <si>
+    <t>DB AH PROGRAMADO</t>
+  </si>
+  <si>
+    <t>0000193374</t>
+  </si>
+  <si>
+    <t>AGENCIA PARA PROCESOS BATCH</t>
+  </si>
+  <si>
+    <t>710.92</t>
+  </si>
+  <si>
+    <t>0000952785</t>
+  </si>
+  <si>
+    <t>290.19</t>
   </si>
 </sst>
 </file>
@@ -676,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H1:H3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,212 +793,204 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41674</v>
+        <v>41680</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="H1" t="str">
-        <f>CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-04'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007868769', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 730.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),</v>
+        <f>CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('2014-02-08 10:14:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-10'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000952785', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 100.00  , 'mo_saldo' =&gt; 290.19, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-08 10:14:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A2,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B2,"', 'mo_tipo' =&gt; '",C2,"', 'mo_documento' =&gt; '",D2,"', 'mo_oficina' =&gt; '",E2,"', 'mo_monto' =&gt; ",F2,", 'mo_saldo' =&gt; ",G2,", 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-04'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007868769', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 731.19, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" t="str">
-        <f>CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A3,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B3,"', 'mo_tipo' =&gt; '",C3,"', 'mo_documento' =&gt; '",D3,"', 'mo_oficina' =&gt; '",E3,"', 'mo_monto' =&gt; ",F3,", 'mo_saldo' =&gt; ",G3,", 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-04'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007868747', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 724.27  , 'mo_saldo' =&gt; 731.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41670</v>
+        <v>41677</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41663</v>
+        <v>41676</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41662</v>
+        <v>41676</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41661</v>
+        <v>41676</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41656</v>
+        <v>41676</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -905,512 +999,765 @@
         <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41655</v>
+        <v>41675</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41654</v>
+        <v>41674</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41653</v>
+        <v>41674</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41653</v>
+        <v>41670</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41653</v>
+        <v>41670</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41652</v>
+        <v>41663</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41652</v>
+        <v>41662</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41652</v>
+        <v>41661</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41652</v>
+        <v>41656</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41649</v>
+        <v>41654</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>41648</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C42" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E42" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="173">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -456,6 +456,93 @@
   </si>
   <si>
     <t>290.19</t>
+  </si>
+  <si>
+    <t>13076473-COSTO IVA CASH-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0007639266</t>
+  </si>
+  <si>
+    <t>121.35</t>
+  </si>
+  <si>
+    <t>13076473-COSTO OPER CASH-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0007639254</t>
+  </si>
+  <si>
+    <t>121.39</t>
+  </si>
+  <si>
+    <t>13076473-E E Q-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0007639228</t>
+  </si>
+  <si>
+    <t>40.73  </t>
+  </si>
+  <si>
+    <t>121.70</t>
+  </si>
+  <si>
+    <t>0000842904</t>
+  </si>
+  <si>
+    <t>79.00  </t>
+  </si>
+  <si>
+    <t>162.43</t>
+  </si>
+  <si>
+    <t>0008662274</t>
+  </si>
+  <si>
+    <t>81.35  </t>
+  </si>
+  <si>
+    <t>83.43</t>
+  </si>
+  <si>
+    <t>CONSUMO DATA FYBECA TORRES MEDICAS</t>
+  </si>
+  <si>
+    <t>0008157532</t>
+  </si>
+  <si>
+    <t>10.77  </t>
+  </si>
+  <si>
+    <t>164.78</t>
+  </si>
+  <si>
+    <t>0008127883</t>
+  </si>
+  <si>
+    <t>14.64  </t>
+  </si>
+  <si>
+    <t>175.55</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP D/H. METROPOLITANO</t>
+  </si>
+  <si>
+    <t>0007987951</t>
+  </si>
+  <si>
+    <t>HOSPITAL METROPOLITANO</t>
+  </si>
+  <si>
+    <t>80.00  </t>
+  </si>
+  <si>
+    <t>0010813816</t>
+  </si>
+  <si>
+    <t>270.19</t>
   </si>
 </sst>
 </file>
@@ -778,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,103 +880,103 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1" t="str">
-        <f>CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('2014-02-08 10:14:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-10'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000952785', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 100.00  , 'mo_saldo' =&gt; 290.19, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-08 10:14:17'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),</v>
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-12'), 'mo_concepto' =&gt; '13076473-COSTO IVA CASH-EQ-12430000', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007639266', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 121.35, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-12 22:8:50'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -898,113 +985,113 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41675</v>
+        <v>41680</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1013,205 +1100,205 @@
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41663</v>
+        <v>41676</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41662</v>
+        <v>41676</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41661</v>
+        <v>41675</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1220,544 +1307,751 @@
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41656</v>
+        <v>41674</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41654</v>
+        <v>41670</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41653</v>
+        <v>41670</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41653</v>
+        <v>41663</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41653</v>
+        <v>41662</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41652</v>
+        <v>41661</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41652</v>
+        <v>41656</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E35" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E51" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="196">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -543,6 +543,75 @@
   </si>
   <si>
     <t>270.19</t>
+  </si>
+  <si>
+    <t>13155412-MOVISTAR -CB-22783500</t>
+  </si>
+  <si>
+    <t>0016916650</t>
+  </si>
+  <si>
+    <t>35.83  </t>
+  </si>
+  <si>
+    <t>89.23</t>
+  </si>
+  <si>
+    <t>0013927324</t>
+  </si>
+  <si>
+    <t>125.06</t>
+  </si>
+  <si>
+    <t>125.33</t>
+  </si>
+  <si>
+    <t>0013927289</t>
+  </si>
+  <si>
+    <t>68.06  </t>
+  </si>
+  <si>
+    <t>125.36</t>
+  </si>
+  <si>
+    <t>0006865231</t>
+  </si>
+  <si>
+    <t>34.05  </t>
+  </si>
+  <si>
+    <t>57.30</t>
+  </si>
+  <si>
+    <t>0006818149</t>
+  </si>
+  <si>
+    <t>30.00  </t>
+  </si>
+  <si>
+    <t>91.35</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP D/INCA-3</t>
+  </si>
+  <si>
+    <t>0008354932</t>
+  </si>
+  <si>
+    <t>EL INCA</t>
+  </si>
+  <si>
+    <t>40.00  </t>
+  </si>
+  <si>
+    <t>61.35</t>
+  </si>
+  <si>
+    <t>0000701981</t>
+  </si>
+  <si>
+    <t>101.35</t>
   </si>
 </sst>
 </file>
@@ -865,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H8" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,103 +949,103 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="H1" t="str">
-        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-12'), 'mo_concepto' =&gt; '13076473-COSTO IVA CASH-EQ-12430000', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007639266', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 121.35, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-12 22:8:50'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H8" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-17'), 'mo_concepto' =&gt; '13155412-MOVISTAR -CB-22783500', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0016916650', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 35.83  , 'mo_saldo' =&gt; 89.23, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-17 21:7:18'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -985,1073 +1054,1257 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41675</v>
+        <v>41677</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41663</v>
+        <v>41676</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41662</v>
+        <v>41675</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41661</v>
+        <v>41674</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41656</v>
+        <v>41674</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41655</v>
+        <v>41670</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41654</v>
+        <v>41670</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41653</v>
+        <v>41663</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41653</v>
+        <v>41662</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41653</v>
+        <v>41661</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41652</v>
+        <v>41656</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="207">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -612,6 +612,39 @@
   </si>
   <si>
     <t>101.35</t>
+  </si>
+  <si>
+    <t>0002989186</t>
+  </si>
+  <si>
+    <t>67.76  </t>
+  </si>
+  <si>
+    <t>29.23</t>
+  </si>
+  <si>
+    <t>0004123569</t>
+  </si>
+  <si>
+    <t>96.99</t>
+  </si>
+  <si>
+    <t>97.26</t>
+  </si>
+  <si>
+    <t>0004123527</t>
+  </si>
+  <si>
+    <t>97.29</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP D/QUICENTRO SUR3</t>
+  </si>
+  <si>
+    <t>0003046655</t>
+  </si>
+  <si>
+    <t>60.00  </t>
   </si>
 </sst>
 </file>
@@ -934,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H2:H8"/>
+      <selection activeCell="H5" sqref="H1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,34 +982,34 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41687</v>
+        <v>41690</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H8" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-17'), 'mo_concepto' =&gt; '13155412-MOVISTAR -CB-22783500', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0016916650', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 35.83  , 'mo_saldo' =&gt; 89.23, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-17 21:7:18'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-20'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002989186', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 67.76  , 'mo_saldo' =&gt; 29.23, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -985,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -994,12 +1027,16 @@
         <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>178</v>
+        <v>200</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-19'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004123569', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 96.99, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -1008,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -1017,12 +1054,16 @@
         <v>40</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>179</v>
+        <v>201</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-19'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004123569', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 97.26, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -1031,7 +1072,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -1040,30 +1081,38 @@
         <v>181</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>182</v>
+        <v>203</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-19'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0004123527', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 68.06  , 'mo_saldo' =&gt; 97.29, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-19'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/QUICENTRO SUR3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0003046655', 'mo_oficina' =&gt; 'CENTRO DE ACOPIO NORTE', 'mo_monto' =&gt; 60.00  , 'mo_saldo' =&gt; 29.23, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1071,1011 +1120,1011 @@
         <v>41687</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41670</v>
+        <v>41675</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41663</v>
+        <v>41674</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41662</v>
+        <v>41674</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41661</v>
+        <v>41674</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41656</v>
+        <v>41670</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41655</v>
+        <v>41670</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41655</v>
+        <v>41663</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41655</v>
+        <v>41662</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41654</v>
+        <v>41661</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2083,22 +2132,22 @@
         <v>41652</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2112,131 +2161,131 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2244,67 +2293,182 @@
         <v>41649</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E58" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>41648</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B64" t="s">
         <v>16</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C64" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E64" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -645,6 +645,63 @@
   </si>
   <si>
     <t>60.00  </t>
+  </si>
+  <si>
+    <t>0000948980</t>
+  </si>
+  <si>
+    <t>567.02</t>
+  </si>
+  <si>
+    <t>INTERES A SU FAVOR</t>
+  </si>
+  <si>
+    <t>0003342171</t>
+  </si>
+  <si>
+    <t>0.02  </t>
+  </si>
+  <si>
+    <t>587.02</t>
+  </si>
+  <si>
+    <t>0010403496</t>
+  </si>
+  <si>
+    <t>587.00</t>
+  </si>
+  <si>
+    <t>13229623-MOVISTAR -CB-7872717</t>
+  </si>
+  <si>
+    <t>0008582680</t>
+  </si>
+  <si>
+    <t>857.00</t>
+  </si>
+  <si>
+    <t>0000777219</t>
+  </si>
+  <si>
+    <t>115.00  </t>
+  </si>
+  <si>
+    <t>868.20</t>
+  </si>
+  <si>
+    <t>0007678635</t>
+  </si>
+  <si>
+    <t>753.20</t>
+  </si>
+  <si>
+    <t>753.47</t>
+  </si>
+  <si>
+    <t>0007678603</t>
+  </si>
+  <si>
+    <t>753.50</t>
   </si>
 </sst>
 </file>
@@ -967,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H1:H5"/>
+      <selection activeCell="H1" sqref="H1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,418 +1039,430 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41690</v>
+        <v>41703</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-20'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002989186', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 67.76  , 'mo_saldo' =&gt; 29.23, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H8" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000948980', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 567.02, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41689</v>
+        <v>41698</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-19'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004123569', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 96.99, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-28'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0003342171', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.02  , 'mo_saldo' =&gt; 587.02, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41689</v>
+        <v>41698</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-19'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004123569', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 97.26, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-28'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010403496', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 270.00  , 'mo_saldo' =&gt; 587.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41689</v>
+        <v>41698</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-19'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0004123527', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 68.06  , 'mo_saldo' =&gt; 97.29, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-28'), 'mo_concepto' =&gt; '13229623-MOVISTAR -CB-7872717', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008582680', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 11.20  , 'mo_saldo' =&gt; 857.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41689</v>
+        <v>41697</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-19'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/QUICENTRO SUR3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0003046655', 'mo_oficina' =&gt; 'CENTRO DE ACOPIO NORTE', 'mo_monto' =&gt; 60.00  , 'mo_saldo' =&gt; 29.23, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-27'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000777219', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 115.00  , 'mo_saldo' =&gt; 868.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>176</v>
+        <v>222</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-26'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007678635', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 753.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>178</v>
+        <v>223</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-26'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007678635', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 753.47, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>179</v>
+        <v>225</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-26'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007678603', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 724.27  , 'mo_saldo' =&gt; 753.50, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41687</v>
+        <v>41690</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41684</v>
+        <v>41689</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41684</v>
+        <v>41689</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1402,1073 +1471,1257 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="E24" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41675</v>
+        <v>41677</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41663</v>
+        <v>41676</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41662</v>
+        <v>41675</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41661</v>
+        <v>41674</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41656</v>
+        <v>41674</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41655</v>
+        <v>41674</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41655</v>
+        <v>41670</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41654</v>
+        <v>41670</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41653</v>
+        <v>41663</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41653</v>
+        <v>41662</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E48" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41653</v>
+        <v>41661</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41652</v>
+        <v>41656</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E57" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E58" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E59" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E63" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
       </c>
       <c r="F64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="241">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -702,6 +702,51 @@
   </si>
   <si>
     <t>753.50</t>
+  </si>
+  <si>
+    <t>0016349162</t>
+  </si>
+  <si>
+    <t>280.95  </t>
+  </si>
+  <si>
+    <t>187.30</t>
+  </si>
+  <si>
+    <t>CONSUMO VISA NA PIZZA HUT</t>
+  </si>
+  <si>
+    <t>0014037864</t>
+  </si>
+  <si>
+    <t>29.19  </t>
+  </si>
+  <si>
+    <t>468.25</t>
+  </si>
+  <si>
+    <t>0011137163</t>
+  </si>
+  <si>
+    <t>19.58  </t>
+  </si>
+  <si>
+    <t>497.44</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP N/S.S CCI-2</t>
+  </si>
+  <si>
+    <t>0007326973</t>
+  </si>
+  <si>
+    <t>C.C.I</t>
+  </si>
+  <si>
+    <t>50.00  </t>
+  </si>
+  <si>
+    <t>517.02</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H8"/>
+      <selection activeCell="H1" sqref="H1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,243 +1087,227 @@
         <v>41703</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H8" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000948980', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 567.02, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0016349162', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 280.95  , 'mo_saldo' =&gt; 187.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:16:55'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-28'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0003342171', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.02  , 'mo_saldo' =&gt; 587.02, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; 'CONSUMO VISA NA PIZZA HUT', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0014037864', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 29.19  , 'mo_saldo' =&gt; 468.25, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:16:55'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-28'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010403496', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 270.00  , 'mo_saldo' =&gt; 587.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011137163', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 19.58  , 'mo_saldo' =&gt; 497.44, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:16:55'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>239</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-28'), 'mo_concepto' =&gt; '13229623-MOVISTAR -CB-7872717', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008582680', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 11.20  , 'mo_saldo' =&gt; 857.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/S.S CCI-2', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007326973', 'mo_oficina' =&gt; 'C.C.I', 'mo_monto' =&gt; 50.00  , 'mo_saldo' =&gt; 517.02, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:16:55'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41697</v>
+        <v>41703</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-27'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000777219', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 115.00  , 'mo_saldo' =&gt; 868.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-26'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007678635', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 753.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-26'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007678635', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 753.47, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-26'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007678603', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 724.27  , 'mo_saldo' =&gt; 753.50, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41690</v>
+        <v>41697</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -1287,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -1296,12 +1325,12 @@
         <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -1310,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -1319,12 +1348,12 @@
         <v>40</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -1333,36 +1362,36 @@
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>198</v>
@@ -1370,94 +1399,94 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1465,22 +1494,22 @@
         <v>41687</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1488,459 +1517,459 @@
         <v>41687</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1948,528 +1977,528 @@
         <v>41676</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41663</v>
+        <v>41674</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41662</v>
+        <v>41674</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41661</v>
+        <v>41670</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41656</v>
+        <v>41670</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41655</v>
+        <v>41663</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E51" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41655</v>
+        <v>41662</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41654</v>
+        <v>41656</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E55" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E56" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E61" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2477,22 +2506,22 @@
         <v>41652</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E62" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2500,22 +2529,22 @@
         <v>41652</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2523,50 +2552,50 @@
         <v>41652</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E65" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B66" t="s">
         <v>39</v>
@@ -2575,62 +2604,62 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E66" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E68" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2638,22 +2667,22 @@
         <v>41649</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E69" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2661,67 +2690,159 @@
         <v>41649</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E71" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>41648</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B76" t="s">
         <v>16</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C76" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E76" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dml2\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dml2\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="256">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -747,6 +747,51 @@
   </si>
   <si>
     <t>517.02</t>
+  </si>
+  <si>
+    <t>0002272702</t>
+  </si>
+  <si>
+    <t>91.15</t>
+  </si>
+  <si>
+    <t>13275006-MEGADATOS S.A -CB-1500583339</t>
+  </si>
+  <si>
+    <t>0008265437</t>
+  </si>
+  <si>
+    <t>111.15</t>
+  </si>
+  <si>
+    <t>13276300-COSTO IVA CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0009678219</t>
+  </si>
+  <si>
+    <t>81.83</t>
+  </si>
+  <si>
+    <t>13276300-COSTO OPER CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0009678203</t>
+  </si>
+  <si>
+    <t>81.87</t>
+  </si>
+  <si>
+    <t>13276300-EMAP Q-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0009678154</t>
+  </si>
+  <si>
+    <t>8.97  </t>
+  </si>
+  <si>
+    <t>82.18</t>
   </si>
 </sst>
 </file>
@@ -1069,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H4"/>
+      <selection activeCell="H3" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,437 +1129,433 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0016349162', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 280.95  , 'mo_saldo' =&gt; 187.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:16:55'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-10'), 'mo_concepto' =&gt; '13276300-COSTO IVA CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009678219', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 81.83, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-10 11:53:25'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; 'CONSUMO VISA NA PIZZA HUT', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0014037864', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 29.19  , 'mo_saldo' =&gt; 468.25, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:16:55'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-10'), 'mo_concepto' =&gt; '13276300-COSTO OPER CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009678203', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.31  , 'mo_saldo' =&gt; 81.87, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-10 11:53:25'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011137163', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 19.58  , 'mo_saldo' =&gt; 497.44, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:16:55'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-10'), 'mo_concepto' =&gt; '13276300-EMAP Q-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009678154', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 8.97  , 'mo_saldo' =&gt; 82.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-10 11:53:25'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/S.S CCI-2', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007326973', 'mo_oficina' =&gt; 'C.C.I', 'mo_monto' =&gt; 50.00  , 'mo_saldo' =&gt; 517.02, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:16:55'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41697</v>
+        <v>41703</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41690</v>
+        <v>41698</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41689</v>
+        <v>41697</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41687</v>
+        <v>41690</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -1523,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -1532,12 +1573,12 @@
         <v>37</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -1546,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
@@ -1555,12 +1596,12 @@
         <v>40</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -1569,7 +1610,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
@@ -1578,30 +1619,30 @@
         <v>181</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1609,1011 +1650,1011 @@
         <v>41687</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41670</v>
+        <v>41675</v>
       </c>
       <c r="B49" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41663</v>
+        <v>41674</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41662</v>
+        <v>41674</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41661</v>
+        <v>41674</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41656</v>
+        <v>41670</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E54" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41655</v>
+        <v>41670</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41655</v>
+        <v>41663</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41655</v>
+        <v>41662</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41654</v>
+        <v>41661</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
         <v>18</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E59" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E60" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E64" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E65" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E66" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2621,22 +2662,22 @@
         <v>41652</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2650,131 +2691,131 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E68" t="s">
         <v>18</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E69" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E70" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2782,67 +2823,182 @@
         <v>41649</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E75" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>41648</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B81" t="s">
         <v>16</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C81" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E81" t="s">
         <v>18</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dml2\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php-projects\dml2\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="265">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -792,6 +792,33 @@
   </si>
   <si>
     <t>82.18</t>
+  </si>
+  <si>
+    <t>0008035957</t>
+  </si>
+  <si>
+    <t>22.64</t>
+  </si>
+  <si>
+    <t>CONSUMO VISA NA KFC K104</t>
+  </si>
+  <si>
+    <t>0014884384</t>
+  </si>
+  <si>
+    <t>19.08  </t>
+  </si>
+  <si>
+    <t>58.47</t>
+  </si>
+  <si>
+    <t>0014836261</t>
+  </si>
+  <si>
+    <t>4.28  </t>
+  </si>
+  <si>
+    <t>77.55</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H1:H3"/>
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,29 +1156,29 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="H1" t="str">
         <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-10'), 'mo_concepto' =&gt; '13276300-COSTO IVA CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009678219', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.04  , 'mo_saldo' =&gt; 81.83, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-10 11:53:25'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-11'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008035957', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 35.83  , 'mo_saldo' =&gt; 22.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-12 20:56:42'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1159,26 +1186,26 @@
         <v>41708</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-10'), 'mo_concepto' =&gt; '13276300-COSTO OPER CASH-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009678203', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 0.31  , 'mo_saldo' =&gt; 81.87, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-10 11:53:25'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-10'), 'mo_concepto' =&gt; 'CONSUMO VISA NA KFC K104', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0014884384', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 19.08  , 'mo_saldo' =&gt; 58.47, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-12 20:56:42'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1186,26 +1213,26 @@
         <v>41708</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-10'), 'mo_concepto' =&gt; '13276300-EMAP Q-AP-00046554192', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009678154', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 8.97  , 'mo_saldo' =&gt; 82.18, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-10 11:53:25'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-10'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0014836261', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 4.28  , 'mo_saldo' =&gt; 77.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-12 20:56:42'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1213,114 +1240,114 @@
         <v>41708</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1328,22 +1355,22 @@
         <v>41703</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1351,275 +1378,275 @@
         <v>41703</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1627,91 +1654,91 @@
         <v>41689</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1719,22 +1746,22 @@
         <v>41687</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,22 +1769,22 @@
         <v>41687</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,137 +1792,137 @@
         <v>41687</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1903,91 +1930,91 @@
         <v>41682</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,88 +2022,88 @@
         <v>41681</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>112</v>
@@ -2084,117 +2111,117 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2202,22 +2229,22 @@
         <v>41676</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,114 +2252,114 @@
         <v>41676</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E48" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E51" t="s">
         <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2340,390 +2367,390 @@
         <v>41674</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E54" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41663</v>
+        <v>41674</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41662</v>
+        <v>41670</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41661</v>
+        <v>41670</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41656</v>
+        <v>41663</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41655</v>
+        <v>41662</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E60" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E64" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E65" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2731,22 +2758,22 @@
         <v>41652</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E70" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2754,22 +2781,22 @@
         <v>41652</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E71" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,22 +2804,22 @@
         <v>41652</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2800,91 +2827,91 @@
         <v>41652</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E74" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2892,22 +2919,22 @@
         <v>41649</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,22 +2942,22 @@
         <v>41649</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E78" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2938,67 +2965,136 @@
         <v>41649</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E80" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>41648</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B84" t="s">
         <v>16</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C84" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E84" t="s">
         <v>18</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php-projects\dml2\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dml2\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="270">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -819,6 +819,21 @@
   </si>
   <si>
     <t>77.55</t>
+  </si>
+  <si>
+    <t>0009373760</t>
+  </si>
+  <si>
+    <t>164.00  </t>
+  </si>
+  <si>
+    <t>166.64</t>
+  </si>
+  <si>
+    <t>0004974981</t>
+  </si>
+  <si>
+    <t>2.64</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H3"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,61 +1171,61 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41709</v>
+        <v>41712</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-11'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008035957', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 35.83  , 'mo_saldo' =&gt; 22.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-12 20:56:42'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-14'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0009373760', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 164.00  , 'mo_saldo' =&gt; 166.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-15 10:9:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-10'), 'mo_concepto' =&gt; 'CONSUMO VISA NA KFC K104', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0014884384', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 19.08  , 'mo_saldo' =&gt; 58.47, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-12 20:56:42'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-13'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004974981', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 2.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-15 10:9:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1219,20 +1234,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-10'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0014836261', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 4.28  , 'mo_saldo' =&gt; 77.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-12 20:56:42'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1240,22 +1251,22 @@
         <v>41708</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1263,22 +1274,22 @@
         <v>41708</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1286,22 +1297,22 @@
         <v>41708</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1309,91 +1320,91 @@
         <v>41708</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1401,22 +1412,22 @@
         <v>41703</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1424,22 +1435,22 @@
         <v>41703</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E12" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1447,68 +1458,68 @@
         <v>41703</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1516,91 +1527,91 @@
         <v>41698</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1608,91 +1619,91 @@
         <v>41696</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1700,22 +1711,22 @@
         <v>41689</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1723,68 +1734,68 @@
         <v>41689</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1792,22 +1803,22 @@
         <v>41687</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1815,22 +1826,22 @@
         <v>41687</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1838,22 +1849,22 @@
         <v>41687</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1861,114 +1872,114 @@
         <v>41687</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1976,22 +1987,22 @@
         <v>41682</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
         <v>58</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1999,68 +2010,68 @@
         <v>41682</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2068,22 +2079,22 @@
         <v>41681</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2091,114 +2102,114 @@
         <v>41681</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2206,68 +2217,68 @@
         <v>41677</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
         <v>58</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2275,22 +2286,22 @@
         <v>41676</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2298,22 +2309,22 @@
         <v>41676</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2321,91 +2332,91 @@
         <v>41676</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2413,22 +2424,22 @@
         <v>41674</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2436,206 +2447,206 @@
         <v>41674</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B57" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41663</v>
+        <v>41670</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41662</v>
+        <v>41670</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41661</v>
+        <v>41663</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41656</v>
+        <v>41662</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E62" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E63" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E64" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2643,91 +2654,91 @@
         <v>41655</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E67" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E68" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,68 +2746,68 @@
         <v>41653</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2804,22 +2815,22 @@
         <v>41652</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2827,22 +2838,22 @@
         <v>41652</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E73" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2850,22 +2861,22 @@
         <v>41652</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2873,22 +2884,22 @@
         <v>41652</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2896,68 +2907,68 @@
         <v>41652</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E78" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2965,22 +2976,22 @@
         <v>41649</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2988,22 +2999,22 @@
         <v>41649</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E80" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3011,22 +3022,22 @@
         <v>41649</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E81" t="s">
         <v>58</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3034,50 +3045,50 @@
         <v>41649</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E83" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
@@ -3086,15 +3097,61 @@
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E84" t="s">
         <v>18</v>
       </c>
       <c r="F84" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="329">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -834,6 +834,183 @@
   </si>
   <si>
     <t>2.64</t>
+  </si>
+  <si>
+    <t>0008523797</t>
+  </si>
+  <si>
+    <t>300.34</t>
+  </si>
+  <si>
+    <t>300.61</t>
+  </si>
+  <si>
+    <t>0008523773</t>
+  </si>
+  <si>
+    <t>300.64</t>
+  </si>
+  <si>
+    <t>0008523744</t>
+  </si>
+  <si>
+    <t>232.58</t>
+  </si>
+  <si>
+    <t>232.85</t>
+  </si>
+  <si>
+    <t>0008523712</t>
+  </si>
+  <si>
+    <t>142.80  </t>
+  </si>
+  <si>
+    <t>232.88</t>
+  </si>
+  <si>
+    <t>CONSUMO DATA SUPERMAXI (AV. 6 DE DI</t>
+  </si>
+  <si>
+    <t>0008233542</t>
+  </si>
+  <si>
+    <t>45.48  </t>
+  </si>
+  <si>
+    <t>90.08</t>
+  </si>
+  <si>
+    <t>0005524700</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP D/AEROPUERTO QTO</t>
+  </si>
+  <si>
+    <t>0001687695</t>
+  </si>
+  <si>
+    <t>95.56</t>
+  </si>
+  <si>
+    <t>0001678823</t>
+  </si>
+  <si>
+    <t>115.56</t>
+  </si>
+  <si>
+    <t>CONSUMO DATA COMERCIAL EL ARBOLITO</t>
+  </si>
+  <si>
+    <t>0001254526</t>
+  </si>
+  <si>
+    <t>9.93  </t>
+  </si>
+  <si>
+    <t>0018609446</t>
+  </si>
+  <si>
+    <t>17.61  </t>
+  </si>
+  <si>
+    <t>145.49</t>
+  </si>
+  <si>
+    <t>0017870798</t>
+  </si>
+  <si>
+    <t>163.10</t>
+  </si>
+  <si>
+    <t>163.37</t>
+  </si>
+  <si>
+    <t>0017870789</t>
+  </si>
+  <si>
+    <t>42.50  </t>
+  </si>
+  <si>
+    <t>163.40</t>
+  </si>
+  <si>
+    <t>0017870764</t>
+  </si>
+  <si>
+    <t>120.90</t>
+  </si>
+  <si>
+    <t>121.17</t>
+  </si>
+  <si>
+    <t>0017870743</t>
+  </si>
+  <si>
+    <t>17.00  </t>
+  </si>
+  <si>
+    <t>121.20</t>
+  </si>
+  <si>
+    <t>13334935-MOVISTAR -CB-22783500</t>
+  </si>
+  <si>
+    <t>0017542604</t>
+  </si>
+  <si>
+    <t>104.20</t>
+  </si>
+  <si>
+    <t>CONSUMO DATA SUPERMAXI (CUMBAYA)</t>
+  </si>
+  <si>
+    <t>0004391042</t>
+  </si>
+  <si>
+    <t>5.35  </t>
+  </si>
+  <si>
+    <t>140.03</t>
+  </si>
+  <si>
+    <t>RETIRO BANRED BANCO INTERNACIONAL</t>
+  </si>
+  <si>
+    <t>0004269222</t>
+  </si>
+  <si>
+    <t>10.50  </t>
+  </si>
+  <si>
+    <t>145.38</t>
+  </si>
+  <si>
+    <t>0.05  </t>
+  </si>
+  <si>
+    <t>155.88</t>
+  </si>
+  <si>
+    <t>COMISION ATM</t>
+  </si>
+  <si>
+    <t>0.45  </t>
+  </si>
+  <si>
+    <t>155.93</t>
+  </si>
+  <si>
+    <t>CONSUMO VISA NA GASOLINERA VISTA AL V</t>
+  </si>
+  <si>
+    <t>0004259201</t>
+  </si>
+  <si>
+    <t>10.26  </t>
+  </si>
+  <si>
+    <t>156.38</t>
   </si>
 </sst>
 </file>
@@ -1156,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,1441 +1348,1529 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41712</v>
+        <v>41717</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-14'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0009373760', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 164.00  , 'mo_saldo' =&gt; 166.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-15 10:9:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H24" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008523797', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 300.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41711</v>
+        <v>41717</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-13'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004974981', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 2.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-15 10:9:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008523797', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 300.61, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41709</v>
+        <v>41717</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>257</v>
+        <v>274</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0008523773', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 68.06  , 'mo_saldo' =&gt; 300.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41708</v>
+        <v>41717</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>261</v>
+        <v>276</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008523744', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 232.58, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41708</v>
+        <v>41717</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008523744', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 232.85, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41708</v>
+        <v>41717</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>279</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>248</v>
+        <v>280</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0008523712', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 142.80  , 'mo_saldo' =&gt; 232.88, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41708</v>
+        <v>41717</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>251</v>
+        <v>284</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; 'CONSUMO DATA SUPERMAXI (AV. 6 DE DI', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008233542', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 45.48  , 'mo_saldo' =&gt; 90.08, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41708</v>
+        <v>41717</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>255</v>
+        <v>33</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0005524700', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 40.00  , 'mo_saldo' =&gt; 135.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41708</v>
+        <v>41716</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>242</v>
+        <v>288</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-18'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/AEROPUERTO QTO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001687695', 'mo_oficina' =&gt; 'CENTRO DE ACOPIO NORTE', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 95.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41705</v>
+        <v>41716</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>245</v>
+        <v>290</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-18'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/AEROPUERTO QTO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001678823', 'mo_oficina' =&gt; 'CENTRO DE ACOPIO NORTE', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 115.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41703</v>
+        <v>41716</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>228</v>
+        <v>33</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-18'), 'mo_concepto' =&gt; 'CONSUMO DATA COMERCIAL EL ARBOLITO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001254526', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 9.93  , 'mo_saldo' =&gt; 135.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>232</v>
+        <v>296</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'CONSUMO VISA NA KFC K104', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0018609446', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 17.61  , 'mo_saldo' =&gt; 145.49, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>235</v>
+        <v>298</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0017870798', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 163.10, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>240</v>
+        <v>299</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0017870798', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 163.37, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>301</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>208</v>
+        <v>302</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0017870789', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 42.50  , 'mo_saldo' =&gt; 163.40, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41698</v>
+        <v>41715</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0017870764', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 120.90, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0017870764', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 121.17, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>41698</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D18" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0017870743', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 17.00  , 'mo_saldo' =&gt; 121.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; '13334935-MOVISTAR -CB-22783500', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0017542604', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 35.83  , 'mo_saldo' =&gt; 104.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'CONSUMO DATA SUPERMAXI (CUMBAYA)', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004391042', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 5.35  , 'mo_saldo' =&gt; 140.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B21" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'RETIRO BANRED BANCO INTERNACIONAL', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004269222', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 10.50  , 'mo_saldo' =&gt; 145.38, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004269222', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 0.05  , 'mo_saldo' =&gt; 155.88, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B23" t="s">
+        <v>322</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'COMISION ATM', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004269222', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 0.45  , 'mo_saldo' =&gt; 155.93, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B24" t="s">
+        <v>325</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'CONSUMO VISA NA GASOLINERA VISTA AL V', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004259201', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 10.26  , 'mo_saldo' =&gt; 156.38, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>41712</v>
+      </c>
+      <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>41698</v>
-      </c>
-      <c r="B18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>41697</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>41696</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>41696</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>41696</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>41690</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>41689</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>41689</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41689</v>
+        <v>41711</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41689</v>
+        <v>41709</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41687</v>
+        <v>41708</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="E28" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41687</v>
+        <v>41708</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41687</v>
+        <v>41708</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41687</v>
+        <v>41708</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41687</v>
+        <v>41708</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41687</v>
+        <v>41708</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41684</v>
+        <v>41705</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41684</v>
+        <v>41703</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41682</v>
+        <v>41703</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>146</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41682</v>
+        <v>41703</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41682</v>
+        <v>41703</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41682</v>
+        <v>41703</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41681</v>
+        <v>41698</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41681</v>
+        <v>41698</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41681</v>
+        <v>41698</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41681</v>
+        <v>41697</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41680</v>
+        <v>41696</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41680</v>
+        <v>41696</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41677</v>
+        <v>41696</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>112</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41677</v>
+        <v>41690</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41677</v>
+        <v>41689</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41676</v>
+        <v>41689</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41676</v>
+        <v>41689</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41676</v>
+        <v>41689</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41676</v>
+        <v>41687</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41676</v>
+        <v>41687</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="E53" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41675</v>
+        <v>41687</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41674</v>
+        <v>41687</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41674</v>
+        <v>41687</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="E56" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41674</v>
+        <v>41687</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="E57" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41674</v>
+        <v>41684</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41670</v>
+        <v>41684</v>
       </c>
       <c r="B59" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E59" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41670</v>
+        <v>41682</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41663</v>
+        <v>41682</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41662</v>
+        <v>41682</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41661</v>
+        <v>41682</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
@@ -2614,260 +2879,260 @@
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41656</v>
+        <v>41681</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41655</v>
+        <v>41681</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="E65" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41655</v>
+        <v>41681</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="E66" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41655</v>
+        <v>41681</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41654</v>
+        <v>41680</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41653</v>
+        <v>41680</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="E69" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41653</v>
+        <v>41677</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41653</v>
+        <v>41677</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41652</v>
+        <v>41677</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41652</v>
+        <v>41676</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41652</v>
+        <v>41676</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="E74" t="s">
         <v>31</v>
@@ -2876,282 +3141,834 @@
         <v>32</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41652</v>
+        <v>41676</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E75" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41652</v>
+        <v>41676</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="E76" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41652</v>
+        <v>41676</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41652</v>
+        <v>41675</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E78" t="s">
         <v>18</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41649</v>
+        <v>41674</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E79" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41649</v>
+        <v>41674</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E80" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41649</v>
+        <v>41674</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E81" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41649</v>
+        <v>41674</v>
       </c>
       <c r="B82" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41649</v>
+        <v>41670</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E83" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41649</v>
+        <v>41670</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41648</v>
+        <v>41663</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E85" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E91" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B94" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B95" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E97" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E98" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B105" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E105" t="s">
+        <v>58</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B106" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E106" t="s">
+        <v>58</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B107" t="s">
+        <v>64</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E107" t="s">
+        <v>58</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>41648</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B109" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B110" t="s">
         <v>16</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C110" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E110" t="s">
         <v>18</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dml2\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php-projects\dml2\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="340">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1011,6 +1011,39 @@
   </si>
   <si>
     <t>156.38</t>
+  </si>
+  <si>
+    <t>3940694600/0998453098</t>
+  </si>
+  <si>
+    <t>0008863007</t>
+  </si>
+  <si>
+    <t>2.00  </t>
+  </si>
+  <si>
+    <t>237.80</t>
+  </si>
+  <si>
+    <t>0008214553</t>
+  </si>
+  <si>
+    <t>20.54  </t>
+  </si>
+  <si>
+    <t>239.80</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP D/KENNEDY 3</t>
+  </si>
+  <si>
+    <t>0008036516</t>
+  </si>
+  <si>
+    <t>KENNEDY</t>
+  </si>
+  <si>
+    <t>260.34</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,83 +1381,83 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>329</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H24" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008523797', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 300.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-20'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008863007', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 2.00  , 'mo_saldo' =&gt; 237.80, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 21:10:46'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008523797', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 300.61, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-20'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008214553', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 20.54  , 'mo_saldo' =&gt; 239.80, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 21:10:46'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0008523773', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 68.06  , 'mo_saldo' =&gt; 300.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-20'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/KENNEDY 3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008036516', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 40.00  , 'mo_saldo' =&gt; 260.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 21:10:46'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1438,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1447,11 +1480,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008523744', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 232.58, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1465,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -1474,11 +1503,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008523744', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 232.85, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1492,20 +1517,16 @@
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>279</v>
+        <v>181</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0008523712', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 142.80  , 'mo_saldo' =&gt; 232.88, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1513,26 +1534,22 @@
         <v>41717</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; 'CONSUMO DATA SUPERMAXI (AV. 6 DE DI', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008233542', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 45.48  , 'mo_saldo' =&gt; 90.08, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1540,188 +1557,160 @@
         <v>41717</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0005524700', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 40.00  , 'mo_saldo' =&gt; 135.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-18'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/AEROPUERTO QTO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001687695', 'mo_oficina' =&gt; 'CENTRO DE ACOPIO NORTE', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 95.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B10" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-18'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/AEROPUERTO QTO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001678823', 'mo_oficina' =&gt; 'CENTRO DE ACOPIO NORTE', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 115.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-18'), 'mo_concepto' =&gt; 'CONSUMO DATA COMERCIAL EL ARBOLITO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001254526', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 9.93  , 'mo_saldo' =&gt; 135.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'CONSUMO VISA NA KFC K104', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0018609446', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 17.61  , 'mo_saldo' =&gt; 145.49, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0017870798', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 163.10, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0017870798', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 163.37, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1729,26 +1718,22 @@
         <v>41715</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0017870789', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 42.50  , 'mo_saldo' =&gt; 163.40, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1762,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
@@ -1771,14 +1756,10 @@
         <v>37</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0017870764', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 120.90, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41715</v>
       </c>
@@ -1789,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
@@ -1798,14 +1779,10 @@
         <v>40</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0017870764', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 121.17, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41715</v>
       </c>
@@ -1816,366 +1793,338 @@
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0017870743', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 17.00  , 'mo_saldo' =&gt; 121.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41715</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; '13334935-MOVISTAR -CB-22783500', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0017542604', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 35.83  , 'mo_saldo' =&gt; 104.20, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41715</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'CONSUMO DATA SUPERMAXI (CUMBAYA)', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004391042', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 5.35  , 'mo_saldo' =&gt; 140.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41715</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'RETIRO BANRED BANCO INTERNACIONAL', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004269222', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 10.50  , 'mo_saldo' =&gt; 145.38, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41715</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>320</v>
+        <v>175</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004269222', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 0.05  , 'mo_saldo' =&gt; 155.88, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>41715</v>
       </c>
       <c r="B23" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'COMISION ATM', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004269222', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 0.45  , 'mo_saldo' =&gt; 155.93, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41715</v>
       </c>
       <c r="B24" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'CONSUMO VISA NA GASOLINERA VISTA AL V', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004259201', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 10.26  , 'mo_saldo' =&gt; 156.38, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41709</v>
+        <v>41715</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>41712</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>41711</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>41709</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>41708</v>
-      </c>
-      <c r="B28" t="s">
-        <v>258</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>41708</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>41708</v>
-      </c>
-      <c r="B30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>41708</v>
       </c>
       <c r="B31" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41708</v>
       </c>
       <c r="B32" t="s">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2183,114 +2132,114 @@
         <v>41708</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B34" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2298,22 +2247,22 @@
         <v>41703</v>
       </c>
       <c r="B38" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E38" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2321,275 +2270,275 @@
         <v>41703</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E42" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E45" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E48" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2597,91 +2546,91 @@
         <v>41689</v>
       </c>
       <c r="B51" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="E52" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E54" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2689,22 +2638,22 @@
         <v>41687</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2712,22 +2661,22 @@
         <v>41687</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,137 +2684,137 @@
         <v>41687</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E58" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2873,91 +2822,91 @@
         <v>41682</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2965,88 +2914,88 @@
         <v>41681</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>112</v>
@@ -3054,117 +3003,117 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3172,22 +3121,22 @@
         <v>41676</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3195,114 +3144,114 @@
         <v>41676</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E77" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E78" t="s">
         <v>18</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E79" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E80" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E81" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3310,390 +3259,390 @@
         <v>41674</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B83" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E83" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41663</v>
+        <v>41674</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41662</v>
+        <v>41670</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41661</v>
+        <v>41670</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E87" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41656</v>
+        <v>41663</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E88" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41655</v>
+        <v>41662</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E89" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E90" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E93" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E94" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3701,22 +3650,22 @@
         <v>41652</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E99" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3724,22 +3673,22 @@
         <v>41652</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E100" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3747,22 +3696,22 @@
         <v>41652</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3770,91 +3719,91 @@
         <v>41652</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B103" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E104" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B105" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E105" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3862,22 +3811,22 @@
         <v>41649</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E106" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3885,22 +3834,22 @@
         <v>41649</v>
       </c>
       <c r="B107" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E107" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3908,67 +3857,136 @@
         <v>41649</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B109" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E109" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B110" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E110" t="s">
+        <v>58</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>41648</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B113" t="s">
         <v>16</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C113" t="s">
         <v>17</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E113" t="s">
         <v>18</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F113" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G113" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php-projects\dml2\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dml2\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="344">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1044,6 +1044,18 @@
   </si>
   <si>
     <t>260.34</t>
+  </si>
+  <si>
+    <t>13359401-MASTERCARD-RA-518114000072</t>
+  </si>
+  <si>
+    <t>0001621209</t>
+  </si>
+  <si>
+    <t>234.40  </t>
+  </si>
+  <si>
+    <t>3.40</t>
   </si>
 </sst>
 </file>
@@ -1366,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,29 +1393,29 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-20'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008863007', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 2.00  , 'mo_saldo' =&gt; 237.80, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 21:10:46'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-21'), 'mo_concepto' =&gt; '13359401-MASTERCARD-RA-518114000072', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001621209', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 234.40  , 'mo_saldo' =&gt; 3.40, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-21 9:42:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1411,26 +1423,22 @@
         <v>41718</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-20'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008214553', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 20.54  , 'mo_saldo' =&gt; 239.80, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 21:10:46'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1438,49 +1446,45 @@
         <v>41718</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-20'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/KENNEDY 3', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008036516', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 40.00  , 'mo_saldo' =&gt; 260.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 21:10:46'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1488,7 +1492,7 @@
         <v>41717</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1500,10 +1504,10 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1511,22 +1515,22 @@
         <v>41717</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1534,22 +1538,22 @@
         <v>41717</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1557,7 +1561,7 @@
         <v>41717</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1569,10 +1573,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1580,22 +1584,22 @@
         <v>41717</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1603,22 +1607,22 @@
         <v>41717</v>
       </c>
       <c r="B10" t="s">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1626,45 +1630,45 @@
         <v>41717</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>33</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>288</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1678,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -1687,7 +1691,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1695,45 +1699,45 @@
         <v>41716</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>296</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1741,22 +1745,22 @@
         <v>41715</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1764,7 +1768,7 @@
         <v>41715</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -1776,10 +1780,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1787,22 +1791,22 @@
         <v>41715</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1810,22 +1814,22 @@
         <v>41715</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1833,7 +1837,7 @@
         <v>41715</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -1845,10 +1849,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1856,22 +1860,22 @@
         <v>41715</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1879,22 +1883,22 @@
         <v>41715</v>
       </c>
       <c r="B22" t="s">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1902,22 +1906,22 @@
         <v>41715</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1925,22 +1929,22 @@
         <v>41715</v>
       </c>
       <c r="B24" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1948,7 +1952,7 @@
         <v>41715</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>316</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -1960,10 +1964,10 @@
         <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1971,7 +1975,7 @@
         <v>41715</v>
       </c>
       <c r="B26" t="s">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1983,10 +1987,10 @@
         <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,114 +1998,114 @@
         <v>41715</v>
       </c>
       <c r="B27" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41709</v>
+        <v>41711</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B31" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2109,22 +2113,22 @@
         <v>41708</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2132,22 +2136,22 @@
         <v>41708</v>
       </c>
       <c r="B33" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2155,22 +2159,22 @@
         <v>41708</v>
       </c>
       <c r="B34" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E34" t="s">
         <v>58</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2178,22 +2182,22 @@
         <v>41708</v>
       </c>
       <c r="B35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E35" t="s">
         <v>58</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2201,68 +2205,68 @@
         <v>41708</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E37" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2270,22 +2274,22 @@
         <v>41703</v>
       </c>
       <c r="B39" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2293,22 +2297,22 @@
         <v>41703</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2316,22 +2320,22 @@
         <v>41703</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2339,45 +2343,45 @@
         <v>41703</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B43" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E43" t="s">
         <v>140</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2385,22 +2389,22 @@
         <v>41698</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2408,68 +2412,68 @@
         <v>41698</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E45" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2477,7 +2481,7 @@
         <v>41696</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -2489,10 +2493,10 @@
         <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2500,68 +2504,68 @@
         <v>41696</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E51" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2569,7 +2573,7 @@
         <v>41689</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -2581,10 +2585,10 @@
         <v>2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2592,22 +2596,22 @@
         <v>41689</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2615,45 +2619,45 @@
         <v>41689</v>
       </c>
       <c r="B54" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="E55" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2661,22 +2665,22 @@
         <v>41687</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2684,7 +2688,7 @@
         <v>41687</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -2696,10 +2700,10 @@
         <v>2</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2707,22 +2711,22 @@
         <v>41687</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2730,22 +2734,22 @@
         <v>41687</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2753,45 +2757,45 @@
         <v>41687</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E61" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2799,45 +2803,45 @@
         <v>41684</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="E63" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2845,22 +2849,22 @@
         <v>41682</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
         <v>58</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2868,22 +2872,22 @@
         <v>41682</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
         <v>58</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2891,45 +2895,45 @@
         <v>41682</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2937,22 +2941,22 @@
         <v>41681</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2966,16 +2970,16 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2983,45 +2987,45 @@
         <v>41681</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3029,45 +3033,45 @@
         <v>41680</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3075,22 +3079,22 @@
         <v>41677</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E74" t="s">
         <v>58</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3098,45 +3102,45 @@
         <v>41677</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E75" t="s">
         <v>58</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3144,22 +3148,22 @@
         <v>41676</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3167,22 +3171,22 @@
         <v>41676</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3196,16 +3200,16 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3213,68 +3217,68 @@
         <v>41676</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E80" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E82" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3282,22 +3286,22 @@
         <v>41674</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E83" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3305,7 +3309,7 @@
         <v>41674</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -3317,10 +3321,10 @@
         <v>2</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3328,45 +3332,45 @@
         <v>41674</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B86" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3374,137 +3378,137 @@
         <v>41670</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E87" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41663</v>
+        <v>41670</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41656</v>
+        <v>41661</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E91" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E92" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3512,22 +3516,22 @@
         <v>41655</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E93" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3535,68 +3539,68 @@
         <v>41655</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E96" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3604,7 +3608,7 @@
         <v>41653</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -3616,10 +3620,10 @@
         <v>2</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3627,45 +3631,45 @@
         <v>41653</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3673,22 +3677,22 @@
         <v>41652</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3696,22 +3700,22 @@
         <v>41652</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3719,22 +3723,22 @@
         <v>41652</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E102" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3742,7 +3746,7 @@
         <v>41652</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -3754,10 +3758,10 @@
         <v>2</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3765,22 +3769,22 @@
         <v>41652</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3788,45 +3792,45 @@
         <v>41652</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E106" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3834,7 +3838,7 @@
         <v>41649</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -3846,10 +3850,10 @@
         <v>2</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3857,22 +3861,22 @@
         <v>41649</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E108" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3880,22 +3884,22 @@
         <v>41649</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E109" t="s">
         <v>58</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3903,22 +3907,22 @@
         <v>41649</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E110" t="s">
         <v>58</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3926,45 +3930,45 @@
         <v>41649</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E112" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3972,21 +3976,44 @@
         <v>41648</v>
       </c>
       <c r="B113" t="s">
+        <v>69</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B114" t="s">
         <v>16</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E114" t="s">
         <v>18</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="347">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1056,6 +1056,15 @@
   </si>
   <si>
     <t>3.40</t>
+  </si>
+  <si>
+    <t>0012297874</t>
+  </si>
+  <si>
+    <t>0007206919</t>
+  </si>
+  <si>
+    <t>23.40</t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H2" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,75 +1402,79 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B1" t="s">
-        <v>340</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>342</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>343</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-21'), 'mo_concepto' =&gt; '13359401-MASTERCARD-RA-518114000072', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0001621209', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 234.40  , 'mo_saldo' =&gt; 3.40, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-21 9:42:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-24'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0012297874', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 3.40, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-24 16:57:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41718</v>
+        <v>41722</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>332</v>
+        <v>346</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-24'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007206919', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 23.40, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-24 16:57:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1469,68 +1482,68 @@
         <v>41718</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E4" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>192</v>
+        <v>331</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1538,22 +1551,22 @@
         <v>41717</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1561,22 +1574,22 @@
         <v>41717</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1584,22 +1597,22 @@
         <v>41717</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1607,22 +1620,22 @@
         <v>41717</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1630,22 +1643,22 @@
         <v>41717</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1653,68 +1666,68 @@
         <v>41717</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1722,68 +1735,68 @@
         <v>41716</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>33</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>298</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1791,22 +1804,22 @@
         <v>41715</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1814,22 +1827,22 @@
         <v>41715</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1837,22 +1850,22 @@
         <v>41715</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1860,22 +1873,22 @@
         <v>41715</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1883,22 +1896,22 @@
         <v>41715</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1906,22 +1919,22 @@
         <v>41715</v>
       </c>
       <c r="B23" t="s">
-        <v>309</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1929,22 +1942,22 @@
         <v>41715</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1952,22 +1965,22 @@
         <v>41715</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>318</v>
+        <v>175</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1975,22 +1988,22 @@
         <v>41715</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1998,7 +2011,7 @@
         <v>41715</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -2010,10 +2023,10 @@
         <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2021,119 +2034,119 @@
         <v>41715</v>
       </c>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>325</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41709</v>
+        <v>41712</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B32" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -2142,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2159,22 +2172,22 @@
         <v>41708</v>
       </c>
       <c r="B34" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2182,22 +2195,22 @@
         <v>41708</v>
       </c>
       <c r="B35" t="s">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2205,22 +2218,22 @@
         <v>41708</v>
       </c>
       <c r="B36" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E36" t="s">
         <v>58</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2228,91 +2241,91 @@
         <v>41708</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="E38" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2320,22 +2333,22 @@
         <v>41703</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2343,22 +2356,22 @@
         <v>41703</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E42" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2366,68 +2379,68 @@
         <v>41703</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B44" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2435,91 +2448,91 @@
         <v>41698</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E46" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E48" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2527,91 +2540,91 @@
         <v>41696</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E53" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2619,22 +2632,22 @@
         <v>41689</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2642,68 +2655,68 @@
         <v>41689</v>
       </c>
       <c r="B55" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E57" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2711,22 +2724,22 @@
         <v>41687</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E58" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2734,22 +2747,22 @@
         <v>41687</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2757,22 +2770,22 @@
         <v>41687</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2780,114 +2793,114 @@
         <v>41687</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E62" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="E64" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E65" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2895,22 +2908,22 @@
         <v>41682</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E66" t="s">
         <v>58</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2918,68 +2931,68 @@
         <v>41682</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2987,22 +3000,22 @@
         <v>41681</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3010,114 +3023,114 @@
         <v>41681</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="E74" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E75" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3125,68 +3138,68 @@
         <v>41677</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E76" t="s">
         <v>58</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3194,22 +3207,22 @@
         <v>41676</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3217,22 +3230,22 @@
         <v>41676</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3240,91 +3253,91 @@
         <v>41676</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E82" t="s">
         <v>18</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B83" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E83" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E84" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3332,22 +3345,22 @@
         <v>41674</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E85" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3355,206 +3368,206 @@
         <v>41674</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B87" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E87" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41663</v>
+        <v>41670</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41662</v>
+        <v>41670</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41661</v>
+        <v>41663</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41656</v>
+        <v>41662</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E92" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E93" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E94" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3562,91 +3575,91 @@
         <v>41655</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E97" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E98" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3654,68 +3667,68 @@
         <v>41653</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3723,22 +3736,22 @@
         <v>41652</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3746,22 +3759,22 @@
         <v>41652</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E103" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3769,22 +3782,22 @@
         <v>41652</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E104" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3792,22 +3805,22 @@
         <v>41652</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3815,68 +3828,68 @@
         <v>41652</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B107" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E107" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E108" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3884,22 +3897,22 @@
         <v>41649</v>
       </c>
       <c r="B109" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E109" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3907,22 +3920,22 @@
         <v>41649</v>
       </c>
       <c r="B110" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E110" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3930,22 +3943,22 @@
         <v>41649</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E111" t="s">
         <v>58</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3953,50 +3966,50 @@
         <v>41649</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E113" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
@@ -4005,15 +4018,61 @@
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E114" t="s">
         <v>18</v>
       </c>
       <c r="F114" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B115" t="s">
+        <v>69</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -1423,8 +1423,8 @@
         <v>343</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-24'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0012297874', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 3.40, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-24 16:57:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-24'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0012297874', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 3.40, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-25 16:15:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-24'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007206919', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 23.40, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-24 16:57:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-24'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007206919', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 23.40, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-25 16:15:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="349">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1065,6 +1065,12 @@
   </si>
   <si>
     <t>23.40</t>
+  </si>
+  <si>
+    <t>0004478289</t>
+  </si>
+  <si>
+    <t>13.40</t>
   </si>
 </sst>
 </file>
@@ -1387,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:H2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,29 +1408,29 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-24'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0012297874', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 3.40, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-25 16:15:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-26'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0004478289', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 13.40, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-26 15:37:38'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1432,72 +1438,68 @@
         <v>41722</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-24'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007206919', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 23.40, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-25 16:15:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>342</v>
+        <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,22 +1507,22 @@
         <v>41718</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1528,45 +1530,45 @@
         <v>41718</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E6" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1574,7 +1576,7 @@
         <v>41717</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1586,10 +1588,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1597,22 +1599,22 @@
         <v>41717</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1620,22 +1622,22 @@
         <v>41717</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1643,7 +1645,7 @@
         <v>41717</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -1655,10 +1657,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1666,22 +1668,22 @@
         <v>41717</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1689,22 +1691,22 @@
         <v>41717</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1712,45 +1714,45 @@
         <v>41717</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>33</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>288</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1764,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -1773,7 +1775,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1781,45 +1783,45 @@
         <v>41716</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>296</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1827,22 +1829,22 @@
         <v>41715</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,7 +1852,7 @@
         <v>41715</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -1862,10 +1864,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1873,22 +1875,22 @@
         <v>41715</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1896,22 +1898,22 @@
         <v>41715</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1919,7 +1921,7 @@
         <v>41715</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -1931,10 +1933,10 @@
         <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1942,22 +1944,22 @@
         <v>41715</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1965,22 +1967,22 @@
         <v>41715</v>
       </c>
       <c r="B25" t="s">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1988,22 +1990,22 @@
         <v>41715</v>
       </c>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2011,22 +2013,22 @@
         <v>41715</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2034,7 +2036,7 @@
         <v>41715</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>316</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -2046,10 +2048,10 @@
         <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2057,7 +2059,7 @@
         <v>41715</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -2069,10 +2071,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2080,114 +2082,114 @@
         <v>41715</v>
       </c>
       <c r="B30" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41709</v>
+        <v>41711</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B34" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2195,22 +2197,22 @@
         <v>41708</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2218,22 +2220,22 @@
         <v>41708</v>
       </c>
       <c r="B36" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2241,22 +2243,22 @@
         <v>41708</v>
       </c>
       <c r="B37" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E37" t="s">
         <v>58</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2264,22 +2266,22 @@
         <v>41708</v>
       </c>
       <c r="B38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E38" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2287,68 +2289,68 @@
         <v>41708</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E40" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2356,22 +2358,22 @@
         <v>41703</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2379,22 +2381,22 @@
         <v>41703</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2402,22 +2404,22 @@
         <v>41703</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E44" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2425,45 +2427,45 @@
         <v>41703</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E46" t="s">
         <v>140</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2471,22 +2473,22 @@
         <v>41698</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2494,68 +2496,68 @@
         <v>41698</v>
       </c>
       <c r="B48" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E48" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2563,7 +2565,7 @@
         <v>41696</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -2575,10 +2577,10 @@
         <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2586,68 +2588,68 @@
         <v>41696</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E54" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2655,7 +2657,7 @@
         <v>41689</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -2667,10 +2669,10 @@
         <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2678,22 +2680,22 @@
         <v>41689</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2701,45 +2703,45 @@
         <v>41689</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="E58" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2747,22 +2749,22 @@
         <v>41687</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E59" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2770,7 +2772,7 @@
         <v>41687</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -2782,10 +2784,10 @@
         <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2793,22 +2795,22 @@
         <v>41687</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2816,22 +2818,22 @@
         <v>41687</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2839,45 +2841,45 @@
         <v>41687</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E64" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2885,45 +2887,45 @@
         <v>41684</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="E66" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2931,22 +2933,22 @@
         <v>41682</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E67" t="s">
         <v>58</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2954,22 +2956,22 @@
         <v>41682</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E68" t="s">
         <v>58</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2977,45 +2979,45 @@
         <v>41682</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3023,22 +3025,22 @@
         <v>41681</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3052,16 +3054,16 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3069,45 +3071,45 @@
         <v>41681</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E73" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3115,45 +3117,45 @@
         <v>41680</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3161,22 +3163,22 @@
         <v>41677</v>
       </c>
       <c r="B77" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E77" t="s">
         <v>58</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3184,45 +3186,45 @@
         <v>41677</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E78" t="s">
         <v>58</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3230,22 +3232,22 @@
         <v>41676</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3253,22 +3255,22 @@
         <v>41676</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3282,16 +3284,16 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E82" t="s">
         <v>18</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3299,68 +3301,68 @@
         <v>41676</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E83" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E85" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3368,22 +3370,22 @@
         <v>41674</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E86" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3391,7 +3393,7 @@
         <v>41674</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -3403,10 +3405,10 @@
         <v>2</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3414,45 +3416,45 @@
         <v>41674</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B89" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C89" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3460,137 +3462,137 @@
         <v>41670</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41663</v>
+        <v>41670</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41656</v>
+        <v>41661</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E94" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E95" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3598,22 +3600,22 @@
         <v>41655</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E96" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3621,68 +3623,68 @@
         <v>41655</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E99" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3690,7 +3692,7 @@
         <v>41653</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -3702,10 +3704,10 @@
         <v>2</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3713,45 +3715,45 @@
         <v>41653</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3759,22 +3761,22 @@
         <v>41652</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3782,22 +3784,22 @@
         <v>41652</v>
       </c>
       <c r="B104" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3805,22 +3807,22 @@
         <v>41652</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E105" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3828,7 +3830,7 @@
         <v>41652</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -3840,10 +3842,10 @@
         <v>2</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3851,22 +3853,22 @@
         <v>41652</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3874,45 +3876,45 @@
         <v>41652</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E109" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3920,7 +3922,7 @@
         <v>41649</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -3932,10 +3934,10 @@
         <v>2</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3943,22 +3945,22 @@
         <v>41649</v>
       </c>
       <c r="B111" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E111" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3966,22 +3968,22 @@
         <v>41649</v>
       </c>
       <c r="B112" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E112" t="s">
         <v>58</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3989,22 +3991,22 @@
         <v>41649</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E113" t="s">
         <v>58</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4012,45 +4014,45 @@
         <v>41649</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B115" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E115" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4058,21 +4060,44 @@
         <v>41648</v>
       </c>
       <c r="B116" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B117" t="s">
         <v>16</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>17</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E117" t="s">
         <v>18</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F117" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G117" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="358">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1071,6 +1071,33 @@
   </si>
   <si>
     <t>13.40</t>
+  </si>
+  <si>
+    <t>0000776328</t>
+  </si>
+  <si>
+    <t>380.88  </t>
+  </si>
+  <si>
+    <t>355.67</t>
+  </si>
+  <si>
+    <t>0007651975</t>
+  </si>
+  <si>
+    <t>736.55</t>
+  </si>
+  <si>
+    <t>736.82</t>
+  </si>
+  <si>
+    <t>0007651959</t>
+  </si>
+  <si>
+    <t>723.45  </t>
+  </si>
+  <si>
+    <t>736.85</t>
   </si>
 </sst>
 </file>
@@ -1393,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H1" sqref="H1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,259 +1435,271 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>7</v>
+        <v>350</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-26'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0004478289', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 10.00  , 'mo_saldo' =&gt; 13.40, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-26 15:37:38'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-27'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000776328', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 380.88  , 'mo_saldo' =&gt; 355.67, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-27 8:47:9'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>343</v>
+        <v>353</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-26'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007651975', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 736.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-27 8:47:9'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>346</v>
+        <v>354</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-26'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007651975', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 736.82, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-27 8:47:9'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41719</v>
+        <v>41724</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>343</v>
+        <v>357</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-26'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007651959', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 723.45  , 'mo_saldo' =&gt; 736.85, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-27 8:47:9'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41718</v>
+        <v>41724</v>
       </c>
       <c r="B5" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>331</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41718</v>
+        <v>41722</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41718</v>
+        <v>41722</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E7" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41717</v>
+        <v>41719</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>340</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>270</v>
+        <v>341</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>342</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>271</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>329</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>272</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>273</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>181</v>
+        <v>334</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>274</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1668,22 +1707,22 @@
         <v>41717</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1691,22 +1730,22 @@
         <v>41717</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1714,22 +1753,22 @@
         <v>41717</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1737,183 +1776,183 @@
         <v>41717</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>33</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>295</v>
+        <v>192</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>296</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>302</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1921,22 +1960,22 @@
         <v>41715</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1944,22 +1983,22 @@
         <v>41715</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1967,22 +2006,22 @@
         <v>41715</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1990,22 +2029,22 @@
         <v>41715</v>
       </c>
       <c r="B26" t="s">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2013,22 +2052,22 @@
         <v>41715</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2036,22 +2075,22 @@
         <v>41715</v>
       </c>
       <c r="B28" t="s">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2059,22 +2098,22 @@
         <v>41715</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2082,22 +2121,22 @@
         <v>41715</v>
       </c>
       <c r="B30" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>323</v>
+        <v>175</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2105,183 +2144,183 @@
         <v>41715</v>
       </c>
       <c r="B31" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>316</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>32</v>
+        <v>320</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41709</v>
+        <v>41715</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>322</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>175</v>
+        <v>323</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>257</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B35" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41708</v>
+        <v>41712</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B37" t="s">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2289,22 +2328,22 @@
         <v>41708</v>
       </c>
       <c r="B39" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2312,137 +2351,137 @@
         <v>41708</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B43" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E45" t="s">
-        <v>238</v>
+        <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2450,211 +2489,211 @@
         <v>41703</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B49" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>239</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41697</v>
+        <v>41703</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E51" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41690</v>
+        <v>41697</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B55" t="s">
         <v>36</v>
@@ -2663,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E55" t="s">
         <v>2</v>
@@ -2672,12 +2711,12 @@
         <v>37</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -2686,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E56" t="s">
         <v>2</v>
@@ -2695,12 +2734,12 @@
         <v>40</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B57" t="s">
         <v>42</v>
@@ -2709,36 +2748,36 @@
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="E57" t="s">
         <v>43</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B58" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>198</v>
@@ -2746,94 +2785,94 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="E59" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E60" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E61" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2841,22 +2880,22 @@
         <v>41687</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2864,459 +2903,459 @@
         <v>41687</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E65" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="E67" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="E68" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="E69" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E74" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="E78" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="E79" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3324,528 +3363,528 @@
         <v>41676</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E84" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E86" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E87" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E88" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B90" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="E90" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41663</v>
+        <v>41674</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41662</v>
+        <v>41674</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41661</v>
+        <v>41670</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41656</v>
+        <v>41670</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E95" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41655</v>
+        <v>41663</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E96" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41655</v>
+        <v>41662</v>
       </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E97" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41654</v>
+        <v>41656</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E100" t="s">
         <v>2</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E101" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B105" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E106" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3853,22 +3892,22 @@
         <v>41652</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E107" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3876,22 +3915,22 @@
         <v>41652</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3899,50 +3938,50 @@
         <v>41652</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E109" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B110" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E110" t="s">
         <v>2</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B111" t="s">
         <v>39</v>
@@ -3951,62 +3990,62 @@
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E111" t="s">
         <v>2</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B112" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E112" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B113" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E113" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4014,22 +4053,22 @@
         <v>41649</v>
       </c>
       <c r="B114" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E114" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4037,67 +4076,159 @@
         <v>41649</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B116" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E116" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E117" t="s">
+        <v>58</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B118" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E118" t="s">
+        <v>58</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E119" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>41648</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B120" t="s">
+        <v>69</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E120" t="s">
+        <v>2</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B121" t="s">
         <v>16</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C121" t="s">
         <v>17</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E121" t="s">
         <v>18</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F121" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G121" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dml2\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php-projects\dml2\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="364">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1098,6 +1098,24 @@
   </si>
   <si>
     <t>736.85</t>
+  </si>
+  <si>
+    <t>0007489225</t>
+  </si>
+  <si>
+    <t>10.04  </t>
+  </si>
+  <si>
+    <t>345.63</t>
+  </si>
+  <si>
+    <t>0008725194</t>
+  </si>
+  <si>
+    <t>130.00  </t>
+  </si>
+  <si>
+    <t>475.63</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,77 +1459,69 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-27'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000776328', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 380.88  , 'mo_saldo' =&gt; 355.67, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-27 8:47:9'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-27'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0008725194', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 130.00  , 'mo_saldo' =&gt; 475.63, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-27 21:28:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-26'), 'mo_concepto' =&gt; 'SPI COSTO OPER. CASH', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007651975', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.27  , 'mo_saldo' =&gt; 736.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-27 8:47:9'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-26'), 'mo_concepto' =&gt; 'IVA COBRADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007651975', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 736.82, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-27 8:47:9'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1519,26 +1529,22 @@
         <v>41724</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-26'), 'mo_concepto' =&gt; '50-SPI-CCU - MIN. ECONOMIA CUENTA', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007651959', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 723.45  , 'mo_saldo' =&gt; 736.85, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-27 8:47:9'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1546,50 +1552,50 @@
         <v>41724</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>356</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1598,36 +1604,36 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>342</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>343</v>
@@ -1635,48 +1641,48 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41718</v>
+        <v>41722</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1684,68 +1690,68 @@
         <v>41718</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E11" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>192</v>
+        <v>331</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1753,22 +1759,22 @@
         <v>41717</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1776,22 +1782,22 @@
         <v>41717</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1799,22 +1805,22 @@
         <v>41717</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1822,22 +1828,22 @@
         <v>41717</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1845,22 +1851,22 @@
         <v>41717</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1868,68 +1874,68 @@
         <v>41717</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B20" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B21" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1937,68 +1943,68 @@
         <v>41716</v>
       </c>
       <c r="B22" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>33</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E24" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>298</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2006,22 +2012,22 @@
         <v>41715</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2029,22 +2035,22 @@
         <v>41715</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2052,22 +2058,22 @@
         <v>41715</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2075,22 +2081,22 @@
         <v>41715</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E28" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2098,22 +2104,22 @@
         <v>41715</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2121,22 +2127,22 @@
         <v>41715</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2144,22 +2150,22 @@
         <v>41715</v>
       </c>
       <c r="B31" t="s">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2167,22 +2173,22 @@
         <v>41715</v>
       </c>
       <c r="B32" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>318</v>
+        <v>175</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2190,22 +2196,22 @@
         <v>41715</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2213,7 +2219,7 @@
         <v>41715</v>
       </c>
       <c r="B34" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -2225,10 +2231,10 @@
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2236,119 +2242,119 @@
         <v>41715</v>
       </c>
       <c r="B35" t="s">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>325</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41709</v>
+        <v>41712</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B39" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -2357,16 +2363,16 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2374,22 +2380,22 @@
         <v>41708</v>
       </c>
       <c r="B41" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2397,22 +2403,22 @@
         <v>41708</v>
       </c>
       <c r="B42" t="s">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2420,22 +2426,22 @@
         <v>41708</v>
       </c>
       <c r="B43" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E43" t="s">
         <v>58</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2443,91 +2449,91 @@
         <v>41708</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="E45" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B47" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2535,22 +2541,22 @@
         <v>41703</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2558,22 +2564,22 @@
         <v>41703</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E49" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2581,68 +2587,68 @@
         <v>41703</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B51" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2650,91 +2656,91 @@
         <v>41698</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E53" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E55" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E56" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2742,91 +2748,91 @@
         <v>41696</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E59" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E60" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2834,22 +2840,22 @@
         <v>41689</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2857,68 +2863,68 @@
         <v>41689</v>
       </c>
       <c r="B62" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="E63" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2926,22 +2932,22 @@
         <v>41687</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E65" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2949,22 +2955,22 @@
         <v>41687</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2972,22 +2978,22 @@
         <v>41687</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2995,114 +3001,114 @@
         <v>41687</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E69" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3110,22 +3116,22 @@
         <v>41682</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
         <v>58</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3133,68 +3139,68 @@
         <v>41682</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3202,22 +3208,22 @@
         <v>41681</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3225,114 +3231,114 @@
         <v>41681</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="E81" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E82" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3340,68 +3346,68 @@
         <v>41677</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E83" t="s">
         <v>58</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3409,22 +3415,22 @@
         <v>41676</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3432,22 +3438,22 @@
         <v>41676</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E87" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3455,91 +3461,91 @@
         <v>41676</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E88" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E89" t="s">
         <v>18</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E90" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E91" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3547,22 +3553,22 @@
         <v>41674</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E92" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3570,206 +3576,206 @@
         <v>41674</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B94" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E94" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C95" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41663</v>
+        <v>41670</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41662</v>
+        <v>41670</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41661</v>
+        <v>41663</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41656</v>
+        <v>41662</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E99" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E100" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E101" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3777,91 +3783,91 @@
         <v>41655</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E104" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E105" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3869,68 +3875,68 @@
         <v>41653</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3938,22 +3944,22 @@
         <v>41652</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3961,22 +3967,22 @@
         <v>41652</v>
       </c>
       <c r="B110" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E110" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3984,22 +3990,22 @@
         <v>41652</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E111" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4007,22 +4013,22 @@
         <v>41652</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4030,68 +4036,68 @@
         <v>41652</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E113" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B114" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C114" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E114" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E115" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4099,22 +4105,22 @@
         <v>41649</v>
       </c>
       <c r="B116" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E116" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4122,22 +4128,22 @@
         <v>41649</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E117" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4145,22 +4151,22 @@
         <v>41649</v>
       </c>
       <c r="B118" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E118" t="s">
         <v>58</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4168,50 +4174,50 @@
         <v>41649</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E119" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B120" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E120" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
@@ -4220,15 +4226,61 @@
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E121" t="s">
         <v>18</v>
       </c>
       <c r="F121" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B122" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="371">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1116,6 +1116,27 @@
   </si>
   <si>
     <t>475.63</t>
+  </si>
+  <si>
+    <t>0003720970</t>
+  </si>
+  <si>
+    <t>82.78  </t>
+  </si>
+  <si>
+    <t>362.63</t>
+  </si>
+  <si>
+    <t>CONSUMO DATA JUGUETON</t>
+  </si>
+  <si>
+    <t>0002042753</t>
+  </si>
+  <si>
+    <t>30.22  </t>
+  </si>
+  <si>
+    <t>445.41</t>
   </si>
 </sst>
 </file>
@@ -1438,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,52 +1474,56 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-27'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0008725194', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 130.00  , 'mo_saldo' =&gt; 475.63, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-27 21:28:11'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-31'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0003720970', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 82.78  , 'mo_saldo' =&gt; 362.63, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-30 18:47:16'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>360</v>
+        <v>370</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-31'), 'mo_concepto' =&gt; 'CONSUMO DATA JUGUETON', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002042753', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 30.22  , 'mo_saldo' =&gt; 445.41, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-30 18:47:16'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1509,65 +1534,65 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1575,22 +1600,22 @@
         <v>41724</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1598,50 +1623,50 @@
         <v>41724</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>356</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1650,36 +1675,36 @@
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>342</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>343</v>
@@ -1687,48 +1712,48 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41718</v>
+        <v>41722</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1736,68 +1761,68 @@
         <v>41718</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E13" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>192</v>
+        <v>331</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1805,22 +1830,22 @@
         <v>41717</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1828,22 +1853,22 @@
         <v>41717</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1851,22 +1876,22 @@
         <v>41717</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1874,22 +1899,22 @@
         <v>41717</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1897,22 +1922,22 @@
         <v>41717</v>
       </c>
       <c r="B20" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1920,68 +1945,68 @@
         <v>41717</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B22" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B23" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1989,68 +2014,68 @@
         <v>41716</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>33</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B25" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>298</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2058,22 +2083,22 @@
         <v>41715</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2081,22 +2106,22 @@
         <v>41715</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2104,22 +2129,22 @@
         <v>41715</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2127,22 +2152,22 @@
         <v>41715</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2150,22 +2175,22 @@
         <v>41715</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2173,22 +2198,22 @@
         <v>41715</v>
       </c>
       <c r="B32" t="s">
-        <v>309</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2196,22 +2221,22 @@
         <v>41715</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2219,22 +2244,22 @@
         <v>41715</v>
       </c>
       <c r="B34" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>318</v>
+        <v>175</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2242,22 +2267,22 @@
         <v>41715</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2265,7 +2290,7 @@
         <v>41715</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -2277,10 +2302,10 @@
         <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2288,119 +2313,119 @@
         <v>41715</v>
       </c>
       <c r="B37" t="s">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>325</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41709</v>
+        <v>41712</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B41" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
@@ -2409,16 +2434,16 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2426,22 +2451,22 @@
         <v>41708</v>
       </c>
       <c r="B43" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2449,22 +2474,22 @@
         <v>41708</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2472,22 +2497,22 @@
         <v>41708</v>
       </c>
       <c r="B45" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E45" t="s">
         <v>58</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2495,91 +2520,91 @@
         <v>41708</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B47" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B49" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2587,22 +2612,22 @@
         <v>41703</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2610,22 +2635,22 @@
         <v>41703</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2633,68 +2658,68 @@
         <v>41703</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="E52" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2702,91 +2727,91 @@
         <v>41698</v>
       </c>
       <c r="B55" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E55" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E57" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E58" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2794,91 +2819,91 @@
         <v>41696</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E61" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E62" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2886,22 +2911,22 @@
         <v>41689</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2909,68 +2934,68 @@
         <v>41689</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="E65" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E66" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2978,22 +3003,22 @@
         <v>41687</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E67" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3001,22 +3026,22 @@
         <v>41687</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3024,22 +3049,22 @@
         <v>41687</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3047,114 +3072,114 @@
         <v>41687</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E71" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E74" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3162,22 +3187,22 @@
         <v>41682</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E75" t="s">
         <v>58</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3185,68 +3210,68 @@
         <v>41682</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3254,22 +3279,22 @@
         <v>41681</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3277,114 +3302,114 @@
         <v>41681</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E80" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="E83" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E84" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3392,68 +3417,68 @@
         <v>41677</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E85" t="s">
         <v>58</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3461,22 +3486,22 @@
         <v>41676</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E88" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3484,22 +3509,22 @@
         <v>41676</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3507,91 +3532,91 @@
         <v>41676</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E90" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E91" t="s">
         <v>18</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E92" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E93" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3599,22 +3624,22 @@
         <v>41674</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E94" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3622,206 +3647,206 @@
         <v>41674</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B96" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E96" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E97" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41663</v>
+        <v>41670</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41662</v>
+        <v>41670</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41661</v>
+        <v>41663</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41656</v>
+        <v>41662</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E101" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E102" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3829,91 +3854,91 @@
         <v>41655</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E106" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E107" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3921,68 +3946,68 @@
         <v>41653</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E110" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3990,22 +4015,22 @@
         <v>41652</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E111" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4013,22 +4038,22 @@
         <v>41652</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E112" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4036,22 +4061,22 @@
         <v>41652</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E113" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4059,22 +4084,22 @@
         <v>41652</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4082,68 +4107,68 @@
         <v>41652</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B116" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C116" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E116" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E117" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4151,22 +4176,22 @@
         <v>41649</v>
       </c>
       <c r="B118" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E118" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4174,22 +4199,22 @@
         <v>41649</v>
       </c>
       <c r="B119" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E119" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4197,22 +4222,22 @@
         <v>41649</v>
       </c>
       <c r="B120" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E120" t="s">
         <v>58</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4220,50 +4245,50 @@
         <v>41649</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E121" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B122" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E122" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
@@ -4272,15 +4297,61 @@
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E123" t="s">
         <v>18</v>
       </c>
       <c r="F123" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B124" t="s">
+        <v>69</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E125" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G125" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="450">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1137,6 +1137,243 @@
   </si>
   <si>
     <t>445.41</t>
+  </si>
+  <si>
+    <t>0015255274</t>
+  </si>
+  <si>
+    <t>110.00  </t>
+  </si>
+  <si>
+    <t>168.66</t>
+  </si>
+  <si>
+    <t>13423220-COSTO IVA CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0015202775</t>
+  </si>
+  <si>
+    <t>58.66</t>
+  </si>
+  <si>
+    <t>13423220-COSTO OPER CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0015202765</t>
+  </si>
+  <si>
+    <t>58.70</t>
+  </si>
+  <si>
+    <t>13423220-EMAP Q-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0015202717</t>
+  </si>
+  <si>
+    <t>8.54  </t>
+  </si>
+  <si>
+    <t>59.01</t>
+  </si>
+  <si>
+    <t>0015159792</t>
+  </si>
+  <si>
+    <t>250.00  </t>
+  </si>
+  <si>
+    <t>67.55</t>
+  </si>
+  <si>
+    <t>0015125198</t>
+  </si>
+  <si>
+    <t>1,000.00  </t>
+  </si>
+  <si>
+    <t>317.55</t>
+  </si>
+  <si>
+    <t>13420182-MOVISTAR -CB-7872717</t>
+  </si>
+  <si>
+    <t>0012067772</t>
+  </si>
+  <si>
+    <t>12.04  </t>
+  </si>
+  <si>
+    <t>CONSUMO VISA NA COLUMBIA COLREST SA</t>
+  </si>
+  <si>
+    <t>0011302431</t>
+  </si>
+  <si>
+    <t>32.74  </t>
+  </si>
+  <si>
+    <t>0006563945</t>
+  </si>
+  <si>
+    <t>01-SPI-ANDY TANGUILA PATRICIO MA</t>
+  </si>
+  <si>
+    <t>0006563900</t>
+  </si>
+  <si>
+    <t>1000.00  </t>
+  </si>
+  <si>
+    <t>1362.63</t>
+  </si>
+  <si>
+    <t>1362.60</t>
+  </si>
+  <si>
+    <t>1362.33</t>
+  </si>
+  <si>
+    <t>1329.59</t>
+  </si>
+  <si>
+    <t>1317.55</t>
+  </si>
+  <si>
+    <t>0007047680</t>
+  </si>
+  <si>
+    <t>218.43</t>
+  </si>
+  <si>
+    <t>CONSUMO DATA PETROCOMERCIAL</t>
+  </si>
+  <si>
+    <t>0000799783</t>
+  </si>
+  <si>
+    <t>18.43</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP D/KENNEDY 2</t>
+  </si>
+  <si>
+    <t>0003737465</t>
+  </si>
+  <si>
+    <t>120.00  </t>
+  </si>
+  <si>
+    <t>28.69</t>
+  </si>
+  <si>
+    <t>0002515086</t>
+  </si>
+  <si>
+    <t>148.69</t>
+  </si>
+  <si>
+    <t>0003342166</t>
+  </si>
+  <si>
+    <t>168.69</t>
+  </si>
+  <si>
+    <t>0003105700</t>
+  </si>
+  <si>
+    <t>19.59  </t>
+  </si>
+  <si>
+    <t>177.57</t>
+  </si>
+  <si>
+    <t>0000337273</t>
+  </si>
+  <si>
+    <t>197.16</t>
+  </si>
+  <si>
+    <t>0008755312</t>
+  </si>
+  <si>
+    <t>4.75  </t>
+  </si>
+  <si>
+    <t>199.16</t>
+  </si>
+  <si>
+    <t>0000100953</t>
+  </si>
+  <si>
+    <t>203.91</t>
+  </si>
+  <si>
+    <t>0005434945</t>
+  </si>
+  <si>
+    <t>15.00  </t>
+  </si>
+  <si>
+    <t>223.91</t>
+  </si>
+  <si>
+    <t>0007817675</t>
+  </si>
+  <si>
+    <t>9.52  </t>
+  </si>
+  <si>
+    <t>208.91</t>
+  </si>
+  <si>
+    <t>0006550584</t>
+  </si>
+  <si>
+    <t>400.00  </t>
+  </si>
+  <si>
+    <t>135.01</t>
+  </si>
+  <si>
+    <t>0000846497</t>
+  </si>
+  <si>
+    <t>535.01</t>
+  </si>
+  <si>
+    <t>DEPOSITO</t>
+  </si>
+  <si>
+    <t>0011381123</t>
+  </si>
+  <si>
+    <t>545.27</t>
+  </si>
+  <si>
+    <t>CONSUMO VISA NA KFC K098</t>
+  </si>
+  <si>
+    <t>0010499581</t>
+  </si>
+  <si>
+    <t>4.99  </t>
+  </si>
+  <si>
+    <t>145.27</t>
+  </si>
+  <si>
+    <t>CONSUMO DATA PACO</t>
+  </si>
+  <si>
+    <t>0010358099</t>
+  </si>
+  <si>
+    <t>27.31  </t>
+  </si>
+  <si>
+    <t>150.26</t>
   </si>
 </sst>
 </file>
@@ -1459,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="H1" sqref="H1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,1464 +1711,1500 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41729</v>
+        <v>41737</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-31'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0003720970', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 82.78  , 'mo_saldo' =&gt; 362.63, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-30 18:47:16'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-08'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0006550584', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 400.00  , 'mo_saldo' =&gt; 135.01, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41729</v>
+        <v>41737</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>370</v>
+        <v>438</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-31'), 'mo_concepto' =&gt; 'CONSUMO DATA JUGUETON', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002042753', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 30.22  , 'mo_saldo' =&gt; 445.41, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-30 18:47:16'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-08'), 'mo_concepto' =&gt; 'CONSUMO DATA PETROCOMERCIAL', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000846497', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 10.26  , 'mo_saldo' =&gt; 535.01, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41725</v>
+        <v>41736</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>362</v>
+        <v>435</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>363</v>
+        <v>441</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-07'), 'mo_concepto' =&gt; 'DEPOSITO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0011381123', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 400.00  , 'mo_saldo' =&gt; 545.27, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41725</v>
+        <v>41736</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>442</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>358</v>
+        <v>443</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>359</v>
+        <v>444</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>360</v>
+        <v>445</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-07'), 'mo_concepto' =&gt; 'CONSUMO VISA NA KFC K098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010499581', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 4.99  , 'mo_saldo' =&gt; 145.27, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41725</v>
+        <v>41736</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>349</v>
+        <v>447</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>350</v>
+        <v>448</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>351</v>
+        <v>449</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-07'), 'mo_concepto' =&gt; 'CONSUMO DATA PACO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010358099', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 27.31  , 'mo_saldo' =&gt; 150.26, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41724</v>
+        <v>41736</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>353</v>
+        <v>420</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H11" ca="1" si="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A6,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B6,"', 'mo_tipo' =&gt; '",C6,"', 'mo_documento' =&gt; '",D6,"', 'mo_oficina' =&gt; '",E6,"', 'mo_monto' =&gt; ",F6,", 'mo_saldo' =&gt; ",G6,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-07'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0003105700', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 19.59  , 'mo_saldo' =&gt; 177.57, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41724</v>
+        <v>41736</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>354</v>
+        <v>422</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-07'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000337273', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 2.00  , 'mo_saldo' =&gt; 197.16, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41724</v>
+        <v>41733</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>355</v>
+        <v>423</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>357</v>
+        <v>425</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-04'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008755312', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 4.75  , 'mo_saldo' =&gt; 199.16, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41724</v>
+        <v>41733</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>348</v>
+        <v>427</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-04'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000100953', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 203.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41722</v>
+        <v>41732</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>343</v>
+        <v>430</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0005434945', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 15.00  , 'mo_saldo' =&gt; 223.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41722</v>
+        <v>41731</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>432</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>346</v>
+        <v>433</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-02'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007817675', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 9.52  , 'mo_saldo' =&gt; 208.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41719</v>
+        <v>41731</v>
       </c>
       <c r="B12" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>342</v>
+        <v>67</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41718</v>
+        <v>41731</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>332</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41718</v>
+        <v>41730</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>410</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>334</v>
+        <v>412</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41718</v>
+        <v>41730</v>
       </c>
       <c r="B15" t="s">
-        <v>336</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>337</v>
+        <v>414</v>
       </c>
       <c r="E15" t="s">
-        <v>338</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>339</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41717</v>
+        <v>41729</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>270</v>
+        <v>416</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>271</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41717</v>
+        <v>41729</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>40</v>
+        <v>372</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>272</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41717</v>
+        <v>41729</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>374</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>273</v>
+        <v>375</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>274</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41717</v>
+        <v>41729</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>377</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>275</v>
+        <v>378</v>
       </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41717</v>
+        <v>41729</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>380</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>275</v>
+        <v>381</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>277</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41717</v>
+        <v>41729</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>278</v>
+        <v>384</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>279</v>
+        <v>385</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>280</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41717</v>
+        <v>41729</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>282</v>
+        <v>387</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>283</v>
+        <v>388</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>284</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41717</v>
+        <v>41729</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>390</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>192</v>
+        <v>392</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>33</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41716</v>
+        <v>41729</v>
       </c>
       <c r="B24" t="s">
-        <v>286</v>
+        <v>393</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>287</v>
+        <v>394</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>32</v>
+        <v>395</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>288</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41716</v>
+        <v>41729</v>
       </c>
       <c r="B25" t="s">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>289</v>
+        <v>396</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>290</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41716</v>
+        <v>41729</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>292</v>
+        <v>396</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>33</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
+        <v>397</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>294</v>
+        <v>398</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>295</v>
+        <v>399</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>296</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="E28" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>298</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>297</v>
+        <v>368</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>299</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41715</v>
+        <v>41725</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>301</v>
+        <v>362</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41715</v>
+        <v>41725</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="E31" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>304</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41715</v>
+        <v>41725</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="E32" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41715</v>
+        <v>41724</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41715</v>
+        <v>41724</v>
       </c>
       <c r="B34" t="s">
-        <v>309</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41715</v>
+        <v>41724</v>
       </c>
       <c r="B35" t="s">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41715</v>
+        <v>41724</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>318</v>
+        <v>7</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41715</v>
+        <v>41722</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41715</v>
+        <v>41722</v>
       </c>
       <c r="B38" t="s">
-        <v>322</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>323</v>
+        <v>32</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41715</v>
+        <v>41719</v>
       </c>
       <c r="B39" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41712</v>
+        <v>41718</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>267</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41711</v>
+        <v>41718</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>32</v>
+        <v>334</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>269</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41709</v>
+        <v>41718</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>257</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41708</v>
+        <v>41717</v>
       </c>
       <c r="B43" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41708</v>
+        <v>41717</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41708</v>
+        <v>41717</v>
       </c>
       <c r="B45" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41708</v>
+        <v>41717</v>
       </c>
       <c r="B46" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41708</v>
+        <v>41717</v>
       </c>
       <c r="B47" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41708</v>
+        <v>41717</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41705</v>
+        <v>41717</v>
       </c>
       <c r="B49" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>22</v>
+        <v>283</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41703</v>
+        <v>41717</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41703</v>
+        <v>41716</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41703</v>
+        <v>41716</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>286</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41703</v>
+        <v>41716</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="E53" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>240</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="E54" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>32</v>
+        <v>295</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41698</v>
+        <v>41715</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41698</v>
+        <v>41715</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41698</v>
+        <v>41715</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="E57" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>301</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41697</v>
+        <v>41715</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41696</v>
+        <v>41715</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="E59" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>222</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41696</v>
+        <v>41715</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="E60" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41696</v>
+        <v>41715</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41690</v>
+        <v>41715</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>198</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41689</v>
+        <v>41715</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>199</v>
+        <v>317</v>
       </c>
       <c r="E63" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>200</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41689</v>
+        <v>41715</v>
       </c>
       <c r="B64" t="s">
         <v>39</v>
@@ -2940,159 +3213,159 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>199</v>
+        <v>317</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>201</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41689</v>
+        <v>41715</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>181</v>
+        <v>323</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>203</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41689</v>
+        <v>41715</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>325</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>205</v>
+        <v>326</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>198</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41687</v>
+        <v>41712</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="E67" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41687</v>
+        <v>41711</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
       <c r="E68" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>178</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41687</v>
+        <v>41709</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="E69" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41687</v>
+        <v>41708</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41687</v>
+        <v>41708</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
@@ -3101,182 +3374,182 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41687</v>
+        <v>41708</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41684</v>
+        <v>41708</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="E73" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41684</v>
+        <v>41708</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41682</v>
+        <v>41708</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="E75" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41682</v>
+        <v>41705</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>148</v>
+        <v>244</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41682</v>
+        <v>41703</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41682</v>
+        <v>41703</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41681</v>
+        <v>41703</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
@@ -3285,366 +3558,366 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41681</v>
+        <v>41703</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41681</v>
+        <v>41703</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41681</v>
+        <v>41698</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41680</v>
+        <v>41698</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41680</v>
+        <v>41698</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41677</v>
+        <v>41697</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="E85" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41677</v>
+        <v>41696</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="E86" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41677</v>
+        <v>41696</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41676</v>
+        <v>41696</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41676</v>
+        <v>41690</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41676</v>
+        <v>41689</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41676</v>
+        <v>41689</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41676</v>
+        <v>41689</v>
       </c>
       <c r="B92" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="C92" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="E92" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41675</v>
+        <v>41689</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41674</v>
+        <v>41687</v>
       </c>
       <c r="B94" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="E94" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41674</v>
+        <v>41687</v>
       </c>
       <c r="B95" t="s">
         <v>36</v>
@@ -3653,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="E95" t="s">
         <v>2</v>
@@ -3662,12 +3935,12 @@
         <v>37</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41674</v>
+        <v>41687</v>
       </c>
       <c r="B96" t="s">
         <v>39</v>
@@ -3676,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="E96" t="s">
         <v>2</v>
@@ -3685,12 +3958,12 @@
         <v>40</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41674</v>
+        <v>41687</v>
       </c>
       <c r="B97" t="s">
         <v>42</v>
@@ -3699,458 +3972,458 @@
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="E97" t="s">
         <v>43</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41670</v>
+        <v>41687</v>
       </c>
       <c r="B98" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="E98" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41670</v>
+        <v>41687</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="E99" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41663</v>
+        <v>41684</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41662</v>
+        <v>41684</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41661</v>
+        <v>41682</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41656</v>
+        <v>41682</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E103" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41655</v>
+        <v>41682</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="E104" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41655</v>
+        <v>41682</v>
       </c>
       <c r="B105" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E105" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41655</v>
+        <v>41681</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41654</v>
+        <v>41681</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41653</v>
+        <v>41681</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E108" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41653</v>
+        <v>41681</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="E109" t="s">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41653</v>
+        <v>41680</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41652</v>
+        <v>41680</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41652</v>
+        <v>41677</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41652</v>
+        <v>41677</v>
       </c>
       <c r="B113" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41652</v>
+        <v>41677</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41652</v>
+        <v>41676</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="E115" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41652</v>
+        <v>41676</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41652</v>
+        <v>41676</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
@@ -4159,199 +4432,820 @@
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="E117" t="s">
         <v>18</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41649</v>
+        <v>41676</v>
       </c>
       <c r="B118" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="E118" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41649</v>
+        <v>41676</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="E119" t="s">
         <v>2</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41649</v>
+        <v>41675</v>
       </c>
       <c r="B120" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E120" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41649</v>
+        <v>41674</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="E121" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41649</v>
+        <v>41674</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E122" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41649</v>
+        <v>41674</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E123" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41648</v>
+        <v>41674</v>
       </c>
       <c r="B124" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C124" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E124" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E125" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B130" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B131" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E131" t="s">
+        <v>2</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B132" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B133" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E133" t="s">
+        <v>31</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B134" t="s">
+        <v>34</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B136" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B137" t="s">
+        <v>42</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E137" t="s">
+        <v>43</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B140" t="s">
+        <v>49</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E140" t="s">
+        <v>31</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B141" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E141" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B142" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B143" t="s">
+        <v>42</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E143" t="s">
+        <v>43</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E144" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B145" t="s">
+        <v>52</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B146" t="s">
+        <v>39</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B147" t="s">
+        <v>57</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E147" t="s">
+        <v>58</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B148" t="s">
+        <v>61</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E148" t="s">
+        <v>58</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B149" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E149" t="s">
+        <v>58</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E150" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>41648</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B151" t="s">
+        <v>69</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E151" t="s">
+        <v>2</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B152" t="s">
         <v>16</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C152" t="s">
         <v>17</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E152" t="s">
         <v>18</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F152" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="G152" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="495">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1374,6 +1374,141 @@
   </si>
   <si>
     <t>150.26</t>
+  </si>
+  <si>
+    <t>108.05</t>
+  </si>
+  <si>
+    <t>6.96  </t>
+  </si>
+  <si>
+    <t>128.05</t>
+  </si>
+  <si>
+    <t>0003089118</t>
+  </si>
+  <si>
+    <t>0002181645</t>
+  </si>
+  <si>
+    <t>13444082-COSTO IVA CASH-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0008760737</t>
+  </si>
+  <si>
+    <t>45.56</t>
+  </si>
+  <si>
+    <t>13444082-COSTO OPER CASH-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0008760723</t>
+  </si>
+  <si>
+    <t>45.60</t>
+  </si>
+  <si>
+    <t>13444082-E E Q-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0008760691</t>
+  </si>
+  <si>
+    <t>40.74  </t>
+  </si>
+  <si>
+    <t>45.91</t>
+  </si>
+  <si>
+    <t>0008688117</t>
+  </si>
+  <si>
+    <t>66.80  </t>
+  </si>
+  <si>
+    <t>86.65</t>
+  </si>
+  <si>
+    <t>0008502905</t>
+  </si>
+  <si>
+    <t>19.85</t>
+  </si>
+  <si>
+    <t>0008004098</t>
+  </si>
+  <si>
+    <t>8.70  </t>
+  </si>
+  <si>
+    <t>49.85</t>
+  </si>
+  <si>
+    <t>CONSUMO DATA MEGAKYWI-E. ALFARO</t>
+  </si>
+  <si>
+    <t>0006626748</t>
+  </si>
+  <si>
+    <t>49.50  </t>
+  </si>
+  <si>
+    <t>58.55</t>
+  </si>
+  <si>
+    <t>0009211135</t>
+  </si>
+  <si>
+    <t>22.32  </t>
+  </si>
+  <si>
+    <t>15.34</t>
+  </si>
+  <si>
+    <t>13521155-MOVISTAR -CB-22783500</t>
+  </si>
+  <si>
+    <t>0005306704</t>
+  </si>
+  <si>
+    <t>36.67  </t>
+  </si>
+  <si>
+    <t>37.66</t>
+  </si>
+  <si>
+    <t>13511334-MEGADATOS S.A -CB-1500583339</t>
+  </si>
+  <si>
+    <t>0011828351</t>
+  </si>
+  <si>
+    <t>71.23  </t>
+  </si>
+  <si>
+    <t>74.33</t>
+  </si>
+  <si>
+    <t>0007431020</t>
+  </si>
+  <si>
+    <t>145.56</t>
+  </si>
+  <si>
+    <t>13507549-MASTERCARD-RA-518114000072</t>
+  </si>
+  <si>
+    <t>0007394227</t>
+  </si>
+  <si>
+    <t>243.19  </t>
+  </si>
+  <si>
+    <t>0007349236</t>
+  </si>
+  <si>
+    <t>288.75</t>
   </si>
 </sst>
 </file>
@@ -1696,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H11"/>
+      <selection activeCell="H1" sqref="H1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,250 +1846,238 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41737</v>
+        <v>41745</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-08'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0006550584', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 400.00  , 'mo_saldo' =&gt; 135.01, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H6" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-16'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009211135', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 22.32  , 'mo_saldo' =&gt; 15.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>327</v>
+        <v>482</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-08'), 'mo_concepto' =&gt; 'CONSUMO DATA PETROCOMERCIAL', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000846497', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 10.26  , 'mo_saldo' =&gt; 535.01, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-15'), 'mo_concepto' =&gt; '13521155-MOVISTAR -CB-22783500', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005306704', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 36.67  , 'mo_saldo' =&gt; 37.66, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41736</v>
+        <v>41743</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="E3" t="s">
-        <v>338</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-07'), 'mo_concepto' =&gt; 'DEPOSITO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0011381123', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 400.00  , 'mo_saldo' =&gt; 545.27, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '13511334-MEGADATOS S.A -CB-1500583339', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011828351', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 71.23  , 'mo_saldo' =&gt; 74.33, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41736</v>
+        <v>41743</v>
       </c>
       <c r="B4" t="s">
-        <v>442</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>444</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-07'), 'mo_concepto' =&gt; 'CONSUMO VISA NA KFC K098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010499581', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 4.99  , 'mo_saldo' =&gt; 145.27, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007431020', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 100.00  , 'mo_saldo' =&gt; 145.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41736</v>
+        <v>41743</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-07'), 'mo_concepto' =&gt; 'CONSUMO DATA PACO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0010358099', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 27.31  , 'mo_saldo' =&gt; 150.26, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '13507549-MASTERCARD-RA-518114000072', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007394227', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 243.19  , 'mo_saldo' =&gt; 45.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41736</v>
+        <v>41743</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>419</v>
+        <v>492</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" ref="H6:H11" ca="1" si="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A6,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B6,"', 'mo_tipo' =&gt; '",C6,"', 'mo_documento' =&gt; '",D6,"', 'mo_oficina' =&gt; '",E6,"', 'mo_monto' =&gt; ",F6,", 'mo_saldo' =&gt; ",G6,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-07'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0003105700', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 19.59  , 'mo_saldo' =&gt; 177.57, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007349236', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 243.19  , 'mo_saldo' =&gt; 288.75, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41736</v>
+        <v>41740</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>455</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>331</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-07'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000337273', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 2.00  , 'mo_saldo' =&gt; 197.16, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>458</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>424</v>
+        <v>62</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-04'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008755312', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 4.75  , 'mo_saldo' =&gt; 199.16, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>461</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>463</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-04'), 'mo_concepto' =&gt; 'DB AH PROGRAMADO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0000100953', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 203.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41732</v>
+        <v>41739</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1963,1110 +2086,1102 @@
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-03'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0005434945', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 15.00  , 'mo_saldo' =&gt; 223.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41731</v>
+        <v>41739</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>432</v>
+        <v>187</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-02'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007817675', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 9.52  , 'mo_saldo' =&gt; 208.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41731</v>
+        <v>41739</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>405</v>
+        <v>470</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>67</v>
+        <v>471</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41731</v>
+        <v>41739</v>
       </c>
       <c r="B13" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>327</v>
+        <v>475</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>409</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41730</v>
+        <v>41738</v>
       </c>
       <c r="B14" t="s">
-        <v>410</v>
+        <v>336</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="E14" t="s">
         <v>338</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>412</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41730</v>
+        <v>41738</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>451</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41729</v>
+        <v>41737</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>40</v>
+        <v>435</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41729</v>
+        <v>41737</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>407</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>338</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>59</v>
+        <v>435</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>376</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>442</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>378</v>
+        <v>443</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>62</v>
+        <v>444</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B20" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41729</v>
+        <v>41733</v>
       </c>
       <c r="B23" t="s">
-        <v>390</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41729</v>
+        <v>41733</v>
       </c>
       <c r="B24" t="s">
-        <v>393</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>395</v>
+        <v>32</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41729</v>
+        <v>41732</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>37</v>
+        <v>429</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>40</v>
+        <v>432</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B27" t="s">
-        <v>397</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>399</v>
+        <v>67</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>407</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B29" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41725</v>
+        <v>41730</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>362</v>
+        <v>32</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>374</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="E33" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>377</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>7</v>
+        <v>385</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41722</v>
+        <v>41729</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>32</v>
+        <v>388</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41722</v>
+        <v>41729</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>390</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>32</v>
+        <v>392</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41719</v>
+        <v>41729</v>
       </c>
       <c r="B39" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>343</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41718</v>
+        <v>41729</v>
       </c>
       <c r="B40" t="s">
-        <v>329</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41718</v>
+        <v>41729</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41718</v>
+        <v>41729</v>
       </c>
       <c r="B42" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="E42" t="s">
-        <v>338</v>
+        <v>43</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>192</v>
+        <v>399</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>339</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41717</v>
+        <v>41729</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="E43" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41717</v>
+        <v>41729</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>270</v>
+        <v>368</v>
       </c>
       <c r="E44" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>272</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41717</v>
+        <v>41725</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>273</v>
+        <v>361</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>181</v>
+        <v>362</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>274</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41717</v>
+        <v>41725</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>275</v>
+        <v>358</v>
       </c>
       <c r="E46" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41717</v>
+        <v>41725</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>280</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B49" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>282</v>
+        <v>352</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>192</v>
+        <v>356</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>33</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41716</v>
+        <v>41724</v>
       </c>
       <c r="B51" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41716</v>
+        <v>41722</v>
       </c>
       <c r="B52" t="s">
-        <v>286</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41716</v>
+        <v>41722</v>
       </c>
       <c r="B53" t="s">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>33</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41715</v>
+        <v>41719</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>340</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41715</v>
+        <v>41718</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>329</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="E55" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41715</v>
+        <v>41718</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="E56" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41715</v>
+        <v>41718</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>301</v>
+        <v>192</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B58" t="s">
         <v>36</v>
@@ -3075,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="E58" t="s">
         <v>2</v>
@@ -3084,12 +3199,12 @@
         <v>37</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -3098,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="E59" t="s">
         <v>2</v>
@@ -3107,12 +3222,12 @@
         <v>40</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B60" t="s">
         <v>42</v>
@@ -3121,1295 +3236,1295 @@
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="E60" t="s">
         <v>43</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>307</v>
+        <v>181</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B61" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="E61" t="s">
         <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B62" t="s">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B63" t="s">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B65" t="s">
-        <v>322</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>323</v>
+        <v>192</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>324</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B66" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>327</v>
+        <v>32</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41712</v>
+        <v>41716</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41711</v>
+        <v>41716</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>269</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41709</v>
+        <v>41715</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B70" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>59</v>
+        <v>301</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B73" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B74" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="E74" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>32</v>
+        <v>307</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41705</v>
+        <v>41715</v>
       </c>
       <c r="B76" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="E76" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>226</v>
+        <v>313</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>227</v>
+        <v>314</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>228</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B78" t="s">
-        <v>229</v>
+        <v>316</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>231</v>
+        <v>318</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="E80" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>325</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>207</v>
+        <v>326</v>
       </c>
       <c r="E81" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41698</v>
+        <v>41712</v>
       </c>
       <c r="B82" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="E82" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41698</v>
+        <v>41711</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41698</v>
+        <v>41709</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="E84" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41697</v>
+        <v>41708</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41696</v>
+        <v>41708</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="E86" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41696</v>
+        <v>41708</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E87" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41696</v>
+        <v>41708</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41690</v>
+        <v>41708</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41689</v>
+        <v>41708</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="E90" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41689</v>
+        <v>41705</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="E91" t="s">
         <v>2</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41689</v>
+        <v>41703</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="E93" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41687</v>
+        <v>41703</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="E94" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41687</v>
+        <v>41703</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="E95" t="s">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41687</v>
+        <v>41703</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="E96" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41687</v>
+        <v>41698</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41687</v>
+        <v>41698</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41687</v>
+        <v>41698</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41684</v>
+        <v>41697</v>
       </c>
       <c r="B100" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41684</v>
+        <v>41696</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41682</v>
+        <v>41696</v>
       </c>
       <c r="B102" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="E102" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41682</v>
+        <v>41696</v>
       </c>
       <c r="B103" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="E103" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41682</v>
+        <v>41690</v>
       </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="E104" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41681</v>
+        <v>41689</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41681</v>
+        <v>41689</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41681</v>
+        <v>41689</v>
       </c>
       <c r="B108" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E109" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41680</v>
+        <v>41687</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41680</v>
+        <v>41687</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41677</v>
+        <v>41687</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="E112" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41677</v>
+        <v>41687</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="E113" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41677</v>
+        <v>41687</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="E114" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41676</v>
+        <v>41684</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41676</v>
+        <v>41684</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="E116" t="s">
         <v>31</v>
@@ -4418,81 +4533,81 @@
         <v>32</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41676</v>
+        <v>41682</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E117" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41676</v>
+        <v>41682</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E118" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41676</v>
+        <v>41682</v>
       </c>
       <c r="B119" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E119" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41675</v>
+        <v>41682</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
@@ -4501,751 +4616,1096 @@
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E120" t="s">
         <v>18</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E121" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="E122" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="E123" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="E124" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41670</v>
+        <v>41680</v>
       </c>
       <c r="B125" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="E125" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41670</v>
+        <v>41680</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="E126" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41663</v>
+        <v>41677</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41662</v>
+        <v>41677</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41661</v>
+        <v>41677</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41656</v>
+        <v>41676</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="E130" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41655</v>
+        <v>41676</v>
       </c>
       <c r="B131" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="E131" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41655</v>
+        <v>41676</v>
       </c>
       <c r="B132" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E132" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41655</v>
+        <v>41676</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41654</v>
+        <v>41676</v>
       </c>
       <c r="B134" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41653</v>
+        <v>41675</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="E135" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41653</v>
+        <v>41674</v>
       </c>
       <c r="B136" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41653</v>
+        <v>41674</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E137" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41652</v>
+        <v>41674</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41652</v>
+        <v>41674</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C139" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41652</v>
+        <v>41670</v>
       </c>
       <c r="B140" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E140" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41652</v>
+        <v>41670</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E141" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41652</v>
+        <v>41663</v>
       </c>
       <c r="B142" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E142" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41652</v>
+        <v>41662</v>
       </c>
       <c r="B143" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41652</v>
+        <v>41661</v>
       </c>
       <c r="B144" t="s">
         <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E144" t="s">
         <v>18</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41649</v>
+        <v>41656</v>
       </c>
       <c r="B145" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41649</v>
+        <v>41655</v>
       </c>
       <c r="B146" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E146" t="s">
         <v>2</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41649</v>
+        <v>41655</v>
       </c>
       <c r="B147" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E147" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41649</v>
+        <v>41655</v>
       </c>
       <c r="B148" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E148" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41649</v>
+        <v>41654</v>
       </c>
       <c r="B149" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E149" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E150" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>41648</v>
+        <v>41653</v>
       </c>
       <c r="B151" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E151" t="s">
         <v>2</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>41648</v>
+        <v>41653</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C152" t="s">
         <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E152" t="s">
+        <v>43</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E154" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B155" t="s">
+        <v>49</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E155" t="s">
+        <v>31</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B156" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E156" t="s">
+        <v>2</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B157" t="s">
+        <v>39</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E157" t="s">
+        <v>2</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B158" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E158" t="s">
+        <v>43</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B159" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E159" t="s">
+        <v>18</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B160" t="s">
+        <v>52</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E160" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B161" t="s">
+        <v>39</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E161" t="s">
+        <v>2</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B162" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E162" t="s">
+        <v>58</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B163" t="s">
+        <v>61</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E163" t="s">
+        <v>58</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B164" t="s">
+        <v>64</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E164" t="s">
+        <v>58</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B165" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E165" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B166" t="s">
+        <v>69</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E166" t="s">
+        <v>2</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B167" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E167" t="s">
         <v>18</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="F167" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G152" s="3" t="s">
+      <c r="G167" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -1868,7 +1868,7 @@
       </c>
       <c r="H1" t="str">
         <f t="shared" ref="H1:H6" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-16'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009211135', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 22.32  , 'mo_saldo' =&gt; 15.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-16'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009211135', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 22.32  , 'mo_saldo' =&gt; 15.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-15'), 'mo_concepto' =&gt; '13521155-MOVISTAR -CB-22783500', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005306704', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 36.67  , 'mo_saldo' =&gt; 37.66, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-15'), 'mo_concepto' =&gt; '13521155-MOVISTAR -CB-22783500', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005306704', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 36.67  , 'mo_saldo' =&gt; 37.66, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '13511334-MEGADATOS S.A -CB-1500583339', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011828351', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 71.23  , 'mo_saldo' =&gt; 74.33, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '13511334-MEGADATOS S.A -CB-1500583339', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011828351', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 71.23  , 'mo_saldo' =&gt; 74.33, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007431020', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 100.00  , 'mo_saldo' =&gt; 145.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007431020', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 100.00  , 'mo_saldo' =&gt; 145.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '13507549-MASTERCARD-RA-518114000072', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007394227', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 243.19  , 'mo_saldo' =&gt; 45.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '13507549-MASTERCARD-RA-518114000072', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007394227', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 243.19  , 'mo_saldo' =&gt; 45.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007349236', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 243.19  , 'mo_saldo' =&gt; 288.75, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007349236', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 243.19  , 'mo_saldo' =&gt; 288.75, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -1834,7 +1834,7 @@
   <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,8 +1867,8 @@
         <v>479</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H6" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-16'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009211135', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 22.32  , 'mo_saldo' =&gt; 15.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-16'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009211135', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 22.32  , 'mo_saldo' =&gt; 15.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-24 20:19:38'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1893,10 +1893,6 @@
       <c r="G2" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="H2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-15'), 'mo_concepto' =&gt; '13521155-MOVISTAR -CB-22783500', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005306704', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 36.67  , 'mo_saldo' =&gt; 37.66, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1920,10 +1916,6 @@
       <c r="G3" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '13511334-MEGADATOS S.A -CB-1500583339', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0011828351', 'mo_oficina' =&gt; 'CENTRO DE SERVIC. OPERAT. SS.', 'mo_monto' =&gt; 71.23  , 'mo_saldo' =&gt; 74.33, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1947,10 +1939,6 @@
       <c r="G4" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007431020', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 100.00  , 'mo_saldo' =&gt; 145.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1974,10 +1962,6 @@
       <c r="G5" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '13507549-MASTERCARD-RA-518114000072', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007394227', 'mo_oficina' =&gt; 'SERVICIOS CENTRALES', 'mo_monto' =&gt; 243.19  , 'mo_saldo' =&gt; 45.56, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2000,10 +1984,6 @@
       </c>
       <c r="G6" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0007349236', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 243.19  , 'mo_saldo' =&gt; 288.75, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="505">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1509,6 +1509,36 @@
   </si>
   <si>
     <t>288.75</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP D/P QUICENTRO 6</t>
+  </si>
+  <si>
+    <t>0003779357</t>
+  </si>
+  <si>
+    <t>QUICENTRO</t>
+  </si>
+  <si>
+    <t>5.34</t>
+  </si>
+  <si>
+    <t>0002456496</t>
+  </si>
+  <si>
+    <t>650.00  </t>
+  </si>
+  <si>
+    <t>795.34</t>
+  </si>
+  <si>
+    <t>0000642365</t>
+  </si>
+  <si>
+    <t>140.00  </t>
+  </si>
+  <si>
+    <t>145.34</t>
   </si>
 </sst>
 </file>
@@ -1831,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,121 +1876,125 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41745</v>
+        <v>41758</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="H1" t="str">
-        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-16'), 'mo_concepto' =&gt; 'CONSUMO DATA AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0009211135', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 22.32  , 'mo_saldo' =&gt; 15.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-24 20:19:38'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-29'), 'mo_concepto' =&gt; 'DEPOSITO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0002456496', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 650.00  , 'mo_saldo' =&gt; 795.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-29 15:0:49'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41744</v>
+        <v>41758</v>
       </c>
       <c r="B2" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>483</v>
+        <v>504</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-29'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000642365', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 140.00  , 'mo_saldo' =&gt; 145.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-29 15:0:49'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41743</v>
+        <v>41754</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>497</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>486</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41743</v>
+        <v>41745</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>478</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="B5" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1968,160 +2002,160 @@
         <v>41743</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>484</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B7" t="s">
-        <v>455</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>62</v>
+        <v>492</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>455</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>458</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>461</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2129,183 +2163,183 @@
         <v>41739</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B14" t="s">
-        <v>336</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="E14" t="s">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>473</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="B17" t="s">
-        <v>407</v>
+        <v>336</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>327</v>
+        <v>32</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41736</v>
+        <v>41738</v>
       </c>
       <c r="B18" t="s">
-        <v>439</v>
+        <v>291</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="E18" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B19" t="s">
-        <v>442</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B20" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>448</v>
+        <v>327</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2313,22 +2347,22 @@
         <v>41736</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2336,96 +2370,96 @@
         <v>41736</v>
       </c>
       <c r="B22" t="s">
-        <v>329</v>
+        <v>442</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>331</v>
+        <v>444</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>446</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>32</v>
+        <v>419</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41732</v>
+        <v>41736</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>429</v>
+        <v>331</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41731</v>
+        <v>41733</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -2434,177 +2468,177 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41731</v>
+        <v>41733</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="B28" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>327</v>
+        <v>429</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B29" t="s">
-        <v>410</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="E29" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>407</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>410</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B33" t="s">
-        <v>374</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2612,22 +2646,22 @@
         <v>41729</v>
       </c>
       <c r="B34" t="s">
-        <v>377</v>
+        <v>209</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2635,22 +2669,22 @@
         <v>41729</v>
       </c>
       <c r="B35" t="s">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2658,22 +2692,22 @@
         <v>41729</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>385</v>
+        <v>59</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2681,22 +2715,22 @@
         <v>41729</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>377</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>388</v>
+        <v>62</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2704,22 +2738,22 @@
         <v>41729</v>
       </c>
       <c r="B38" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E38" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2727,22 +2761,22 @@
         <v>41729</v>
       </c>
       <c r="B39" t="s">
-        <v>393</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2750,22 +2784,22 @@
         <v>41729</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E40" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>37</v>
+        <v>388</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2773,22 +2807,22 @@
         <v>41729</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>390</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>40</v>
+        <v>392</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2796,22 +2830,22 @@
         <v>41729</v>
       </c>
       <c r="B42" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2819,22 +2853,22 @@
         <v>41729</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2842,50 +2876,50 @@
         <v>41729</v>
       </c>
       <c r="B44" t="s">
-        <v>367</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>397</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
@@ -2894,108 +2928,108 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>367</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E48" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3003,229 +3037,229 @@
         <v>41724</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>32</v>
+        <v>356</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41719</v>
+        <v>41724</v>
       </c>
       <c r="B54" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>342</v>
+        <v>7</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41718</v>
+        <v>41722</v>
       </c>
       <c r="B55" t="s">
-        <v>329</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41718</v>
+        <v>41722</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B57" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E57" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>192</v>
+        <v>342</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>329</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="E58" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="E59" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3239,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E61" t="s">
         <v>2</v>
@@ -3248,7 +3282,7 @@
         <v>37</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3262,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E62" t="s">
         <v>2</v>
@@ -3271,7 +3305,7 @@
         <v>40</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3285,16 +3319,16 @@
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E63" t="s">
         <v>43</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>279</v>
+        <v>181</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3302,22 +3336,22 @@
         <v>41717</v>
       </c>
       <c r="B64" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3325,88 +3359,88 @@
         <v>41717</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B66" t="s">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B67" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B68" t="s">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>33</v>
@@ -3414,71 +3448,71 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B69" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E70" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E71" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>299</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3486,22 +3520,22 @@
         <v>41715</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3515,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E73" t="s">
         <v>2</v>
@@ -3524,7 +3558,7 @@
         <v>37</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3538,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E74" t="s">
         <v>2</v>
@@ -3547,7 +3581,7 @@
         <v>40</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3561,16 +3595,16 @@
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E75" t="s">
         <v>43</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3578,22 +3612,22 @@
         <v>41715</v>
       </c>
       <c r="B76" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E76" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3601,22 +3635,22 @@
         <v>41715</v>
       </c>
       <c r="B77" t="s">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3624,22 +3658,22 @@
         <v>41715</v>
       </c>
       <c r="B78" t="s">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3647,22 +3681,22 @@
         <v>41715</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>320</v>
+        <v>175</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3670,22 +3704,22 @@
         <v>41715</v>
       </c>
       <c r="B80" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3693,160 +3727,160 @@
         <v>41715</v>
       </c>
       <c r="B81" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B83" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41709</v>
+        <v>41715</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>175</v>
+        <v>327</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41708</v>
+        <v>41712</v>
       </c>
       <c r="B85" t="s">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B87" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3854,22 +3888,22 @@
         <v>41708</v>
       </c>
       <c r="B88" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E88" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3877,22 +3911,22 @@
         <v>41708</v>
       </c>
       <c r="B89" t="s">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3900,114 +3934,114 @@
         <v>41708</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E91" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B93" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4015,22 +4049,22 @@
         <v>41703</v>
       </c>
       <c r="B95" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E95" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4038,275 +4072,275 @@
         <v>41703</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="E96" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="E97" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B99" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E99" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E101" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E102" t="s">
         <v>2</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E105" t="s">
         <v>2</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E106" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4314,91 +4348,91 @@
         <v>41689</v>
       </c>
       <c r="B108" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E108" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="E109" t="s">
         <v>2</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B110" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E110" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E111" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4406,22 +4440,22 @@
         <v>41687</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4429,22 +4463,22 @@
         <v>41687</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4452,137 +4486,137 @@
         <v>41687</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B115" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="C115" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E115" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B116" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B117" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="E117" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B118" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="E118" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B119" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="E119" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4590,91 +4624,91 @@
         <v>41682</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B122" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B123" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4682,88 +4716,88 @@
         <v>41681</v>
       </c>
       <c r="B124" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E124" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B125" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E126" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B127" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="E127" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>112</v>
@@ -4771,117 +4805,117 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B128" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="E128" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B129" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E129" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E132" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4889,22 +4923,22 @@
         <v>41676</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E133" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4912,114 +4946,114 @@
         <v>41676</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E134" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E135" t="s">
         <v>18</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E136" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B138" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E138" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5027,390 +5061,390 @@
         <v>41674</v>
       </c>
       <c r="B139" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E139" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B140" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E141" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41663</v>
+        <v>41674</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C142" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41662</v>
+        <v>41670</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41661</v>
+        <v>41670</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E144" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41656</v>
+        <v>41663</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E145" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41655</v>
+        <v>41662</v>
       </c>
       <c r="B146" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E146" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="B147" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E147" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B148" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B149" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E149" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B150" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E150" t="s">
         <v>2</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E151" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B152" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C152" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E152" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E154" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B155" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C155" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E155" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5418,22 +5452,22 @@
         <v>41652</v>
       </c>
       <c r="B156" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E156" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5441,22 +5475,22 @@
         <v>41652</v>
       </c>
       <c r="B157" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E157" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5464,22 +5498,22 @@
         <v>41652</v>
       </c>
       <c r="B158" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E158" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5487,91 +5521,91 @@
         <v>41652</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E159" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B160" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C160" t="s">
         <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B161" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C161" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E161" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B162" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E162" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5579,22 +5613,22 @@
         <v>41649</v>
       </c>
       <c r="B163" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E163" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5602,22 +5636,22 @@
         <v>41649</v>
       </c>
       <c r="B164" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E164" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5625,67 +5659,136 @@
         <v>41649</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E165" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B166" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E166" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B167" t="s">
+        <v>64</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E167" t="s">
+        <v>58</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B168" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E168" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>41648</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B169" t="s">
+        <v>69</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E169" t="s">
+        <v>2</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B170" t="s">
         <v>16</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C170" t="s">
         <v>17</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E170" t="s">
         <v>18</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="F170" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G167" s="3" t="s">
+      <c r="G170" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="509">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1539,6 +1539,18 @@
   </si>
   <si>
     <t>145.34</t>
+  </si>
+  <si>
+    <t>RETIRO</t>
+  </si>
+  <si>
+    <t>0002344237</t>
+  </si>
+  <si>
+    <t>590.00  </t>
+  </si>
+  <si>
+    <t>205.34</t>
   </si>
 </sst>
 </file>
@@ -1861,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,29 +1888,29 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41758</v>
+        <v>41759</v>
       </c>
       <c r="B1" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-29'), 'mo_concepto' =&gt; 'DEPOSITO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0002456496', 'mo_oficina' =&gt; 'TENA', 'mo_monto' =&gt; 650.00  , 'mo_saldo' =&gt; 795.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-29 15:0:49'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-30'), 'mo_concepto' =&gt; 'RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002344237', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 590.00  , 'mo_saldo' =&gt; 205.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-02 8:2:16'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1906,118 +1918,114 @@
         <v>41758</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-29'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000642365', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 140.00  , 'mo_saldo' =&gt; 145.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-29 15:0:49'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41754</v>
+        <v>41758</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="E3" t="s">
-        <v>497</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>503</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41745</v>
+        <v>41754</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>495</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>497</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>478</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41744</v>
+        <v>41745</v>
       </c>
       <c r="B5" t="s">
-        <v>480</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="B6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2025,22 +2033,22 @@
         <v>41743</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>484</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>486</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2048,22 +2056,22 @@
         <v>41743</v>
       </c>
       <c r="B8" t="s">
-        <v>490</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>492</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2071,45 +2079,45 @@
         <v>41743</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>490</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>492</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B10" t="s">
-        <v>455</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>492</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2117,22 +2125,22 @@
         <v>41740</v>
       </c>
       <c r="B11" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E11" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2140,45 +2148,45 @@
         <v>41740</v>
       </c>
       <c r="B12" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E12" t="s">
         <v>58</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>463</v>
+        <v>62</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2186,22 +2194,22 @@
         <v>41739</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>187</v>
+        <v>466</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2209,22 +2217,22 @@
         <v>41739</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>471</v>
+        <v>187</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2232,45 +2240,45 @@
         <v>41739</v>
       </c>
       <c r="B16" t="s">
-        <v>473</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B17" t="s">
-        <v>336</v>
+        <v>473</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="E17" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>32</v>
+        <v>475</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2278,45 +2286,45 @@
         <v>41738</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>451</v>
+        <v>32</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2324,45 +2332,45 @@
         <v>41737</v>
       </c>
       <c r="B20" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>327</v>
+        <v>435</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B21" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E21" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>435</v>
+        <v>327</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2370,22 +2378,22 @@
         <v>41736</v>
       </c>
       <c r="B22" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2393,22 +2401,22 @@
         <v>41736</v>
       </c>
       <c r="B23" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2416,22 +2424,22 @@
         <v>41736</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>446</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2439,45 +2447,45 @@
         <v>41736</v>
       </c>
       <c r="B25" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>331</v>
+        <v>419</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>424</v>
+        <v>331</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2485,68 +2493,68 @@
         <v>41733</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>32</v>
+        <v>424</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41732</v>
+        <v>41733</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2554,22 +2562,22 @@
         <v>41731</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>67</v>
+        <v>432</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2577,45 +2585,45 @@
         <v>41731</v>
       </c>
       <c r="B31" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>327</v>
+        <v>67</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E32" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>412</v>
+        <v>327</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2623,45 +2631,45 @@
         <v>41730</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>410</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>338</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>32</v>
+        <v>412</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2669,22 +2677,22 @@
         <v>41729</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>372</v>
+        <v>40</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2692,22 +2700,22 @@
         <v>41729</v>
       </c>
       <c r="B36" t="s">
-        <v>374</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,22 +2723,22 @@
         <v>41729</v>
       </c>
       <c r="B37" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E37" t="s">
         <v>58</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2738,22 +2746,22 @@
         <v>41729</v>
       </c>
       <c r="B38" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E38" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>382</v>
+        <v>62</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2761,22 +2769,22 @@
         <v>41729</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>380</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2790,16 +2798,16 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2807,22 +2815,22 @@
         <v>41729</v>
       </c>
       <c r="B41" t="s">
-        <v>390</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E41" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2830,22 +2838,22 @@
         <v>41729</v>
       </c>
       <c r="B42" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2853,22 +2861,22 @@
         <v>41729</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>393</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E43" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>37</v>
+        <v>395</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2876,7 +2884,7 @@
         <v>41729</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -2888,10 +2896,10 @@
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2899,22 +2907,22 @@
         <v>41729</v>
       </c>
       <c r="B45" t="s">
-        <v>397</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>399</v>
+        <v>40</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2922,22 +2930,22 @@
         <v>41729</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>397</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2945,45 +2953,45 @@
         <v>41729</v>
       </c>
       <c r="B47" t="s">
-        <v>367</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>367</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2991,22 +2999,22 @@
         <v>41725</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3014,45 +3022,45 @@
         <v>41725</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E51" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3060,7 +3068,7 @@
         <v>41724</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -3072,10 +3080,10 @@
         <v>2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3083,22 +3091,22 @@
         <v>41724</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3106,45 +3114,45 @@
         <v>41724</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>7</v>
+        <v>356</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3152,68 +3160,68 @@
         <v>41722</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B57" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E57" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>342</v>
+        <v>32</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B58" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3221,22 +3229,22 @@
         <v>41718</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3244,45 +3252,45 @@
         <v>41718</v>
       </c>
       <c r="B60" t="s">
-        <v>336</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E60" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="E61" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3290,7 +3298,7 @@
         <v>41717</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -3302,10 +3310,10 @@
         <v>2</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3313,22 +3321,22 @@
         <v>41717</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3336,22 +3344,22 @@
         <v>41717</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3359,7 +3367,7 @@
         <v>41717</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -3371,10 +3379,10 @@
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3382,22 +3390,22 @@
         <v>41717</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3405,22 +3413,22 @@
         <v>41717</v>
       </c>
       <c r="B67" t="s">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3428,45 +3436,45 @@
         <v>41717</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>33</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B69" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>288</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3480,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E70" t="s">
         <v>6</v>
@@ -3489,7 +3497,7 @@
         <v>32</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3497,45 +3505,45 @@
         <v>41716</v>
       </c>
       <c r="B71" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>296</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3543,22 +3551,22 @@
         <v>41715</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E73" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3566,7 +3574,7 @@
         <v>41715</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -3578,10 +3586,10 @@
         <v>2</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3589,22 +3597,22 @@
         <v>41715</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3612,22 +3620,22 @@
         <v>41715</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E76" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3635,7 +3643,7 @@
         <v>41715</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
@@ -3647,10 +3655,10 @@
         <v>2</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3658,22 +3666,22 @@
         <v>41715</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3681,22 +3689,22 @@
         <v>41715</v>
       </c>
       <c r="B79" t="s">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E79" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3704,22 +3712,22 @@
         <v>41715</v>
       </c>
       <c r="B80" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3727,22 +3735,22 @@
         <v>41715</v>
       </c>
       <c r="B81" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3750,7 +3758,7 @@
         <v>41715</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>316</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -3762,10 +3770,10 @@
         <v>10</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3773,7 +3781,7 @@
         <v>41715</v>
       </c>
       <c r="B83" t="s">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -3785,10 +3793,10 @@
         <v>10</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3796,114 +3804,114 @@
         <v>41715</v>
       </c>
       <c r="B84" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41709</v>
+        <v>41711</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B88" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3911,22 +3919,22 @@
         <v>41708</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3934,22 +3942,22 @@
         <v>41708</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E90" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3957,22 +3965,22 @@
         <v>41708</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E91" t="s">
         <v>58</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3980,22 +3988,22 @@
         <v>41708</v>
       </c>
       <c r="B92" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E92" t="s">
         <v>58</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4003,68 +4011,68 @@
         <v>41708</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B94" t="s">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E94" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4072,22 +4080,22 @@
         <v>41703</v>
       </c>
       <c r="B96" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4095,22 +4103,22 @@
         <v>41703</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4118,22 +4126,22 @@
         <v>41703</v>
       </c>
       <c r="B98" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E98" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4141,45 +4149,45 @@
         <v>41703</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="E99" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B100" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E100" t="s">
         <v>140</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4187,22 +4195,22 @@
         <v>41698</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C101" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4210,68 +4218,68 @@
         <v>41698</v>
       </c>
       <c r="B102" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E102" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E104" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4279,7 +4287,7 @@
         <v>41696</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -4291,10 +4299,10 @@
         <v>2</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4302,68 +4310,68 @@
         <v>41696</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E108" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4371,7 +4379,7 @@
         <v>41689</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -4383,10 +4391,10 @@
         <v>2</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4394,22 +4402,22 @@
         <v>41689</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4417,45 +4425,45 @@
         <v>41689</v>
       </c>
       <c r="B111" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E111" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="E112" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4463,22 +4471,22 @@
         <v>41687</v>
       </c>
       <c r="B113" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E113" t="s">
         <v>2</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4486,7 +4494,7 @@
         <v>41687</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -4498,10 +4506,10 @@
         <v>2</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4509,22 +4517,22 @@
         <v>41687</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4532,22 +4540,22 @@
         <v>41687</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C116" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4555,45 +4563,45 @@
         <v>41687</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E117" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B118" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E118" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4601,45 +4609,45 @@
         <v>41684</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="E120" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4647,22 +4655,22 @@
         <v>41682</v>
       </c>
       <c r="B121" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E121" t="s">
         <v>58</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4670,22 +4678,22 @@
         <v>41682</v>
       </c>
       <c r="B122" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E122" t="s">
         <v>58</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4693,45 +4701,45 @@
         <v>41682</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E123" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4739,22 +4747,22 @@
         <v>41681</v>
       </c>
       <c r="B125" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E125" t="s">
         <v>10</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4768,16 +4776,16 @@
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E126" t="s">
         <v>10</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4785,45 +4793,45 @@
         <v>41681</v>
       </c>
       <c r="B127" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E127" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B128" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4831,45 +4839,45 @@
         <v>41680</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B130" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E130" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4877,22 +4885,22 @@
         <v>41677</v>
       </c>
       <c r="B131" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E131" t="s">
         <v>58</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4900,45 +4908,45 @@
         <v>41677</v>
       </c>
       <c r="B132" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E132" t="s">
         <v>58</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4946,22 +4954,22 @@
         <v>41676</v>
       </c>
       <c r="B134" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4969,22 +4977,22 @@
         <v>41676</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E135" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4998,16 +5006,16 @@
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E136" t="s">
         <v>18</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5015,68 +5023,68 @@
         <v>41676</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E137" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E138" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E139" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5084,22 +5092,22 @@
         <v>41674</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5107,7 +5115,7 @@
         <v>41674</v>
       </c>
       <c r="B141" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
@@ -5119,10 +5127,10 @@
         <v>2</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5130,45 +5138,45 @@
         <v>41674</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E142" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B143" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C143" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E143" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5176,137 +5184,137 @@
         <v>41670</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E144" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41663</v>
+        <v>41670</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E146" t="s">
         <v>10</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E147" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41656</v>
+        <v>41661</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E148" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B149" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E149" t="s">
         <v>2</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5314,22 +5322,22 @@
         <v>41655</v>
       </c>
       <c r="B150" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E150" t="s">
         <v>2</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5337,68 +5345,68 @@
         <v>41655</v>
       </c>
       <c r="B151" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E151" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B152" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E152" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B153" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E153" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5406,7 +5414,7 @@
         <v>41653</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
@@ -5418,10 +5426,10 @@
         <v>2</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5429,45 +5437,45 @@
         <v>41653</v>
       </c>
       <c r="B155" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E155" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C156" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5475,22 +5483,22 @@
         <v>41652</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E157" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5498,22 +5506,22 @@
         <v>41652</v>
       </c>
       <c r="B158" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E158" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5521,22 +5529,22 @@
         <v>41652</v>
       </c>
       <c r="B159" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E159" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5544,7 +5552,7 @@
         <v>41652</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C160" t="s">
         <v>1</v>
@@ -5556,10 +5564,10 @@
         <v>2</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5567,22 +5575,22 @@
         <v>41652</v>
       </c>
       <c r="B161" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5590,45 +5598,45 @@
         <v>41652</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C162" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E162" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B163" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E163" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5636,7 +5644,7 @@
         <v>41649</v>
       </c>
       <c r="B164" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
@@ -5648,10 +5656,10 @@
         <v>2</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5659,22 +5667,22 @@
         <v>41649</v>
       </c>
       <c r="B165" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E165" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5682,22 +5690,22 @@
         <v>41649</v>
       </c>
       <c r="B166" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E166" t="s">
         <v>58</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5705,22 +5713,22 @@
         <v>41649</v>
       </c>
       <c r="B167" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E167" t="s">
         <v>58</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5728,45 +5736,45 @@
         <v>41649</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E168" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B169" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E169" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5774,21 +5782,44 @@
         <v>41648</v>
       </c>
       <c r="B170" t="s">
+        <v>69</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E170" t="s">
+        <v>2</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B171" t="s">
         <v>16</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C171" t="s">
         <v>17</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E171" t="s">
         <v>18</v>
       </c>
-      <c r="F170" s="3" t="s">
+      <c r="F171" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G170" s="3" t="s">
+      <c r="G171" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="644">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1551,6 +1551,411 @@
   </si>
   <si>
     <t>205.34</t>
+  </si>
+  <si>
+    <t>0004214198</t>
+  </si>
+  <si>
+    <t>45.93</t>
+  </si>
+  <si>
+    <t>13761984-MASTERCARD-RA-518114000072</t>
+  </si>
+  <si>
+    <t>0008575280</t>
+  </si>
+  <si>
+    <t>252.53  </t>
+  </si>
+  <si>
+    <t>65.93</t>
+  </si>
+  <si>
+    <t>CONSUMO VISA NA KFC K024</t>
+  </si>
+  <si>
+    <t>0006357274</t>
+  </si>
+  <si>
+    <t>23.99  </t>
+  </si>
+  <si>
+    <t>318.46</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP N/CCI-6</t>
+  </si>
+  <si>
+    <t>0005967692</t>
+  </si>
+  <si>
+    <t>342.45</t>
+  </si>
+  <si>
+    <t>0003270042</t>
+  </si>
+  <si>
+    <t>300.00  </t>
+  </si>
+  <si>
+    <t>372.45</t>
+  </si>
+  <si>
+    <t>RETIRO BANRED BANCO DEL PACIFICO</t>
+  </si>
+  <si>
+    <t>0008702772</t>
+  </si>
+  <si>
+    <t>50.50  </t>
+  </si>
+  <si>
+    <t>72.45</t>
+  </si>
+  <si>
+    <t>122.95</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>0008325377</t>
+  </si>
+  <si>
+    <t>123.45</t>
+  </si>
+  <si>
+    <t>0008769504</t>
+  </si>
+  <si>
+    <t>30.41  </t>
+  </si>
+  <si>
+    <t>173.45</t>
+  </si>
+  <si>
+    <t>13652114-COSTO IVA CASH-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0008762482</t>
+  </si>
+  <si>
+    <t>143.04</t>
+  </si>
+  <si>
+    <t>13652114-COSTO OPER CASH-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0008762470</t>
+  </si>
+  <si>
+    <t>143.08</t>
+  </si>
+  <si>
+    <t>13652114-E E Q-EQ-12430000</t>
+  </si>
+  <si>
+    <t>0008762445</t>
+  </si>
+  <si>
+    <t>48.17  </t>
+  </si>
+  <si>
+    <t>143.39</t>
+  </si>
+  <si>
+    <t>0004831977</t>
+  </si>
+  <si>
+    <t>53.72  </t>
+  </si>
+  <si>
+    <t>191.56</t>
+  </si>
+  <si>
+    <t>13733479-MOVISTAR -CB-22783500</t>
+  </si>
+  <si>
+    <t>0008725918</t>
+  </si>
+  <si>
+    <t>18.75  </t>
+  </si>
+  <si>
+    <t>245.28</t>
+  </si>
+  <si>
+    <t>CONSUMO DATA MEGADATOS</t>
+  </si>
+  <si>
+    <t>0005448440</t>
+  </si>
+  <si>
+    <t>264.03</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP D/9 OCTUBRE-UIO</t>
+  </si>
+  <si>
+    <t>0000828582</t>
+  </si>
+  <si>
+    <t>CENTRO FINANCIERO ORELLANA CFO</t>
+  </si>
+  <si>
+    <t>340.18</t>
+  </si>
+  <si>
+    <t>0008741213</t>
+  </si>
+  <si>
+    <t>41.97  </t>
+  </si>
+  <si>
+    <t>440.18</t>
+  </si>
+  <si>
+    <t>0006572817</t>
+  </si>
+  <si>
+    <t>6.00  </t>
+  </si>
+  <si>
+    <t>482.15</t>
+  </si>
+  <si>
+    <t>CONSUMO VISA NA MI GASOLINERA</t>
+  </si>
+  <si>
+    <t>0008309441</t>
+  </si>
+  <si>
+    <t>488.15</t>
+  </si>
+  <si>
+    <t>0008032487</t>
+  </si>
+  <si>
+    <t>3.00  </t>
+  </si>
+  <si>
+    <t>503.41</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP D/AMAZONAS-5</t>
+  </si>
+  <si>
+    <t>0005478889</t>
+  </si>
+  <si>
+    <t>AMAZONAS</t>
+  </si>
+  <si>
+    <t>506.41</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP 9 OCTUBRE-UIO 1</t>
+  </si>
+  <si>
+    <t>0004891320</t>
+  </si>
+  <si>
+    <t>536.41</t>
+  </si>
+  <si>
+    <t>0012570833</t>
+  </si>
+  <si>
+    <t>14.73  </t>
+  </si>
+  <si>
+    <t>586.41</t>
+  </si>
+  <si>
+    <t>0012549517</t>
+  </si>
+  <si>
+    <t>28.40  </t>
+  </si>
+  <si>
+    <t>601.14</t>
+  </si>
+  <si>
+    <t>CONSUMO DA</t>
+  </si>
+  <si>
+    <t>0012539739</t>
+  </si>
+  <si>
+    <t>629.54</t>
+  </si>
+  <si>
+    <t>0012527477</t>
+  </si>
+  <si>
+    <t>0012476492</t>
+  </si>
+  <si>
+    <t>13690135-MOVISTAR -CB-7872717</t>
+  </si>
+  <si>
+    <t>0011380963</t>
+  </si>
+  <si>
+    <t>689.54</t>
+  </si>
+  <si>
+    <t>0010688991</t>
+  </si>
+  <si>
+    <t>0.28  </t>
+  </si>
+  <si>
+    <t>701.58</t>
+  </si>
+  <si>
+    <t>COSTO REFERENCIA BANCARIA</t>
+  </si>
+  <si>
+    <t>2.37  </t>
+  </si>
+  <si>
+    <t>701.86</t>
+  </si>
+  <si>
+    <t>0010400351</t>
+  </si>
+  <si>
+    <t>704.23</t>
+  </si>
+  <si>
+    <t>0007286819</t>
+  </si>
+  <si>
+    <t>707.23</t>
+  </si>
+  <si>
+    <t>0007043367</t>
+  </si>
+  <si>
+    <t>727.23</t>
+  </si>
+  <si>
+    <t>0003373920</t>
+  </si>
+  <si>
+    <t>747.23</t>
+  </si>
+  <si>
+    <t>0002932506</t>
+  </si>
+  <si>
+    <t>40.27  </t>
+  </si>
+  <si>
+    <t>647.23</t>
+  </si>
+  <si>
+    <t>CONSUMO VISA NA TEXAS CHICKEN</t>
+  </si>
+  <si>
+    <t>0008551872</t>
+  </si>
+  <si>
+    <t>14.50  </t>
+  </si>
+  <si>
+    <t>687.50</t>
+  </si>
+  <si>
+    <t>0008488307</t>
+  </si>
+  <si>
+    <t>702.00</t>
+  </si>
+  <si>
+    <t>0005490042</t>
+  </si>
+  <si>
+    <t>705.00</t>
+  </si>
+  <si>
+    <t>0005472007</t>
+  </si>
+  <si>
+    <t>725.00  </t>
+  </si>
+  <si>
+    <t>725.00</t>
+  </si>
+  <si>
+    <t>13650161-COSTO IVA CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0000992033</t>
+  </si>
+  <si>
+    <t>13650161-COSTO OPER CASH-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0000992023</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>13650161-EMAP Q-AP-00046554192</t>
+  </si>
+  <si>
+    <t>0000991993</t>
+  </si>
+  <si>
+    <t>9.40  </t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0000985249</t>
+  </si>
+  <si>
+    <t>0.35  </t>
+  </si>
+  <si>
+    <t>9.75</t>
+  </si>
+  <si>
+    <t>0000963714</t>
+  </si>
+  <si>
+    <t>9.40</t>
+  </si>
+  <si>
+    <t>0009892623</t>
+  </si>
+  <si>
+    <t>0009838540</t>
+  </si>
+  <si>
+    <t>64.66  </t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>0002663087</t>
+  </si>
+  <si>
+    <t>29.83  </t>
+  </si>
+  <si>
+    <t>0002662032</t>
+  </si>
+  <si>
+    <t>16.10  </t>
+  </si>
+  <si>
+    <t>29.83</t>
   </si>
 </sst>
 </file>
@@ -1873,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,1115 +2293,1119 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41759</v>
+        <v>41785</v>
       </c>
       <c r="B1" t="s">
-        <v>505</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>506</v>
+        <v>639</v>
       </c>
       <c r="E1" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>507</v>
+        <v>640</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>508</v>
+        <v>71</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-30'), 'mo_concepto' =&gt; 'RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002344237', 'mo_oficina' =&gt; 'KENNEDY', 'mo_monto' =&gt; 590.00  , 'mo_saldo' =&gt; 205.34, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-02 8:2:16'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H49" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-26'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002663087', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 29.83  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 20:44:24'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41758</v>
+        <v>41785</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>499</v>
+        <v>641</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>500</v>
+        <v>642</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>501</v>
+        <v>643</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-26'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002662032', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 16.10  , 'mo_saldo' =&gt; 29.83, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 20:44:24'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41758</v>
+        <v>41782</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>503</v>
+        <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41754</v>
+        <v>41781</v>
       </c>
       <c r="B4" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="E4" t="s">
-        <v>497</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>513</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41745</v>
+        <v>41781</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>515</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41744</v>
+        <v>41781</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>482</v>
+        <v>187</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>483</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41743</v>
+        <v>41781</v>
       </c>
       <c r="B7" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41743</v>
+        <v>41780</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>525</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>488</v>
+        <v>526</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>527</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41743</v>
+        <v>41780</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>492</v>
+        <v>320</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>457</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41743</v>
+        <v>41780</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>492</v>
+        <v>323</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41740</v>
+        <v>41780</v>
       </c>
       <c r="B11" t="s">
-        <v>455</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>456</v>
+        <v>531</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>457</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41740</v>
+        <v>41779</v>
       </c>
       <c r="B12" t="s">
-        <v>458</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>459</v>
+        <v>533</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>62</v>
+        <v>534</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>460</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41740</v>
+        <v>41779</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>536</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>462</v>
+        <v>537</v>
       </c>
       <c r="E13" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>463</v>
+        <v>59</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>464</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41739</v>
+        <v>41779</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>539</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>465</v>
+        <v>540</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>466</v>
+        <v>62</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>467</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41739</v>
+        <v>41779</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>542</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>468</v>
+        <v>543</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>187</v>
+        <v>544</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>469</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41739</v>
+        <v>41778</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>470</v>
+        <v>546</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>471</v>
+        <v>547</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>472</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41739</v>
+        <v>41775</v>
       </c>
       <c r="B17" t="s">
-        <v>473</v>
+        <v>549</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>474</v>
+        <v>550</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>475</v>
+        <v>551</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>476</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41738</v>
+        <v>41775</v>
       </c>
       <c r="B18" t="s">
-        <v>336</v>
+        <v>553</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>453</v>
+        <v>554</v>
       </c>
       <c r="E18" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>450</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41738</v>
+        <v>41775</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>556</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>454</v>
+        <v>557</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>452</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41737</v>
+        <v>41774</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>434</v>
+        <v>560</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>435</v>
+        <v>561</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>436</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41737</v>
+        <v>41774</v>
       </c>
       <c r="B21" t="s">
-        <v>407</v>
+        <v>329</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>437</v>
+        <v>563</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>327</v>
+        <v>564</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>438</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41736</v>
+        <v>41773</v>
       </c>
       <c r="B22" t="s">
-        <v>439</v>
+        <v>566</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>440</v>
+        <v>567</v>
       </c>
       <c r="E22" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>435</v>
+        <v>11</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>441</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41736</v>
+        <v>41772</v>
       </c>
       <c r="B23" t="s">
-        <v>442</v>
+        <v>329</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>443</v>
+        <v>569</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>444</v>
+        <v>570</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>445</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41736</v>
+        <v>41772</v>
       </c>
       <c r="B24" t="s">
-        <v>446</v>
+        <v>572</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>447</v>
+        <v>573</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>574</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>448</v>
+        <v>187</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>449</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41736</v>
+        <v>41772</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>576</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>418</v>
+        <v>577</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>419</v>
+        <v>239</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>420</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41736</v>
+        <v>41771</v>
       </c>
       <c r="B26" t="s">
-        <v>329</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>421</v>
+        <v>579</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>331</v>
+        <v>580</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>422</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41733</v>
+        <v>41771</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>423</v>
+        <v>582</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>424</v>
+        <v>583</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>425</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41733</v>
+        <v>41771</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>585</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>32</v>
+        <v>583</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>427</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41732</v>
+        <v>41771</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>428</v>
+        <v>588</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>429</v>
+        <v>583</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>430</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41731</v>
+        <v>41771</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>431</v>
+        <v>589</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>432</v>
+        <v>206</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>433</v>
+        <v>587</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41731</v>
+        <v>41771</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>590</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>405</v>
+        <v>591</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>67</v>
+        <v>392</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>406</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41731</v>
+        <v>41771</v>
       </c>
       <c r="B32" t="s">
-        <v>407</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>408</v>
+        <v>593</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>574</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>327</v>
+        <v>594</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>409</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41730</v>
+        <v>41771</v>
       </c>
       <c r="B33" t="s">
-        <v>410</v>
+        <v>596</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>411</v>
+        <v>593</v>
       </c>
       <c r="E33" t="s">
-        <v>338</v>
+        <v>574</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>412</v>
+        <v>597</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>413</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41730</v>
+        <v>41771</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>329</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>414</v>
+        <v>599</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>32</v>
+        <v>570</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>415</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41729</v>
+        <v>41771</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>556</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>416</v>
+        <v>601</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>558</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>417</v>
+        <v>602</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41729</v>
+        <v>41771</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>556</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>371</v>
+        <v>603</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>372</v>
+        <v>32</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>373</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41729</v>
+        <v>41771</v>
       </c>
       <c r="B37" t="s">
-        <v>374</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>375</v>
+        <v>605</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>376</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41729</v>
+        <v>41771</v>
       </c>
       <c r="B38" t="s">
-        <v>377</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>378</v>
+        <v>607</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>62</v>
+        <v>608</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>379</v>
+        <v>609</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41729</v>
+        <v>41768</v>
       </c>
       <c r="B39" t="s">
-        <v>380</v>
+        <v>610</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>381</v>
+        <v>611</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>382</v>
+        <v>612</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>383</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41729</v>
+        <v>41768</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>384</v>
+        <v>614</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>385</v>
+        <v>570</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>386</v>
+        <v>615</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41729</v>
+        <v>41766</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>556</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>387</v>
+        <v>616</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>388</v>
+        <v>32</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>389</v>
+        <v>617</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41729</v>
+        <v>41766</v>
       </c>
       <c r="B42" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>391</v>
+        <v>618</v>
       </c>
       <c r="E42" t="s">
-        <v>2</v>
+        <v>558</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>392</v>
+        <v>619</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>404</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41729</v>
+        <v>41765</v>
       </c>
       <c r="B43" t="s">
-        <v>393</v>
+        <v>621</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>394</v>
+        <v>622</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>395</v>
+        <v>59</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>403</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41729</v>
+        <v>41765</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>623</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>396</v>
+        <v>624</v>
       </c>
       <c r="E44" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>402</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41729</v>
+        <v>41765</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>626</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>396</v>
+        <v>627</v>
       </c>
       <c r="E45" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>40</v>
+        <v>628</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>401</v>
+        <v>629</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41729</v>
+        <v>41765</v>
       </c>
       <c r="B46" t="s">
-        <v>397</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>398</v>
+        <v>630</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>399</v>
+        <v>631</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>400</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41729</v>
+        <v>41765</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>364</v>
+        <v>633</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>365</v>
+        <v>628</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>366</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41729</v>
+        <v>41761</v>
       </c>
       <c r="B48" t="s">
-        <v>367</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>368</v>
+        <v>635</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>369</v>
+        <v>127</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>370</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41725</v>
+        <v>41761</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -3005,182 +3414,182 @@
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>361</v>
+        <v>636</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>362</v>
+        <v>637</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>363</v>
+        <v>638</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41725</v>
+        <v>41759</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>505</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>358</v>
+        <v>506</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>359</v>
+        <v>507</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>360</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41725</v>
+        <v>41758</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>349</v>
+        <v>499</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>351</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41724</v>
+        <v>41758</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>352</v>
+        <v>502</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>37</v>
+        <v>503</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>353</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41724</v>
+        <v>41754</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>495</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>352</v>
+        <v>496</v>
       </c>
       <c r="E53" t="s">
-        <v>2</v>
+        <v>497</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>354</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41724</v>
+        <v>41745</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>355</v>
+        <v>477</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>356</v>
+        <v>478</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>357</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41724</v>
+        <v>41744</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>347</v>
+        <v>481</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>7</v>
+        <v>482</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>348</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41722</v>
+        <v>41743</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>484</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>344</v>
+        <v>485</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>343</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41722</v>
+        <v>41743</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
@@ -3189,1079 +3598,1079 @@
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>345</v>
+        <v>488</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>346</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41719</v>
+        <v>41743</v>
       </c>
       <c r="B58" t="s">
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>341</v>
+        <v>491</v>
       </c>
       <c r="E58" t="s">
         <v>58</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>342</v>
+        <v>492</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>343</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41718</v>
+        <v>41743</v>
       </c>
       <c r="B59" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>330</v>
+        <v>493</v>
       </c>
       <c r="E59" t="s">
         <v>18</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>331</v>
+        <v>492</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>332</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41718</v>
+        <v>41740</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>455</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>333</v>
+        <v>456</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>334</v>
+        <v>59</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>335</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41718</v>
+        <v>41740</v>
       </c>
       <c r="B61" t="s">
-        <v>336</v>
+        <v>458</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>337</v>
+        <v>459</v>
       </c>
       <c r="E61" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>339</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41717</v>
+        <v>41740</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>461</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>270</v>
+        <v>462</v>
       </c>
       <c r="E62" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>37</v>
+        <v>463</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>271</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41717</v>
+        <v>41739</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>270</v>
+        <v>465</v>
       </c>
       <c r="E63" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>40</v>
+        <v>466</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>272</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41717</v>
+        <v>41739</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>273</v>
+        <v>468</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>274</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41717</v>
+        <v>41739</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>275</v>
+        <v>470</v>
       </c>
       <c r="E65" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>37</v>
+        <v>471</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>276</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41717</v>
+        <v>41739</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>473</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>275</v>
+        <v>474</v>
       </c>
       <c r="E66" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>40</v>
+        <v>475</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>277</v>
+        <v>476</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41717</v>
+        <v>41738</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>278</v>
+        <v>453</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>280</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41717</v>
+        <v>41738</v>
       </c>
       <c r="B68" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>282</v>
+        <v>454</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>283</v>
+        <v>451</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>284</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41717</v>
+        <v>41737</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>285</v>
+        <v>434</v>
       </c>
       <c r="E69" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>192</v>
+        <v>435</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>33</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41716</v>
+        <v>41737</v>
       </c>
       <c r="B70" t="s">
-        <v>286</v>
+        <v>407</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>287</v>
+        <v>437</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>288</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41716</v>
+        <v>41736</v>
       </c>
       <c r="B71" t="s">
-        <v>286</v>
+        <v>439</v>
       </c>
       <c r="C71" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>289</v>
+        <v>440</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>338</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>32</v>
+        <v>435</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>290</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41716</v>
+        <v>41736</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>442</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>292</v>
+        <v>443</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>293</v>
+        <v>444</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>33</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41715</v>
+        <v>41736</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
+        <v>446</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>294</v>
+        <v>447</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>295</v>
+        <v>448</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>296</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41715</v>
+        <v>41736</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>297</v>
+        <v>418</v>
       </c>
       <c r="E74" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41715</v>
+        <v>41736</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>329</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
       <c r="E75" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>299</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41715</v>
+        <v>41733</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>300</v>
+        <v>423</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>301</v>
+        <v>424</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>302</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41715</v>
+        <v>41733</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>303</v>
+        <v>426</v>
       </c>
       <c r="E77" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>304</v>
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41715</v>
+        <v>41732</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>303</v>
+        <v>428</v>
       </c>
       <c r="E78" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>40</v>
+        <v>429</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>305</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41715</v>
+        <v>41731</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>307</v>
+        <v>432</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>308</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41715</v>
+        <v>41731</v>
       </c>
       <c r="B80" t="s">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
       <c r="E80" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>311</v>
+        <v>406</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41715</v>
+        <v>41731</v>
       </c>
       <c r="B81" t="s">
-        <v>312</v>
+        <v>407</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>315</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41715</v>
+        <v>41730</v>
       </c>
       <c r="B82" t="s">
-        <v>316</v>
+        <v>410</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>317</v>
+        <v>411</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>318</v>
+        <v>412</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>319</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41715</v>
+        <v>41730</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>317</v>
+        <v>414</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>321</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B84" t="s">
-        <v>322</v>
+        <v>209</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>317</v>
+        <v>416</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>324</v>
+        <v>417</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41715</v>
+        <v>41729</v>
       </c>
       <c r="B85" t="s">
-        <v>325</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41712</v>
+        <v>41729</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>265</v>
+        <v>375</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>266</v>
+        <v>59</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>267</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41711</v>
+        <v>41729</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>377</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>268</v>
+        <v>378</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>269</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41709</v>
+        <v>41729</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>380</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>256</v>
+        <v>381</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>257</v>
+        <v>383</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41708</v>
+        <v>41729</v>
       </c>
       <c r="B89" t="s">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>259</v>
+        <v>384</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>260</v>
+        <v>385</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>261</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41708</v>
+        <v>41729</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>262</v>
+        <v>387</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>263</v>
+        <v>388</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>264</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41708</v>
+        <v>41729</v>
       </c>
       <c r="B91" t="s">
-        <v>246</v>
+        <v>390</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>247</v>
+        <v>391</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>59</v>
+        <v>392</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>248</v>
+        <v>404</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41708</v>
+        <v>41729</v>
       </c>
       <c r="B92" t="s">
-        <v>249</v>
+        <v>393</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="E92" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>62</v>
+        <v>395</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>251</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41708</v>
+        <v>41729</v>
       </c>
       <c r="B93" t="s">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>253</v>
+        <v>396</v>
       </c>
       <c r="E93" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>255</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41708</v>
+        <v>41729</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>241</v>
+        <v>396</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>242</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41705</v>
+        <v>41729</v>
       </c>
       <c r="B95" t="s">
-        <v>243</v>
+        <v>397</v>
       </c>
       <c r="C95" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>244</v>
+        <v>398</v>
       </c>
       <c r="E95" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>245</v>
+        <v>400</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41703</v>
+        <v>41729</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>226</v>
+        <v>364</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>227</v>
+        <v>365</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>228</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41703</v>
+        <v>41729</v>
       </c>
       <c r="B97" t="s">
-        <v>229</v>
+        <v>367</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>230</v>
+        <v>368</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>231</v>
+        <v>369</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>232</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41703</v>
+        <v>41725</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>233</v>
+        <v>361</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>234</v>
+        <v>362</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>235</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41703</v>
+        <v>41725</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="E99" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41703</v>
+        <v>41725</v>
       </c>
       <c r="B100" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>207</v>
+        <v>349</v>
       </c>
       <c r="E100" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>32</v>
+        <v>350</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>208</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41698</v>
+        <v>41724</v>
       </c>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>210</v>
+        <v>352</v>
       </c>
       <c r="E101" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>212</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41698</v>
+        <v>41724</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>213</v>
+        <v>352</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>214</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41698</v>
+        <v>41724</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="E103" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>3</v>
+        <v>356</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>217</v>
+        <v>357</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41697</v>
+        <v>41724</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
@@ -4270,228 +4679,228 @@
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>218</v>
+        <v>347</v>
       </c>
       <c r="E104" t="s">
         <v>18</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>219</v>
+        <v>7</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>220</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41696</v>
+        <v>41722</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>221</v>
+        <v>344</v>
       </c>
       <c r="E105" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>222</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41696</v>
+        <v>41722</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>221</v>
+        <v>345</v>
       </c>
       <c r="E106" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>223</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41696</v>
+        <v>41719</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>108</v>
+        <v>342</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>225</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41690</v>
+        <v>41718</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>196</v>
+        <v>330</v>
       </c>
       <c r="E108" t="s">
         <v>18</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>197</v>
+        <v>331</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>198</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41689</v>
+        <v>41718</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>199</v>
+        <v>333</v>
       </c>
       <c r="E109" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>200</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41689</v>
+        <v>41718</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>199</v>
+        <v>337</v>
       </c>
       <c r="E110" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>201</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41689</v>
+        <v>41717</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41689</v>
+        <v>41717</v>
       </c>
       <c r="B112" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="E112" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41687</v>
+        <v>41717</v>
       </c>
       <c r="B113" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="C113" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="E113" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>176</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41687</v>
+        <v>41717</v>
       </c>
       <c r="B114" t="s">
         <v>36</v>
@@ -4500,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
@@ -4509,12 +4918,12 @@
         <v>37</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>178</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41687</v>
+        <v>41717</v>
       </c>
       <c r="B115" t="s">
         <v>39</v>
@@ -4523,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
@@ -4532,12 +4941,12 @@
         <v>40</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41687</v>
+        <v>41717</v>
       </c>
       <c r="B116" t="s">
         <v>42</v>
@@ -4546,44 +4955,44 @@
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>180</v>
+        <v>278</v>
       </c>
       <c r="E116" t="s">
         <v>43</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>182</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41687</v>
+        <v>41717</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>281</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>184</v>
+        <v>283</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>185</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41687</v>
+        <v>41717</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
@@ -4592,665 +5001,665 @@
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>186</v>
+        <v>285</v>
       </c>
       <c r="E118" t="s">
         <v>18</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41684</v>
+        <v>41716</v>
       </c>
       <c r="B119" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="E119" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>193</v>
+        <v>288</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41684</v>
+        <v>41716</v>
       </c>
       <c r="B120" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="E120" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>195</v>
+        <v>290</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41682</v>
+        <v>41716</v>
       </c>
       <c r="B121" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>292</v>
       </c>
       <c r="E121" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>59</v>
+        <v>293</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41682</v>
+        <v>41715</v>
       </c>
       <c r="B122" t="s">
-        <v>147</v>
+        <v>258</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="E122" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>62</v>
+        <v>295</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41682</v>
+        <v>41715</v>
       </c>
       <c r="B123" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>151</v>
+        <v>297</v>
       </c>
       <c r="E123" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>153</v>
+        <v>298</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41682</v>
+        <v>41715</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>154</v>
+        <v>297</v>
       </c>
       <c r="E124" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>156</v>
+        <v>299</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41681</v>
+        <v>41715</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C125" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>158</v>
+        <v>301</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>159</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41681</v>
+        <v>41715</v>
       </c>
       <c r="B126" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>161</v>
+        <v>303</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41681</v>
+        <v>41715</v>
       </c>
       <c r="B127" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>166</v>
+        <v>305</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41681</v>
+        <v>41715</v>
       </c>
       <c r="B128" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="C128" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="E128" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>170</v>
+        <v>307</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>112</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41680</v>
+        <v>41715</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="E129" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>172</v>
+        <v>311</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>41680</v>
+        <v>41715</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>142</v>
+        <v>313</v>
       </c>
       <c r="E130" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>19</v>
+        <v>314</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>143</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>41677</v>
+        <v>41715</v>
       </c>
       <c r="B131" t="s">
-        <v>110</v>
+        <v>316</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E131" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>59</v>
+        <v>318</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>112</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>41677</v>
+        <v>41715</v>
       </c>
       <c r="B132" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>114</v>
+        <v>317</v>
       </c>
       <c r="E132" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>41677</v>
+        <v>41715</v>
       </c>
       <c r="B133" t="s">
-        <v>116</v>
+        <v>322</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>117</v>
+        <v>317</v>
       </c>
       <c r="E133" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>118</v>
+        <v>323</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>119</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>41676</v>
+        <v>41715</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>326</v>
       </c>
       <c r="E134" t="s">
         <v>10</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>121</v>
+        <v>327</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>122</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41676</v>
+        <v>41712</v>
       </c>
       <c r="B135" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="E135" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41676</v>
+        <v>41711</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="E136" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41676</v>
+        <v>41709</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="E137" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>131</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41676</v>
+        <v>41708</v>
       </c>
       <c r="B138" t="s">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="E138" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41675</v>
+        <v>41708</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>137</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41674</v>
+        <v>41708</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="E140" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41674</v>
+        <v>41708</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="E141" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>105</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41674</v>
+        <v>41708</v>
       </c>
       <c r="B142" t="s">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="E142" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>106</v>
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41674</v>
+        <v>41708</v>
       </c>
       <c r="B143" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41670</v>
+        <v>41705</v>
       </c>
       <c r="B144" t="s">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>4</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41670</v>
+        <v>41703</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="E145" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>7</v>
+        <v>227</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41663</v>
+        <v>41703</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="E146" t="s">
         <v>10</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41662</v>
+        <v>41703</v>
       </c>
       <c r="B147" t="s">
         <v>13</v>
@@ -5259,159 +5668,159 @@
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="E147" t="s">
         <v>10</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>15</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41661</v>
+        <v>41703</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="E148" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41656</v>
+        <v>41703</v>
       </c>
       <c r="B149" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="E149" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>41655</v>
+        <v>41698</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>209</v>
       </c>
       <c r="C150" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="E150" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>41655</v>
+        <v>41698</v>
       </c>
       <c r="B151" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="E151" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>41655</v>
+        <v>41698</v>
       </c>
       <c r="B152" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>41654</v>
+        <v>41697</v>
       </c>
       <c r="B153" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="E153" t="s">
         <v>18</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>41653</v>
+        <v>41696</v>
       </c>
       <c r="B154" t="s">
         <v>36</v>
@@ -5420,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
@@ -5429,12 +5838,12 @@
         <v>37</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>41653</v>
+        <v>41696</v>
       </c>
       <c r="B155" t="s">
         <v>39</v>
@@ -5443,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="E155" t="s">
         <v>2</v>
@@ -5452,12 +5861,12 @@
         <v>40</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>41653</v>
+        <v>41696</v>
       </c>
       <c r="B156" t="s">
         <v>42</v>
@@ -5466,360 +5875,1487 @@
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="E156" t="s">
         <v>43</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>41652</v>
+        <v>41690</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>41652</v>
+        <v>41689</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="E158" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>41652</v>
+        <v>41689</v>
       </c>
       <c r="B159" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="E159" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>41652</v>
+        <v>41689</v>
       </c>
       <c r="B160" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C160" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="E160" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>41652</v>
+        <v>41689</v>
       </c>
       <c r="B161" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="E161" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>41652</v>
+        <v>41687</v>
       </c>
       <c r="B162" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="E162" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>41652</v>
+        <v>41687</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="E163" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>41649</v>
+        <v>41687</v>
       </c>
       <c r="B164" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="E164" t="s">
         <v>2</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>41649</v>
+        <v>41687</v>
       </c>
       <c r="B165" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C165" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="E165" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>41649</v>
+        <v>41687</v>
       </c>
       <c r="B166" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="E166" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>41649</v>
+        <v>41687</v>
       </c>
       <c r="B167" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="E167" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>41649</v>
+        <v>41684</v>
       </c>
       <c r="B168" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="E168" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>41649</v>
+        <v>41684</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="E169" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>41648</v>
+        <v>41682</v>
       </c>
       <c r="B170" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="C170" t="s">
         <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="E170" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
+        <v>41682</v>
+      </c>
+      <c r="B171" t="s">
+        <v>147</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E171" t="s">
+        <v>58</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>41682</v>
+      </c>
+      <c r="B172" t="s">
+        <v>150</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E172" t="s">
+        <v>58</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>41682</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E173" t="s">
+        <v>18</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>41681</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E174" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>41681</v>
+      </c>
+      <c r="B175" t="s">
+        <v>160</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>41681</v>
+      </c>
+      <c r="B176" t="s">
+        <v>160</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E176" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>41681</v>
+      </c>
+      <c r="B177" t="s">
+        <v>167</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E177" t="s">
+        <v>169</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>41680</v>
+      </c>
+      <c r="B178" t="s">
+        <v>30</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E178" t="s">
+        <v>31</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>41680</v>
+      </c>
+      <c r="B179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E179" t="s">
+        <v>18</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>41677</v>
+      </c>
+      <c r="B180" t="s">
+        <v>110</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E180" t="s">
+        <v>58</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>41677</v>
+      </c>
+      <c r="B181" t="s">
+        <v>113</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E181" t="s">
+        <v>58</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>41677</v>
+      </c>
+      <c r="B182" t="s">
+        <v>116</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E182" t="s">
+        <v>58</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E183" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B184" t="s">
+        <v>123</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E184" t="s">
+        <v>31</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E185" t="s">
+        <v>18</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E186" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B187" t="s">
+        <v>132</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E187" t="s">
+        <v>2</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>41675</v>
+      </c>
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E188" t="s">
+        <v>18</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B189" t="s">
+        <v>138</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E189" t="s">
+        <v>140</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B190" t="s">
+        <v>36</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E190" t="s">
+        <v>2</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B191" t="s">
+        <v>39</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E191" t="s">
+        <v>2</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B192" t="s">
+        <v>42</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E192" t="s">
+        <v>43</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E193" t="s">
+        <v>2</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E194" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E195" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E196" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B197" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E197" t="s">
+        <v>18</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B198" t="s">
+        <v>21</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E198" t="s">
+        <v>2</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B199" t="s">
+        <v>24</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E199" t="s">
+        <v>2</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B200" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E200" t="s">
+        <v>2</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B201" t="s">
+        <v>30</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E201" t="s">
+        <v>31</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B202" t="s">
+        <v>34</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E202" t="s">
+        <v>18</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B203" t="s">
+        <v>36</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E203" t="s">
+        <v>2</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B204" t="s">
+        <v>39</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E204" t="s">
+        <v>2</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B205" t="s">
+        <v>42</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E205" t="s">
+        <v>43</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B207" t="s">
+        <v>16</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E207" t="s">
+        <v>18</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B208" t="s">
+        <v>49</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E208" t="s">
+        <v>31</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B209" t="s">
+        <v>36</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E209" t="s">
+        <v>2</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B210" t="s">
+        <v>39</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E210" t="s">
+        <v>2</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B211" t="s">
+        <v>42</v>
+      </c>
+      <c r="C211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E211" t="s">
+        <v>43</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B212" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E212" t="s">
+        <v>18</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B213" t="s">
+        <v>52</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E213" t="s">
+        <v>2</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B214" t="s">
+        <v>39</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E214" t="s">
+        <v>2</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B215" t="s">
+        <v>57</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E215" t="s">
+        <v>58</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B216" t="s">
+        <v>61</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E216" t="s">
+        <v>58</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B217" t="s">
+        <v>64</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E217" t="s">
+        <v>58</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B218" t="s">
+        <v>16</v>
+      </c>
+      <c r="C218" t="s">
+        <v>17</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E218" t="s">
+        <v>18</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>41648</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B219" t="s">
+        <v>69</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E219" t="s">
+        <v>2</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B220" t="s">
         <v>16</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C220" t="s">
         <v>17</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D220" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E220" t="s">
         <v>18</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="F220" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G171" s="3" t="s">
+      <c r="G220" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -2281,7 +2281,7 @@
   <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,8 +2314,8 @@
         <v>71</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H49" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-26'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002663087', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 29.83  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 20:44:24'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-26'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002663087', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 29.83  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-25 12:4:44'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-26'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002662032', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 16.10  , 'mo_saldo' =&gt; 29.83, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 20:44:24'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-26'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002662032', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 16.10  , 'mo_saldo' =&gt; 29.83, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-25 12:4:44'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="658">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1956,6 +1956,48 @@
   </si>
   <si>
     <t>29.83</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP AKI MOLINEROS 161</t>
+  </si>
+  <si>
+    <t>0008073921</t>
+  </si>
+  <si>
+    <t>110.36  </t>
+  </si>
+  <si>
+    <t>267.88</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP FYBECA (LA LUZ)</t>
+  </si>
+  <si>
+    <t>0007789948</t>
+  </si>
+  <si>
+    <t>18.76  </t>
+  </si>
+  <si>
+    <t>378.24</t>
+  </si>
+  <si>
+    <t>0007463930</t>
+  </si>
+  <si>
+    <t>397.00</t>
+  </si>
+  <si>
+    <t>0004192676</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>0002448689</t>
+  </si>
+  <si>
+    <t>264.88</t>
   </si>
 </sst>
 </file>
@@ -2278,10 +2320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H1" sqref="H1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,700 +2335,712 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41785</v>
+        <v>41789</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>640</v>
+        <v>570</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>71</v>
+        <v>657</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-26'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002663087', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 29.83  , 'mo_saldo' =&gt; 0.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-25 12:4:44'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; '3940694600/0995935959', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002448689', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 264.88, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41785</v>
+        <v>41788</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>644</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-26'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002662032', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 16.10  , 'mo_saldo' =&gt; 29.83, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-25 12:4:44'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-29'), 'mo_concepto' =&gt; 'RETIRO ATM BP AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008073921', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 110.36  , 'mo_saldo' =&gt; 267.88, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41782</v>
+        <v>41788</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>648</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>509</v>
+        <v>649</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>650</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>510</v>
+        <v>651</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-29'), 'mo_concepto' =&gt; 'RETIRO ATM BP FYBECA (LA LUZ)', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007789948', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 18.76  , 'mo_saldo' =&gt; 378.24, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>329</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>512</v>
+        <v>652</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>514</v>
+        <v>653</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-29'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007463930', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 397.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B5" t="s">
-        <v>515</v>
+        <v>439</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>516</v>
+        <v>654</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>517</v>
+        <v>435</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>518</v>
+        <v>655</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-29'), 'mo_concepto' =&gt; 'DEPOSITO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0004192676', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 400.00  , 'mo_saldo' =&gt; 400.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41781</v>
+        <v>41785</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>520</v>
+        <v>639</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>187</v>
+        <v>640</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>521</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41781</v>
+        <v>41785</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>522</v>
+        <v>641</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>523</v>
+        <v>642</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>524</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41780</v>
+        <v>41782</v>
       </c>
       <c r="B8" t="s">
-        <v>525</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>527</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>511</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>320</v>
+        <v>513</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>515</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>323</v>
+        <v>517</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>519</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41779</v>
+        <v>41781</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B13" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>59</v>
+        <v>527</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B14" t="s">
-        <v>539</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B15" t="s">
-        <v>542</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>544</v>
+        <v>323</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41778</v>
+        <v>41780</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>547</v>
+        <v>239</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41775</v>
+        <v>41779</v>
       </c>
       <c r="B17" t="s">
-        <v>549</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41775</v>
+        <v>41779</v>
       </c>
       <c r="B18" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41775</v>
+        <v>41779</v>
       </c>
       <c r="B19" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="E19" t="s">
-        <v>558</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41774</v>
+        <v>41779</v>
       </c>
       <c r="B20" t="s">
-        <v>281</v>
+        <v>542</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41774</v>
+        <v>41778</v>
       </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41773</v>
+        <v>41775</v>
       </c>
       <c r="B22" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>11</v>
+        <v>551</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41772</v>
+        <v>41775</v>
       </c>
       <c r="B23" t="s">
-        <v>329</v>
+        <v>553</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>570</v>
+        <v>22</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41772</v>
+        <v>41775</v>
       </c>
       <c r="B24" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="E24" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41772</v>
+        <v>41774</v>
       </c>
       <c r="B25" t="s">
-        <v>576</v>
+        <v>281</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="E25" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>239</v>
+        <v>561</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41771</v>
+        <v>41774</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41771</v>
+        <v>41773</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>566</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>583</v>
+        <v>11</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B28" t="s">
-        <v>585</v>
+        <v>329</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>572</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>574</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>583</v>
+        <v>187</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>576</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>558</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2994,22 +3048,22 @@
         <v>41771</v>
       </c>
       <c r="B31" t="s">
-        <v>590</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="E31" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>392</v>
+        <v>580</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3017,22 +3071,22 @@
         <v>41771</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="E32" t="s">
-        <v>574</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3040,22 +3094,22 @@
         <v>41771</v>
       </c>
       <c r="B33" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="E33" t="s">
-        <v>574</v>
+        <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3063,22 +3117,22 @@
         <v>41771</v>
       </c>
       <c r="B34" t="s">
-        <v>329</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3086,22 +3140,22 @@
         <v>41771</v>
       </c>
       <c r="B35" t="s">
-        <v>556</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E35" t="s">
-        <v>558</v>
+        <v>169</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3109,22 +3163,22 @@
         <v>41771</v>
       </c>
       <c r="B36" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="E36" t="s">
-        <v>558</v>
+        <v>2</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>32</v>
+        <v>392</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3132,22 +3186,22 @@
         <v>41771</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>574</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>19</v>
+        <v>594</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3155,73 +3209,73 @@
         <v>41771</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>596</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>574</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B39" t="s">
-        <v>610</v>
+        <v>329</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>612</v>
+        <v>570</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B40" t="s">
-        <v>329</v>
+        <v>556</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>570</v>
+        <v>32</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B41" t="s">
         <v>556</v>
@@ -3230,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="E41" t="s">
         <v>558</v>
@@ -3239,165 +3293,165 @@
         <v>32</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B42" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E42" t="s">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>619</v>
+        <v>19</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41765</v>
+        <v>41771</v>
       </c>
       <c r="B43" t="s">
-        <v>621</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>59</v>
+        <v>608</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>71</v>
+        <v>609</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41765</v>
+        <v>41768</v>
       </c>
       <c r="B44" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>62</v>
+        <v>612</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41765</v>
+        <v>41768</v>
       </c>
       <c r="B45" t="s">
-        <v>626</v>
+        <v>329</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>556</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>631</v>
+        <v>32</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>621</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>71</v>
@@ -3405,76 +3459,76 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>623</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>637</v>
+        <v>62</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41759</v>
+        <v>41765</v>
       </c>
       <c r="B50" t="s">
-        <v>505</v>
+        <v>626</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>506</v>
+        <v>627</v>
       </c>
       <c r="E50" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>507</v>
+        <v>628</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>508</v>
+        <v>629</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="B51" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>499</v>
+        <v>630</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>500</v>
+        <v>631</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>501</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
@@ -3483,113 +3537,113 @@
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>502</v>
+        <v>633</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>503</v>
+        <v>628</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>504</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41754</v>
+        <v>41761</v>
       </c>
       <c r="B53" t="s">
-        <v>495</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>496</v>
+        <v>635</v>
       </c>
       <c r="E53" t="s">
-        <v>497</v>
+        <v>18</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>498</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41745</v>
+        <v>41761</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>477</v>
+        <v>636</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>478</v>
+        <v>637</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>479</v>
+        <v>638</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41744</v>
+        <v>41759</v>
       </c>
       <c r="B55" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="E55" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41743</v>
+        <v>41758</v>
       </c>
       <c r="B56" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="E56" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41743</v>
+        <v>41758</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
@@ -3598,504 +3652,504 @@
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>19</v>
+        <v>503</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41743</v>
+        <v>41754</v>
       </c>
       <c r="B58" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="E58" t="s">
-        <v>58</v>
+        <v>497</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>492</v>
+        <v>7</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41743</v>
+        <v>41745</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41740</v>
+        <v>41744</v>
       </c>
       <c r="B60" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>59</v>
+        <v>482</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B61" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>62</v>
+        <v>486</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B62" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>463</v>
+        <v>19</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41739</v>
+        <v>41743</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>490</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41739</v>
+        <v>41743</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>187</v>
+        <v>492</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>455</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>471</v>
+        <v>59</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B66" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>475</v>
+        <v>62</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41738</v>
+        <v>41740</v>
       </c>
       <c r="B67" t="s">
-        <v>336</v>
+        <v>461</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="E67" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>32</v>
+        <v>463</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B68" t="s">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>435</v>
+        <v>187</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="B70" t="s">
-        <v>407</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>327</v>
+        <v>471</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B71" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="E71" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41736</v>
+        <v>41738</v>
       </c>
       <c r="B72" t="s">
-        <v>442</v>
+        <v>336</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>444</v>
+        <v>32</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41736</v>
+        <v>41738</v>
       </c>
       <c r="B73" t="s">
-        <v>446</v>
+        <v>291</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B75" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>442</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="E77" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>32</v>
+        <v>444</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41732</v>
+        <v>41736</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41731</v>
+        <v>41736</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
@@ -4104,136 +4158,136 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41731</v>
+        <v>41736</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="E80" t="s">
         <v>18</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>67</v>
+        <v>331</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41731</v>
+        <v>41733</v>
       </c>
       <c r="B81" t="s">
-        <v>407</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>327</v>
+        <v>424</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41730</v>
+        <v>41733</v>
       </c>
       <c r="B82" t="s">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="E82" t="s">
-        <v>338</v>
+        <v>140</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>412</v>
+        <v>32</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41730</v>
+        <v>41732</v>
       </c>
       <c r="B83" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="E84" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>40</v>
+        <v>432</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
@@ -4242,85 +4296,85 @@
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="E85" t="s">
         <v>18</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>372</v>
+        <v>67</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B86" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="E86" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>59</v>
+        <v>327</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B87" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>338</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>62</v>
+        <v>412</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B88" t="s">
-        <v>380</v>
+        <v>123</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="E88" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>382</v>
+        <v>32</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4328,22 +4382,22 @@
         <v>41729</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C89" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4354,19 +4408,19 @@
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E90" t="s">
         <v>18</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4374,22 +4428,22 @@
         <v>41729</v>
       </c>
       <c r="B91" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E91" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>392</v>
+        <v>59</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4397,22 +4451,22 @@
         <v>41729</v>
       </c>
       <c r="B92" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>395</v>
+        <v>62</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4420,22 +4474,22 @@
         <v>41729</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>380</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E93" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>37</v>
+        <v>382</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4443,22 +4497,22 @@
         <v>41729</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E94" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>40</v>
+        <v>385</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4466,22 +4520,22 @@
         <v>41729</v>
       </c>
       <c r="B95" t="s">
-        <v>397</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4489,22 +4543,22 @@
         <v>41729</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>390</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4512,436 +4566,436 @@
         <v>41729</v>
       </c>
       <c r="B97" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>362</v>
+        <v>37</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>397</v>
       </c>
       <c r="C100" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="E101" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="E102" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>7</v>
+        <v>359</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41722</v>
+        <v>41725</v>
       </c>
       <c r="B105" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>32</v>
+        <v>350</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41719</v>
+        <v>41724</v>
       </c>
       <c r="B107" t="s">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="E107" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>342</v>
+        <v>40</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41718</v>
+        <v>41724</v>
       </c>
       <c r="B108" t="s">
-        <v>329</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41718</v>
+        <v>41724</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>334</v>
+        <v>7</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41718</v>
+        <v>41722</v>
       </c>
       <c r="B110" t="s">
-        <v>336</v>
+        <v>123</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E110" t="s">
-        <v>338</v>
+        <v>31</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="E111" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41717</v>
+        <v>41719</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>340</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>270</v>
+        <v>341</v>
       </c>
       <c r="E112" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>329</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>181</v>
+        <v>331</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="E114" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>276</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="E115" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4949,22 +5003,22 @@
         <v>41717</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4972,22 +5026,22 @@
         <v>41717</v>
       </c>
       <c r="B117" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4995,206 +5049,206 @@
         <v>41717</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C118" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E118" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>33</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B119" t="s">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E119" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B120" t="s">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E120" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B121" t="s">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B122" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E122" t="s">
         <v>10</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B123" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E123" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>298</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E124" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>301</v>
+        <v>32</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B126" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E126" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>304</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -5202,22 +5256,22 @@
         <v>41715</v>
       </c>
       <c r="B127" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E127" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -5225,22 +5279,22 @@
         <v>41715</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -5248,22 +5302,22 @@
         <v>41715</v>
       </c>
       <c r="B129" t="s">
-        <v>309</v>
+        <v>39</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="E129" t="s">
         <v>2</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5271,22 +5325,22 @@
         <v>41715</v>
       </c>
       <c r="B130" t="s">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="C130" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5294,22 +5348,22 @@
         <v>41715</v>
       </c>
       <c r="B131" t="s">
-        <v>316</v>
+        <v>36</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>318</v>
+        <v>37</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5323,16 +5377,16 @@
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5340,22 +5394,22 @@
         <v>41715</v>
       </c>
       <c r="B133" t="s">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="C133" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5363,206 +5417,206 @@
         <v>41715</v>
       </c>
       <c r="B134" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>327</v>
+        <v>175</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="E135" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B136" t="s">
-        <v>123</v>
+        <v>316</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>41709</v>
+        <v>41715</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>175</v>
+        <v>320</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B138" t="s">
-        <v>258</v>
+        <v>322</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>264</v>
+        <v>328</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41708</v>
+        <v>41712</v>
       </c>
       <c r="B140" t="s">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="E140" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B141" t="s">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="E141" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B142" t="s">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E142" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5570,464 +5624,464 @@
         <v>41708</v>
       </c>
       <c r="B143" t="s">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B144" t="s">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="E144" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="E145" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B146" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B148" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E148" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B149" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="E149" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B150" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E150" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="E151" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B152" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="E152" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>41697</v>
+        <v>41703</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E153" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B154" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E154" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B155" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="C155" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E155" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B156" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E156" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>41690</v>
+        <v>41698</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E157" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>41689</v>
+        <v>41697</v>
       </c>
       <c r="B158" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="E158" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B159" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E159" t="s">
         <v>2</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B160" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B161" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="C161" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="E161" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>41687</v>
+        <v>41690</v>
       </c>
       <c r="B162" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="E162" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B163" t="s">
         <v>36</v>
@@ -6036,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E163" t="s">
         <v>2</v>
@@ -6045,12 +6099,12 @@
         <v>37</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B164" t="s">
         <v>39</v>
@@ -6059,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E164" t="s">
         <v>2</v>
@@ -6068,12 +6122,12 @@
         <v>40</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B165" t="s">
         <v>42</v>
@@ -6082,7 +6136,7 @@
         <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E165" t="s">
         <v>43</v>
@@ -6091,30 +6145,30 @@
         <v>181</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -6122,1011 +6176,1011 @@
         <v>41687</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E167" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B168" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E168" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B169" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E169" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B170" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="C170" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="E170" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B171" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="C171" t="s">
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="E171" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B172" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E172" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E173" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C174" t="s">
         <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B175" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B176" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B177" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C177" t="s">
         <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E177" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B178" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E178" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B179" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E179" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B180" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="E180" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B181" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="C181" t="s">
         <v>1</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="E181" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B182" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="E182" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C183" t="s">
         <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B184" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E184" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B185" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E185" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B186" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E186" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B187" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E187" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B188" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E188" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B189" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E189" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B190" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E190" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B191" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E191" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B192" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="E192" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>41670</v>
+        <v>41675</v>
       </c>
       <c r="B193" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="E193" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="E194" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>41663</v>
+        <v>41674</v>
       </c>
       <c r="B195" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>41662</v>
+        <v>41674</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>41661</v>
+        <v>41674</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C197" t="s">
         <v>17</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="E197" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>41656</v>
+        <v>41670</v>
       </c>
       <c r="B198" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E198" t="s">
         <v>2</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>41655</v>
+        <v>41670</v>
       </c>
       <c r="B199" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E199" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>41655</v>
+        <v>41663</v>
       </c>
       <c r="B200" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E200" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>41655</v>
+        <v>41662</v>
       </c>
       <c r="B201" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E201" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>41654</v>
+        <v>41661</v>
       </c>
       <c r="B202" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C202" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E202" t="s">
         <v>18</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="B203" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C203" t="s">
         <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E203" t="s">
         <v>2</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B204" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E204" t="s">
         <v>2</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B205" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E205" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C206" t="s">
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E207" t="s">
         <v>18</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B208" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E208" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B209" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C209" t="s">
         <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E209" t="s">
         <v>2</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B210" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C210" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E210" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -7134,22 +7188,22 @@
         <v>41652</v>
       </c>
       <c r="B211" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C211" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E211" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -7163,131 +7217,131 @@
         <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E212" t="s">
         <v>18</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B213" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C213" t="s">
         <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E213" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B214" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E214" t="s">
         <v>2</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B215" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C215" t="s">
         <v>1</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E215" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B216" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C216" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E216" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B217" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E217" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -7295,67 +7349,182 @@
         <v>41649</v>
       </c>
       <c r="B218" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C218" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E218" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B219" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C219" t="s">
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E219" t="s">
         <v>2</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B220" t="s">
+        <v>57</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E220" t="s">
+        <v>58</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B221" t="s">
+        <v>61</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E221" t="s">
+        <v>58</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B222" t="s">
+        <v>64</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E222" t="s">
+        <v>58</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B223" t="s">
+        <v>16</v>
+      </c>
+      <c r="C223" t="s">
+        <v>17</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E223" t="s">
+        <v>18</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
         <v>41648</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B224" t="s">
+        <v>69</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E224" t="s">
+        <v>2</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B225" t="s">
         <v>16</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C225" t="s">
         <v>17</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D225" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E225" t="s">
         <v>18</v>
       </c>
-      <c r="F220" s="3" t="s">
+      <c r="F225" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G220" s="3" t="s">
+      <c r="G225" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/backup/cuenta_3940694600.xlsx
+++ b/backup/cuenta_3940694600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="665">
   <si>
     <t>13051694-MOVISTAR -CB-7872717</t>
   </si>
@@ -1998,6 +1998,27 @@
   </si>
   <si>
     <t>264.88</t>
+  </si>
+  <si>
+    <t>RETIRO ATM BP D/AKI MOLINEROS</t>
+  </si>
+  <si>
+    <t>0005010129</t>
+  </si>
+  <si>
+    <t>224.91</t>
+  </si>
+  <si>
+    <t>0003342146</t>
+  </si>
+  <si>
+    <t>244.91</t>
+  </si>
+  <si>
+    <t>0004484550</t>
+  </si>
+  <si>
+    <t>244.88</t>
   </si>
 </sst>
 </file>
@@ -2320,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H5"/>
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,97 +2356,97 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41789</v>
+        <v>41792</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>658</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>570</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; '3940694600/0995935959', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0002448689', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 264.88, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-06-02'), 'mo_concepto' =&gt; 'RETIRO ATM BP D/AKI MOLINEROS', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005010129', 'mo_oficina' =&gt; 'CENTRO DE ACOPIO NORTE', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 224.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-01 11:55:25'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>646</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-29'), 'mo_concepto' =&gt; 'RETIRO ATM BP AKI MOLINEROS 161', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0008073921', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 110.36  , 'mo_saldo' =&gt; 267.88, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0003342146', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.03  , 'mo_saldo' =&gt; 244.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-01 11:55:25'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B3" t="s">
-        <v>648</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>650</v>
+        <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-29'), 'mo_concepto' =&gt; 'RETIRO ATM BP FYBECA (LA LUZ)', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007789948', 'mo_oficina' =&gt; 'INSTITUCIONAL SS.CC.', 'mo_monto' =&gt; 18.76  , 'mo_saldo' =&gt; 378.24, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'RETIRO ATM BP N/GIRON 1', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004484550', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 244.88, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-01 11:55:25'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -2434,11 +2455,7 @@
         <v>570</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-29'), 'mo_concepto' =&gt; '3940694600/0998453098', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0007463930', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 3.00  , 'mo_saldo' =&gt; 397.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2446,164 +2463,160 @@
         <v>41788</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>644</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>435</v>
+        <v>646</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-29'), 'mo_concepto' =&gt; 'DEPOSITO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0004192676', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 400.00  , 'mo_saldo' =&gt; 400.00, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41785</v>
+        <v>41788</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>648</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>71</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41785</v>
+        <v>41788</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>642</v>
+        <v>570</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41782</v>
+        <v>41788</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>439</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>509</v>
+        <v>654</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>435</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>510</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41781</v>
+        <v>41785</v>
       </c>
       <c r="B9" t="s">
-        <v>511</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>512</v>
+        <v>639</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>513</v>
+        <v>640</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>514</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41781</v>
+        <v>41785</v>
       </c>
       <c r="B10" t="s">
-        <v>515</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>516</v>
+        <v>641</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>517</v>
+        <v>642</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>518</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41781</v>
+        <v>41782</v>
       </c>
       <c r="B11" t="s">
-        <v>519</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2611,91 +2624,91 @@
         <v>41781</v>
       </c>
       <c r="B12" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B13" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>519</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>320</v>
+        <v>187</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B15" t="s">
-        <v>322</v>
+        <v>439</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>323</v>
+        <v>523</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2703,91 +2716,91 @@
         <v>41780</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>525</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>239</v>
+        <v>527</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>534</v>
+        <v>320</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B18" t="s">
-        <v>536</v>
+        <v>322</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>59</v>
+        <v>323</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B19" t="s">
-        <v>539</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2795,321 +2808,321 @@
         <v>41779</v>
       </c>
       <c r="B20" t="s">
-        <v>542</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41778</v>
+        <v>41779</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>536</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>547</v>
+        <v>59</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41775</v>
+        <v>41779</v>
       </c>
       <c r="B22" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>551</v>
+        <v>62</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41775</v>
+        <v>41779</v>
       </c>
       <c r="B23" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>22</v>
+        <v>544</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41775</v>
+        <v>41778</v>
       </c>
       <c r="B24" t="s">
-        <v>556</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="E24" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>19</v>
+        <v>547</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="B25" t="s">
-        <v>281</v>
+        <v>549</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="B26" t="s">
-        <v>329</v>
+        <v>553</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>564</v>
+        <v>22</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41773</v>
+        <v>41775</v>
       </c>
       <c r="B27" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41772</v>
+        <v>41774</v>
       </c>
       <c r="B28" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41772</v>
+        <v>41774</v>
       </c>
       <c r="B29" t="s">
-        <v>572</v>
+        <v>329</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E29" t="s">
-        <v>574</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>187</v>
+        <v>564</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41772</v>
+        <v>41773</v>
       </c>
       <c r="B30" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="E30" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>572</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>574</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>583</v>
+        <v>187</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B33" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>583</v>
+        <v>239</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3123,16 +3136,16 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3140,22 +3153,22 @@
         <v>41771</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>206</v>
+        <v>583</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3163,22 +3176,22 @@
         <v>41771</v>
       </c>
       <c r="B36" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E36" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>392</v>
+        <v>583</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3186,22 +3199,22 @@
         <v>41771</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E37" t="s">
-        <v>574</v>
+        <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3209,22 +3222,22 @@
         <v>41771</v>
       </c>
       <c r="B38" t="s">
-        <v>596</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E38" t="s">
-        <v>574</v>
+        <v>169</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>597</v>
+        <v>206</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3232,22 +3245,22 @@
         <v>41771</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>590</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>570</v>
+        <v>392</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3255,22 +3268,22 @@
         <v>41771</v>
       </c>
       <c r="B40" t="s">
-        <v>556</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E40" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>32</v>
+        <v>594</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3278,22 +3291,22 @@
         <v>41771</v>
       </c>
       <c r="B41" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E41" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>32</v>
+        <v>597</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3301,22 +3314,22 @@
         <v>41771</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3324,183 +3337,183 @@
         <v>41771</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>556</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>608</v>
+        <v>32</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B44" t="s">
-        <v>610</v>
+        <v>556</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>612</v>
+        <v>32</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B45" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="B46" t="s">
-        <v>556</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="E46" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>32</v>
+        <v>608</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41766</v>
+        <v>41768</v>
       </c>
       <c r="B47" t="s">
-        <v>439</v>
+        <v>610</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E47" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41765</v>
+        <v>41768</v>
       </c>
       <c r="B48" t="s">
-        <v>621</v>
+        <v>329</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>59</v>
+        <v>570</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>71</v>
+        <v>615</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B49" t="s">
-        <v>623</v>
+        <v>556</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B50" t="s">
-        <v>626</v>
+        <v>439</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3508,22 +3521,22 @@
         <v>41765</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>621</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>631</v>
+        <v>59</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>632</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3531,50 +3544,50 @@
         <v>41765</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>623</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>628</v>
+        <v>62</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>626</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>127</v>
+        <v>628</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>71</v>
+        <v>629</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
@@ -3583,67 +3596,67 @@
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41759</v>
+        <v>41765</v>
       </c>
       <c r="B55" t="s">
-        <v>505</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>506</v>
+        <v>633</v>
       </c>
       <c r="E55" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>507</v>
+        <v>628</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>508</v>
+        <v>634</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41758</v>
+        <v>41761</v>
       </c>
       <c r="B56" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>499</v>
+        <v>635</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>500</v>
+        <v>127</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>501</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41758</v>
+        <v>41761</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
@@ -3652,154 +3665,154 @@
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>502</v>
+        <v>636</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>503</v>
+        <v>637</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>504</v>
+        <v>638</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41754</v>
+        <v>41759</v>
       </c>
       <c r="B58" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="E58" t="s">
-        <v>497</v>
+        <v>338</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>7</v>
+        <v>507</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41745</v>
+        <v>41758</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41744</v>
+        <v>41758</v>
       </c>
       <c r="B60" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="E60" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41743</v>
+        <v>41754</v>
       </c>
       <c r="B61" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="E61" t="s">
-        <v>2</v>
+        <v>497</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>486</v>
+        <v>7</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41743</v>
+        <v>41745</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>19</v>
+        <v>478</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="B63" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="E63" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3807,160 +3820,160 @@
         <v>41743</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>484</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B65" t="s">
-        <v>455</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="E65" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B66" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="E66" t="s">
         <v>58</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>62</v>
+        <v>492</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B67" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="E67" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>455</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>458</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>461</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3968,183 +3981,183 @@
         <v>41739</v>
       </c>
       <c r="B71" t="s">
-        <v>473</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B72" t="s">
-        <v>336</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="E72" t="s">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B73" t="s">
-        <v>291</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>473</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="B75" t="s">
-        <v>407</v>
+        <v>336</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>327</v>
+        <v>32</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41736</v>
+        <v>41738</v>
       </c>
       <c r="B76" t="s">
-        <v>439</v>
+        <v>291</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="E76" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B77" t="s">
-        <v>442</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B78" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>448</v>
+        <v>327</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4152,22 +4165,22 @@
         <v>41736</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4175,96 +4188,96 @@
         <v>41736</v>
       </c>
       <c r="B80" t="s">
-        <v>329</v>
+        <v>442</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>331</v>
+        <v>444</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>446</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E82" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>32</v>
+        <v>419</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41732</v>
+        <v>41736</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E83" t="s">
         <v>18</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>429</v>
+        <v>331</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41731</v>
+        <v>41733</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
@@ -4273,177 +4286,177 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41731</v>
+        <v>41733</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="B86" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>327</v>
+        <v>429</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B87" t="s">
-        <v>410</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="E87" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>407</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E89" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>410</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B91" t="s">
-        <v>374</v>
+        <v>123</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4451,22 +4464,22 @@
         <v>41729</v>
       </c>
       <c r="B92" t="s">
-        <v>377</v>
+        <v>209</v>
       </c>
       <c r="C92" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="E92" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4474,22 +4487,22 @@
         <v>41729</v>
       </c>
       <c r="B93" t="s">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E93" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4497,22 +4510,22 @@
         <v>41729</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>385</v>
+        <v>59</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4520,22 +4533,22 @@
         <v>41729</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>377</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>388</v>
+        <v>62</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4543,22 +4556,22 @@
         <v>41729</v>
       </c>
       <c r="B96" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E96" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4566,22 +4579,22 @@
         <v>41729</v>
       </c>
       <c r="B97" t="s">
-        <v>393</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4589,22 +4602,22 @@
         <v>41729</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E98" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>37</v>
+        <v>388</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4612,22 +4625,22 @@
         <v>41729</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>390</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E99" t="s">
         <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>40</v>
+        <v>392</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4635,22 +4648,22 @@
         <v>41729</v>
       </c>
       <c r="B100" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4658,22 +4671,22 @@
         <v>41729</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4681,50 +4694,50 @@
         <v>41729</v>
       </c>
       <c r="B102" t="s">
-        <v>367</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>397</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B104" t="s">
         <v>13</v>
@@ -4733,108 +4746,108 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E104" t="s">
         <v>10</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41725</v>
+        <v>41729</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>367</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E106" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E107" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4842,229 +4855,229 @@
         <v>41724</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E109" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B110" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C111" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>32</v>
+        <v>356</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41719</v>
+        <v>41724</v>
       </c>
       <c r="B112" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="E112" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>342</v>
+        <v>7</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41718</v>
+        <v>41722</v>
       </c>
       <c r="B113" t="s">
-        <v>329</v>
+        <v>123</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="E113" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41718</v>
+        <v>41722</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B115" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E115" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>192</v>
+        <v>342</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B116" t="s">
-        <v>36</v>
+        <v>329</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="E116" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="E117" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5078,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E119" t="s">
         <v>2</v>
@@ -5087,7 +5100,7 @@
         <v>37</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5101,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E120" t="s">
         <v>2</v>
@@ -5110,7 +5123,7 @@
         <v>40</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5124,16 +5137,16 @@
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E121" t="s">
         <v>43</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>279</v>
+        <v>181</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5141,22 +5154,22 @@
         <v>41717</v>
       </c>
       <c r="B122" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -5164,88 +5177,88 @@
         <v>41717</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E123" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B124" t="s">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="C124" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E124" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B125" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E125" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B126" t="s">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>33</v>
@@ -5253,71 +5266,71 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E128" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E129" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>299</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5325,22 +5338,22 @@
         <v>41715</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E130" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5354,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
@@ -5363,7 +5376,7 @@
         <v>37</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5377,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
@@ -5386,7 +5399,7 @@
         <v>40</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5400,16 +5413,16 @@
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E133" t="s">
         <v>43</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5417,22 +5430,22 @@
         <v>41715</v>
       </c>
       <c r="B134" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5440,22 +5453,22 @@
         <v>41715</v>
       </c>
       <c r="B135" t="s">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5463,22 +5476,22 @@
         <v>41715</v>
       </c>
       <c r="B136" t="s">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="C136" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5486,22 +5499,22 @@
         <v>41715</v>
       </c>
       <c r="B137" t="s">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>320</v>
+        <v>175</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5509,22 +5522,22 @@
         <v>41715</v>
       </c>
       <c r="B138" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5532,160 +5545,160 @@
         <v>41715</v>
       </c>
       <c r="B139" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="E140" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B141" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>41709</v>
+        <v>41715</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>175</v>
+        <v>327</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>41708</v>
+        <v>41712</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B145" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E145" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5693,22 +5706,22 @@
         <v>41708</v>
       </c>
       <c r="B146" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E146" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5716,22 +5729,22 @@
         <v>41708</v>
       </c>
       <c r="B147" t="s">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E147" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5739,114 +5752,114 @@
         <v>41708</v>
       </c>
       <c r="B148" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B149" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E149" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="E150" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B151" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5854,22 +5867,22 @@
         <v>41703</v>
       </c>
       <c r="B153" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E153" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5877,275 +5890,275 @@
         <v>41703</v>
       </c>
       <c r="B154" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="E154" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B155" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="E155" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="E156" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B157" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E157" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C158" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E158" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B159" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E159" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="C160" t="s">
         <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B161" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
         <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E162" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B163" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E163" t="s">
         <v>2</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>41689</v>
+        <v>41696</v>
       </c>
       <c r="B164" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C164" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E164" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B165" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E165" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -6153,91 +6166,91 @@
         <v>41689</v>
       </c>
       <c r="B166" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E166" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B167" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="E167" t="s">
         <v>2</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B168" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C168" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E168" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B169" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E169" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -6245,22 +6258,22 @@
         <v>41687</v>
       </c>
       <c r="B170" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E170" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -6268,22 +6281,22 @@
         <v>41687</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C171" t="s">
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -6291,137 +6304,137 @@
         <v>41687</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E172" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B173" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="C173" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E173" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B174" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C174" t="s">
         <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E174" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B175" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="E175" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B176" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="E176" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B177" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C177" t="s">
         <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="E177" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6429,91 +6442,91 @@
         <v>41682</v>
       </c>
       <c r="B178" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E178" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="C179" t="s">
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B180" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B181" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -6521,88 +6534,88 @@
         <v>41681</v>
       </c>
       <c r="B182" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E182" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B183" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C183" t="s">
         <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E183" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B184" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E184" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B185" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="E185" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>112</v>
@@ -6610,117 +6623,117 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B186" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="E186" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B187" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E187" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C188" t="s">
         <v>1</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B189" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E189" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E190" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -6728,22 +6741,22 @@
         <v>41676</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E191" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6751,114 +6764,114 @@
         <v>41676</v>
       </c>
       <c r="B192" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E192" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B193" t="s">
         <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E193" t="s">
         <v>18</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B194" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E194" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B195" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E195" t="s">
         <v>2</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B196" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E196" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -6866,390 +6879,390 @@
         <v>41674</v>
       </c>
       <c r="B197" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E197" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B198" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E198" t="s">
         <v>2</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E199" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>41663</v>
+        <v>41674</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C200" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>41662</v>
+        <v>41670</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>41661</v>
+        <v>41670</v>
       </c>
       <c r="B202" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E202" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>41656</v>
+        <v>41663</v>
       </c>
       <c r="B203" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
         <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E203" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>41655</v>
+        <v>41662</v>
       </c>
       <c r="B204" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E204" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="B205" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C205" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E205" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B206" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C206" t="s">
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E206" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B207" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E207" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B208" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E208" t="s">
         <v>2</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B209" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C209" t="s">
         <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E209" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B210" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E210" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E212" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B213" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C213" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E213" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -7257,22 +7270,22 @@
         <v>41652</v>
       </c>
       <c r="B214" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E214" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -7280,22 +7293,22 @@
         <v>41652</v>
       </c>
       <c r="B215" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C215" t="s">
         <v>1</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E215" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -7303,22 +7316,22 @@
         <v>41652</v>
       </c>
       <c r="B216" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C216" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E216" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -7326,91 +7339,91 @@
         <v>41652</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E217" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B218" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E218" t="s">
         <v>2</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B219" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C219" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E219" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B220" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E220" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -7418,22 +7431,22 @@
         <v>41649</v>
       </c>
       <c r="B221" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C221" t="s">
         <v>1</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E221" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7441,22 +7454,22 @@
         <v>41649</v>
       </c>
       <c r="B222" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C222" t="s">
         <v>1</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E222" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -7464,67 +7477,136 @@
         <v>41649</v>
       </c>
       <c r="B223" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C223" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E223" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B224" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E224" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B225" t="s">
+        <v>64</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E225" t="s">
+        <v>58</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B226" t="s">
+        <v>16</v>
+      </c>
+      <c r="C226" t="s">
+        <v>17</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E226" t="s">
+        <v>18</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
         <v>41648</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B227" t="s">
+        <v>69</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E227" t="s">
+        <v>2</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B228" t="s">
         <v>16</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C228" t="s">
         <v>17</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D228" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E228" t="s">
         <v>18</v>
       </c>
-      <c r="F225" s="3" t="s">
+      <c r="F228" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G225" s="3" t="s">
+      <c r="G228" s="3" t="s">
         <v>72</v>
       </c>
     </row>
